--- a/Extension code/Forecasting models/Saved preds/ElasticNet preds/Macro_en.xlsx
+++ b/Extension code/Forecasting models/Saved preds/ElasticNet preds/Macro_en.xlsx
@@ -473,16 +473,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7132382661034724</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D2" t="n">
-        <v>1.117949383131504</v>
+        <v>0.706536145496947</v>
       </c>
       <c r="E2" t="n">
-        <v>1.186667033507686</v>
+        <v>0.9862586578696086</v>
       </c>
       <c r="F2" t="n">
-        <v>1.834499504110378</v>
+        <v>0.7836886636148002</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7110927580039441</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D3" t="n">
-        <v>1.143906736166289</v>
+        <v>0.7235024845480658</v>
       </c>
       <c r="E3" t="n">
-        <v>1.142126871828476</v>
+        <v>0.9792239722261797</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73962034878414</v>
+        <v>0.7936662138055617</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7154678790939808</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D4" t="n">
-        <v>1.212273345384411</v>
+        <v>0.7319317955555722</v>
       </c>
       <c r="E4" t="n">
-        <v>1.212412480954818</v>
+        <v>0.9866477617430292</v>
       </c>
       <c r="F4" t="n">
-        <v>1.788428116794441</v>
+        <v>0.7948052969791011</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7099365854089084</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D5" t="n">
-        <v>1.326499245463519</v>
+        <v>0.8037710533700106</v>
       </c>
       <c r="E5" t="n">
-        <v>1.472031720882014</v>
+        <v>0.9856498827992799</v>
       </c>
       <c r="F5" t="n">
-        <v>1.940920461298102</v>
+        <v>0.9337831012972773</v>
       </c>
     </row>
     <row r="6">
@@ -553,16 +553,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7083748718737073</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D6" t="n">
-        <v>1.320295629823449</v>
+        <v>0.7299844008148828</v>
       </c>
       <c r="E6" t="n">
-        <v>1.287648052371775</v>
+        <v>0.9724559673094326</v>
       </c>
       <c r="F6" t="n">
-        <v>1.839553253037557</v>
+        <v>0.7773158024360489</v>
       </c>
     </row>
     <row r="7">
@@ -573,16 +573,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7084224539357704</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D7" t="n">
-        <v>1.223884546798301</v>
+        <v>0.6986956479136242</v>
       </c>
       <c r="E7" t="n">
-        <v>1.06106762321273</v>
+        <v>0.972134975487541</v>
       </c>
       <c r="F7" t="n">
-        <v>1.665914213887226</v>
+        <v>0.7426701293804232</v>
       </c>
     </row>
     <row r="8">
@@ -593,16 +593,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7071745738439674</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D8" t="n">
-        <v>1.297072015507471</v>
+        <v>0.6834610355738466</v>
       </c>
       <c r="E8" t="n">
-        <v>1.099852325325957</v>
+        <v>0.9678630831353296</v>
       </c>
       <c r="F8" t="n">
-        <v>1.733832847539793</v>
+        <v>0.7214171400561797</v>
       </c>
     </row>
     <row r="9">
@@ -613,16 +613,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7048548861921811</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D9" t="n">
-        <v>1.338746810915459</v>
+        <v>0.7970028844246688</v>
       </c>
       <c r="E9" t="n">
-        <v>1.28740037694067</v>
+        <v>0.9885280435316117</v>
       </c>
       <c r="F9" t="n">
-        <v>1.793786063674355</v>
+        <v>0.9649779332825297</v>
       </c>
     </row>
     <row r="10">
@@ -633,16 +633,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7092776544334422</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D10" t="n">
-        <v>1.410034477670202</v>
+        <v>0.8031827666926523</v>
       </c>
       <c r="E10" t="n">
-        <v>1.27779669788673</v>
+        <v>0.9976457604348434</v>
       </c>
       <c r="F10" t="n">
-        <v>1.812081789302555</v>
+        <v>0.9911207455537436</v>
       </c>
     </row>
     <row r="11">
@@ -653,16 +653,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.702712624008701</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D11" t="n">
-        <v>1.422439971636347</v>
+        <v>0.7522319357358318</v>
       </c>
       <c r="E11" t="n">
-        <v>1.10566064931062</v>
+        <v>0.9740378584774494</v>
       </c>
       <c r="F11" t="n">
-        <v>1.668245400907921</v>
+        <v>0.9005586674253996</v>
       </c>
     </row>
     <row r="12">
@@ -673,16 +673,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6850548782859409</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D12" t="n">
-        <v>1.512137350973383</v>
+        <v>0.674198532218041</v>
       </c>
       <c r="E12" t="n">
-        <v>1.197019149413715</v>
+        <v>0.9168707707264891</v>
       </c>
       <c r="F12" t="n">
-        <v>1.763030790370376</v>
+        <v>0.6937297579691508</v>
       </c>
     </row>
     <row r="13">
@@ -693,16 +693,16 @@
         <v>0.2958047622860939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6784734758342181</v>
+        <v>0.342653326305644</v>
       </c>
       <c r="D13" t="n">
-        <v>1.604328525207647</v>
+        <v>0.6677046050388979</v>
       </c>
       <c r="E13" t="n">
-        <v>1.362518423814484</v>
+        <v>0.9034806993270756</v>
       </c>
       <c r="F13" t="n">
-        <v>1.942723740577596</v>
+        <v>0.6982551299836111</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>0.2924947903401837</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7890931233648857</v>
+        <v>0.3060924170366105</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6036815770800273</v>
+        <v>0.6097357222702527</v>
       </c>
       <c r="D14" t="n">
-        <v>1.794332875383949</v>
+        <v>0.5977692356462148</v>
       </c>
       <c r="E14" t="n">
-        <v>1.595738060626088</v>
+        <v>0.6504396953079761</v>
       </c>
       <c r="F14" t="n">
-        <v>2.090252102327656</v>
+        <v>0.4848403296481365</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>0.3000301866492472</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7921087896471481</v>
+        <v>0.3181251299799638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.642468301057053</v>
+        <v>0.6622188068101005</v>
       </c>
       <c r="D15" t="n">
-        <v>1.974186725105854</v>
+        <v>0.6539829305887632</v>
       </c>
       <c r="E15" t="n">
-        <v>2.206988109342721</v>
+        <v>0.8608633393023712</v>
       </c>
       <c r="F15" t="n">
-        <v>2.50413081861886</v>
+        <v>0.825117390846863</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>0.3089045146632443</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8464854673009437</v>
+        <v>0.3316953444352332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6936555373597374</v>
+        <v>0.743635832305187</v>
       </c>
       <c r="D16" t="n">
-        <v>2.227885423323483</v>
+        <v>0.7609550275189871</v>
       </c>
       <c r="E16" t="n">
-        <v>2.359627126113834</v>
+        <v>1.154551568663796</v>
       </c>
       <c r="F16" t="n">
-        <v>2.987014154439903</v>
+        <v>0.7708327069275471</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>0.3200825842768846</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8853452074310895</v>
+        <v>0.3495917698453099</v>
       </c>
       <c r="C17" t="n">
-        <v>1.73980721685151</v>
+        <v>0.8372141139932521</v>
       </c>
       <c r="D17" t="n">
-        <v>2.299397790341001</v>
+        <v>0.8684584177994625</v>
       </c>
       <c r="E17" t="n">
-        <v>2.428779004775443</v>
+        <v>1.286590052101613</v>
       </c>
       <c r="F17" t="n">
-        <v>3.209120966464961</v>
+        <v>1.461090514193513</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>0.3289675193362594</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9256027028456117</v>
+        <v>0.3800841751208799</v>
       </c>
       <c r="C18" t="n">
-        <v>1.788389188595551</v>
+        <v>0.9120427141148297</v>
       </c>
       <c r="D18" t="n">
-        <v>2.378864848564972</v>
+        <v>0.9594605171293797</v>
       </c>
       <c r="E18" t="n">
-        <v>2.488346061854371</v>
+        <v>1.421550077874175</v>
       </c>
       <c r="F18" t="n">
-        <v>3.378139742392175</v>
+        <v>1.664030384143235</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>0.3357960432058137</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9576806145737483</v>
+        <v>0.4096905006238449</v>
       </c>
       <c r="C19" t="n">
-        <v>1.825815901369795</v>
+        <v>0.9674346935455356</v>
       </c>
       <c r="D19" t="n">
-        <v>1.202782376731729</v>
+        <v>1.036887800168746</v>
       </c>
       <c r="E19" t="n">
-        <v>2.530118691841777</v>
+        <v>1.592215051656982</v>
       </c>
       <c r="F19" t="n">
-        <v>3.549400577838291</v>
+        <v>1.875514737218069</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>0.3419752303402518</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9799334527407113</v>
+        <v>0.4342447721364482</v>
       </c>
       <c r="C20" t="n">
-        <v>1.833321048578978</v>
+        <v>1.005005053635926</v>
       </c>
       <c r="D20" t="n">
-        <v>1.237975013047948</v>
+        <v>1.064214022775393</v>
       </c>
       <c r="E20" t="n">
-        <v>2.538605013510039</v>
+        <v>1.58027252201394</v>
       </c>
       <c r="F20" t="n">
-        <v>3.605127354655302</v>
+        <v>1.899152183084553</v>
       </c>
     </row>
     <row r="21">
@@ -850,1219 +850,1219 @@
         <v>0.3510238433374945</v>
       </c>
       <c r="B21" t="n">
-        <v>1.020223361766404</v>
+        <v>0.4826562680708476</v>
       </c>
       <c r="C21" t="n">
-        <v>1.866205143936713</v>
+        <v>1.073161524446772</v>
       </c>
       <c r="D21" t="n">
-        <v>1.309139690324033</v>
+        <v>1.119911129245529</v>
       </c>
       <c r="E21" t="n">
-        <v>2.576369013068428</v>
+        <v>1.550164846456139</v>
       </c>
       <c r="F21" t="n">
-        <v>3.668754565068478</v>
+        <v>1.368493357118336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3640104497543067</v>
+        <v>0.3608327041269285</v>
       </c>
       <c r="B22" t="n">
-        <v>1.077342843475929</v>
+        <v>0.5388764398993073</v>
       </c>
       <c r="C22" t="n">
-        <v>1.936814054028357</v>
+        <v>1.164381720303138</v>
       </c>
       <c r="D22" t="n">
-        <v>2.588658952251302</v>
+        <v>1.193324722232453</v>
       </c>
       <c r="E22" t="n">
-        <v>2.711687374556006</v>
+        <v>1.550063649990056</v>
       </c>
       <c r="F22" t="n">
-        <v>3.873972785678694</v>
+        <v>1.526741051513038</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3964845440351863</v>
+        <v>0.3709730140276207</v>
       </c>
       <c r="B23" t="n">
-        <v>1.130933579141493</v>
+        <v>0.59472883445324</v>
       </c>
       <c r="C23" t="n">
-        <v>2.008509890170126</v>
+        <v>1.259647863576519</v>
       </c>
       <c r="D23" t="n">
-        <v>2.704619804728814</v>
+        <v>1.310924776604223</v>
       </c>
       <c r="E23" t="n">
-        <v>2.812635550952761</v>
+        <v>1.483064800580256</v>
       </c>
       <c r="F23" t="n">
-        <v>4.156748143415006</v>
+        <v>1.766499853842779</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4292436424683147</v>
+        <v>0.3814268281679491</v>
       </c>
       <c r="B24" t="n">
-        <v>1.1913454098926</v>
+        <v>0.65032161204202</v>
       </c>
       <c r="C24" t="n">
-        <v>2.087765500879494</v>
+        <v>1.349968892388503</v>
       </c>
       <c r="D24" t="n">
-        <v>2.820923018483809</v>
+        <v>1.423187447337973</v>
       </c>
       <c r="E24" t="n">
-        <v>2.921931007579927</v>
+        <v>1.586351254175484</v>
       </c>
       <c r="F24" t="n">
-        <v>4.38922691719986</v>
+        <v>1.948924119912155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4649420937342413</v>
+        <v>0.3932249575839843</v>
       </c>
       <c r="B25" t="n">
-        <v>1.24373169600464</v>
+        <v>0.7117226772028318</v>
       </c>
       <c r="C25" t="n">
-        <v>2.158907588069867</v>
+        <v>1.436589183924637</v>
       </c>
       <c r="D25" t="n">
-        <v>2.939647809696877</v>
+        <v>1.460658142301908</v>
       </c>
       <c r="E25" t="n">
-        <v>3.030132014968328</v>
+        <v>1.812628970934609</v>
       </c>
       <c r="F25" t="n">
-        <v>4.495150603852316</v>
+        <v>1.915737608807716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4967117833209667</v>
+        <v>0.4040990549643862</v>
       </c>
       <c r="B26" t="n">
-        <v>1.281676728677449</v>
+        <v>0.7598825266930265</v>
       </c>
       <c r="C26" t="n">
-        <v>2.20523045215816</v>
+        <v>1.496669004075458</v>
       </c>
       <c r="D26" t="n">
-        <v>3.042526380877049</v>
+        <v>1.61036022359691</v>
       </c>
       <c r="E26" t="n">
-        <v>3.091407007411624</v>
+        <v>2.258038683130228</v>
       </c>
       <c r="F26" t="n">
-        <v>4.842181222037915</v>
+        <v>2.214707226679052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5282092101764568</v>
+        <v>0.4147287274119434</v>
       </c>
       <c r="B27" t="n">
-        <v>1.336006895937743</v>
+        <v>0.8068136182879391</v>
       </c>
       <c r="C27" t="n">
-        <v>2.279534004445643</v>
+        <v>1.557395088210606</v>
       </c>
       <c r="D27" t="n">
-        <v>3.146917053680712</v>
+        <v>1.697404136885833</v>
       </c>
       <c r="E27" t="n">
-        <v>3.181076260386593</v>
+        <v>2.366331506341126</v>
       </c>
       <c r="F27" t="n">
-        <v>5.021419943443621</v>
+        <v>2.336694368758816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5598435200398084</v>
+        <v>0.4250283857324987</v>
       </c>
       <c r="B28" t="n">
-        <v>1.393088886621562</v>
+        <v>0.8535456312978178</v>
       </c>
       <c r="C28" t="n">
-        <v>2.35898510861661</v>
+        <v>0.6431583909706305</v>
       </c>
       <c r="D28" t="n">
-        <v>3.251639713535827</v>
+        <v>1.803349205235674</v>
       </c>
       <c r="E28" t="n">
-        <v>3.273571681159988</v>
+        <v>2.606417664344293</v>
       </c>
       <c r="F28" t="n">
-        <v>5.225336284153873</v>
+        <v>2.533689490196416</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5929462393374868</v>
+        <v>0.435776417023886</v>
       </c>
       <c r="B29" t="n">
-        <v>1.453045569110752</v>
+        <v>0.8992140881100272</v>
       </c>
       <c r="C29" t="n">
-        <v>2.442393429232842</v>
+        <v>0.6625908578487238</v>
       </c>
       <c r="D29" t="n">
-        <v>3.338868682854212</v>
+        <v>1.882468497233083</v>
       </c>
       <c r="E29" t="n">
-        <v>3.351709771538135</v>
+        <v>2.7097553024459</v>
       </c>
       <c r="F29" t="n">
-        <v>5.300092849325286</v>
+        <v>2.631608874656332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.6253071533060149</v>
+        <v>0.4466873738624669</v>
       </c>
       <c r="B30" t="n">
-        <v>1.505989662640574</v>
+        <v>0.9480005855817932</v>
       </c>
       <c r="C30" t="n">
-        <v>2.517223374843922</v>
+        <v>0.6856194427292659</v>
       </c>
       <c r="D30" t="n">
-        <v>3.413659356109648</v>
+        <v>1.940136005240076</v>
       </c>
       <c r="E30" t="n">
-        <v>3.454068910733896</v>
+        <v>2.63664578880249</v>
       </c>
       <c r="F30" t="n">
-        <v>5.318134189599912</v>
+        <v>2.647573443713532</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.66227620708192</v>
+        <v>0.4587978694021866</v>
       </c>
       <c r="B31" t="n">
-        <v>1.590696420433507</v>
+        <v>1.012654616005098</v>
       </c>
       <c r="C31" t="n">
-        <v>2.691122109250963</v>
+        <v>0.7162467473026586</v>
       </c>
       <c r="D31" t="n">
-        <v>3.63065806712089</v>
+        <v>2.061460290450512</v>
       </c>
       <c r="E31" t="n">
-        <v>3.63837572030074</v>
+        <v>2.804094053040042</v>
       </c>
       <c r="F31" t="n">
-        <v>5.55665012559291</v>
+        <v>2.830506400672506</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7050732088084501</v>
+        <v>0.4720320304670288</v>
       </c>
       <c r="B32" t="n">
-        <v>1.66878012840748</v>
+        <v>1.086460419717603</v>
       </c>
       <c r="C32" t="n">
-        <v>2.817337652280369</v>
+        <v>0.7871985246363584</v>
       </c>
       <c r="D32" t="n">
-        <v>3.791915544258897</v>
+        <v>2.195206230862672</v>
       </c>
       <c r="E32" t="n">
-        <v>3.868347035266072</v>
+        <v>2.898560458990137</v>
       </c>
       <c r="F32" t="n">
-        <v>5.858106407044649</v>
+        <v>3.376082439583612</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7373105611010901</v>
+        <v>0.4837018643431783</v>
       </c>
       <c r="B33" t="n">
-        <v>1.729778938682689</v>
+        <v>1.14161043831215</v>
       </c>
       <c r="C33" t="n">
-        <v>2.919737140174961</v>
+        <v>0.8778288494178805</v>
       </c>
       <c r="D33" t="n">
-        <v>3.896551889514296</v>
+        <v>2.311666037809164</v>
       </c>
       <c r="E33" t="n">
-        <v>4.01440022061721</v>
+        <v>3.071494364860066</v>
       </c>
       <c r="F33" t="n">
-        <v>6.014903542041319</v>
+        <v>3.538111951818457</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7737242617492537</v>
+        <v>0.4954363075062991</v>
       </c>
       <c r="B34" t="n">
-        <v>1.812929527268167</v>
+        <v>1.206328165524975</v>
       </c>
       <c r="C34" t="n">
-        <v>3.068718241593476</v>
+        <v>2.104141527889233</v>
       </c>
       <c r="D34" t="n">
-        <v>4.053730138849478</v>
+        <v>2.444496905071914</v>
       </c>
       <c r="E34" t="n">
-        <v>4.200884897008738</v>
+        <v>3.147414653683067</v>
       </c>
       <c r="F34" t="n">
-        <v>6.182068849129609</v>
+        <v>3.537734793365827</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8016596953425532</v>
+        <v>0.503813197013094</v>
       </c>
       <c r="B35" t="n">
-        <v>1.881905128343837</v>
+        <v>1.253983319732298</v>
       </c>
       <c r="C35" t="n">
-        <v>3.179683641020714</v>
+        <v>2.178569165201345</v>
       </c>
       <c r="D35" t="n">
-        <v>4.182739636358138</v>
+        <v>2.561115535810094</v>
       </c>
       <c r="E35" t="n">
-        <v>4.371260327075134</v>
+        <v>3.400754785322326</v>
       </c>
       <c r="F35" t="n">
-        <v>6.418009260328848</v>
+        <v>3.865404830681806</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8176304421607483</v>
+        <v>0.5098313103061047</v>
       </c>
       <c r="B36" t="n">
-        <v>1.926954455032469</v>
+        <v>1.278054639785569</v>
       </c>
       <c r="C36" t="n">
-        <v>3.271927687634024</v>
+        <v>2.215245338698145</v>
       </c>
       <c r="D36" t="n">
-        <v>4.295347256798129</v>
+        <v>2.61903406660301</v>
       </c>
       <c r="E36" t="n">
-        <v>4.479879651118623</v>
+        <v>3.555615988596373</v>
       </c>
       <c r="F36" t="n">
-        <v>6.654987506663884</v>
+        <v>4.041688199991456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.830192804257726</v>
+        <v>0.5143969209998859</v>
       </c>
       <c r="B37" t="n">
-        <v>1.974223469335176</v>
+        <v>1.297908459389051</v>
       </c>
       <c r="C37" t="n">
-        <v>3.354375805875082</v>
+        <v>2.247446472484793</v>
       </c>
       <c r="D37" t="n">
-        <v>4.388673179572803</v>
+        <v>2.665153858947817</v>
       </c>
       <c r="E37" t="n">
-        <v>4.547896321618006</v>
+        <v>3.553077234274037</v>
       </c>
       <c r="F37" t="n">
-        <v>6.810864795246765</v>
+        <v>4.009534410845649</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.042053164496923</v>
+        <v>0.5219765791136165</v>
       </c>
       <c r="B38" t="n">
-        <v>2.005333609826369</v>
+        <v>1.327857984158493</v>
       </c>
       <c r="C38" t="n">
-        <v>3.420694056367659</v>
+        <v>2.288414918449184</v>
       </c>
       <c r="D38" t="n">
-        <v>4.416070237425146</v>
+        <v>2.752370152646998</v>
       </c>
       <c r="E38" t="n">
-        <v>5.967059516669275</v>
+        <v>3.504093696744152</v>
       </c>
       <c r="F38" t="n">
-        <v>6.840201273518113</v>
+        <v>3.858100131635639</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.021138798578712</v>
+        <v>0.5306099252969866</v>
       </c>
       <c r="B39" t="n">
-        <v>2.073087553862669</v>
+        <v>1.38287120415392</v>
       </c>
       <c r="C39" t="n">
-        <v>3.587842724495039</v>
+        <v>2.37634963256903</v>
       </c>
       <c r="D39" t="n">
-        <v>4.577172492147488</v>
+        <v>2.895376063664891</v>
       </c>
       <c r="E39" t="n">
-        <v>6.015154670516922</v>
+        <v>3.576472020647314</v>
       </c>
       <c r="F39" t="n">
-        <v>7.048470572025979</v>
+        <v>3.808771154360978</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.103033600133036</v>
+        <v>0.5411004938264187</v>
       </c>
       <c r="B40" t="n">
-        <v>2.131989387016924</v>
+        <v>2.968616573808497</v>
       </c>
       <c r="C40" t="n">
-        <v>3.776820583599316</v>
+        <v>4.486083896886267</v>
       </c>
       <c r="D40" t="n">
-        <v>4.775116307010824</v>
+        <v>3.014867600777739</v>
       </c>
       <c r="E40" t="n">
-        <v>6.210360546369038</v>
+        <v>3.776739006510838</v>
       </c>
       <c r="F40" t="n">
-        <v>7.264957148866115</v>
+        <v>4.072932277066649</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.073923128397055</v>
+        <v>0.5511788892872637</v>
       </c>
       <c r="B41" t="n">
-        <v>2.237320179506769</v>
+        <v>2.989420679800217</v>
       </c>
       <c r="C41" t="n">
-        <v>3.994076556253718</v>
+        <v>4.546997711550109</v>
       </c>
       <c r="D41" t="n">
-        <v>5.019718886037423</v>
+        <v>3.18185007594826</v>
       </c>
       <c r="E41" t="n">
-        <v>6.479675783606846</v>
+        <v>4.015118781725009</v>
       </c>
       <c r="F41" t="n">
-        <v>7.616464785630521</v>
+        <v>4.37250067523838</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.077704240070869</v>
+        <v>1.645352088739855</v>
       </c>
       <c r="B42" t="n">
-        <v>2.295093816475476</v>
+        <v>3.016099773567659</v>
       </c>
       <c r="C42" t="n">
-        <v>4.044583907228252</v>
+        <v>4.445570083507786</v>
       </c>
       <c r="D42" t="n">
-        <v>5.065323061700601</v>
+        <v>3.248036783112495</v>
       </c>
       <c r="E42" t="n">
-        <v>6.55979352154484</v>
+        <v>4.121262308122034</v>
       </c>
       <c r="F42" t="n">
-        <v>7.531316907221131</v>
+        <v>4.500714895549217</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.077622921199465</v>
+        <v>1.608742988914281</v>
       </c>
       <c r="B43" t="n">
-        <v>2.37042008023522</v>
+        <v>2.948662103728416</v>
       </c>
       <c r="C43" t="n">
-        <v>4.150738807047631</v>
+        <v>4.346326900151369</v>
       </c>
       <c r="D43" t="n">
-        <v>5.204196435024009</v>
+        <v>3.352259081826753</v>
       </c>
       <c r="E43" t="n">
-        <v>6.743289567783294</v>
+        <v>4.241397958598434</v>
       </c>
       <c r="F43" t="n">
-        <v>7.689238620007194</v>
+        <v>4.599951423024269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.012477528610021</v>
+        <v>1.595872571255035</v>
       </c>
       <c r="B44" t="n">
-        <v>2.405140171906842</v>
+        <v>2.907081938851081</v>
       </c>
       <c r="C44" t="n">
-        <v>4.151141040631757</v>
+        <v>4.279506901053122</v>
       </c>
       <c r="D44" t="n">
-        <v>5.186668066683076</v>
+        <v>3.401647513949331</v>
       </c>
       <c r="E44" t="n">
-        <v>6.755434300334255</v>
+        <v>4.332017873090641</v>
       </c>
       <c r="F44" t="n">
-        <v>7.732054296034571</v>
+        <v>4.75183077719417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.91073168385611</v>
+        <v>1.488084076616869</v>
       </c>
       <c r="B45" t="n">
-        <v>2.428522625048118</v>
+        <v>2.68089149637996</v>
       </c>
       <c r="C45" t="n">
-        <v>4.15871538874242</v>
+        <v>3.905019889380006</v>
       </c>
       <c r="D45" t="n">
-        <v>5.192633854838955</v>
+        <v>3.450451337927479</v>
       </c>
       <c r="E45" t="n">
-        <v>6.773899908301561</v>
+        <v>4.37831605217186</v>
       </c>
       <c r="F45" t="n">
-        <v>7.695362784833016</v>
+        <v>4.779317013022283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.797130518352817</v>
+        <v>1.416766534171424</v>
       </c>
       <c r="B46" t="n">
-        <v>2.434220790455412</v>
+        <v>2.513146772666861</v>
       </c>
       <c r="C46" t="n">
-        <v>4.109879876944405</v>
+        <v>3.619027649495689</v>
       </c>
       <c r="D46" t="n">
-        <v>5.115694283841089</v>
+        <v>3.477449567946358</v>
       </c>
       <c r="E46" t="n">
-        <v>6.730261283563763</v>
+        <v>4.443486316783108</v>
       </c>
       <c r="F46" t="n">
-        <v>8.285191452277774</v>
+        <v>4.93182105976711</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.812014241167436</v>
+        <v>1.446734642321312</v>
       </c>
       <c r="B47" t="n">
-        <v>2.487029654560722</v>
+        <v>2.591060166980167</v>
       </c>
       <c r="C47" t="n">
-        <v>4.188420523089243</v>
+        <v>3.764709569883637</v>
       </c>
       <c r="D47" t="n">
-        <v>5.219270003558084</v>
+        <v>3.577792374196656</v>
       </c>
       <c r="E47" t="n">
-        <v>6.972221953231751</v>
+        <v>4.674771819829429</v>
       </c>
       <c r="F47" t="n">
-        <v>8.595446448639407</v>
+        <v>5.279957066554386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.858362562514748</v>
+        <v>1.535857543676368</v>
       </c>
       <c r="B48" t="n">
-        <v>2.530670166789916</v>
+        <v>2.797159677915404</v>
       </c>
       <c r="C48" t="n">
-        <v>4.239570757393686</v>
+        <v>4.252190446212573</v>
       </c>
       <c r="D48" t="n">
-        <v>5.279266977085476</v>
+        <v>3.652117294053928</v>
       </c>
       <c r="E48" t="n">
-        <v>7.15338276337031</v>
+        <v>4.889857166662829</v>
       </c>
       <c r="F48" t="n">
-        <v>8.745491405988723</v>
+        <v>5.678802981003171</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.827891328227275</v>
+        <v>1.535316255325933</v>
       </c>
       <c r="B49" t="n">
-        <v>2.566303790586585</v>
+        <v>2.792031841748812</v>
       </c>
       <c r="C49" t="n">
-        <v>4.264810701670468</v>
+        <v>4.2401003574492</v>
       </c>
       <c r="D49" t="n">
-        <v>5.302116748638722</v>
+        <v>3.727326326201305</v>
       </c>
       <c r="E49" t="n">
-        <v>7.208440917449844</v>
+        <v>5.00056970117419</v>
       </c>
       <c r="F49" t="n">
-        <v>8.832148583693503</v>
+        <v>5.835311506948834</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.811363825440066</v>
+        <v>1.482255519402947</v>
       </c>
       <c r="B50" t="n">
-        <v>2.591448430538698</v>
+        <v>2.679512390120844</v>
       </c>
       <c r="C50" t="n">
-        <v>4.285446262886531</v>
+        <v>4.1337722222823</v>
       </c>
       <c r="D50" t="n">
-        <v>5.32990618391285</v>
+        <v>3.771943815769516</v>
       </c>
       <c r="E50" t="n">
-        <v>7.278620184483673</v>
+        <v>5.081039992646598</v>
       </c>
       <c r="F50" t="n">
-        <v>8.958478301467508</v>
+        <v>5.916622534480417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.856284858323894</v>
+        <v>1.550064549289505</v>
       </c>
       <c r="B51" t="n">
-        <v>2.54115157843066</v>
+        <v>2.829209853551077</v>
       </c>
       <c r="C51" t="n">
-        <v>4.214278156627663</v>
+        <v>4.362809909152853</v>
       </c>
       <c r="D51" t="n">
-        <v>5.244729609161403</v>
+        <v>3.719285381553026</v>
       </c>
       <c r="E51" t="n">
-        <v>7.21376103127831</v>
+        <v>5.098761607105315</v>
       </c>
       <c r="F51" t="n">
-        <v>8.819660501268579</v>
+        <v>6.081384940024109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.81950383068541</v>
+        <v>1.580436934661893</v>
       </c>
       <c r="B52" t="n">
-        <v>2.505890981331758</v>
+        <v>2.878279315362013</v>
       </c>
       <c r="C52" t="n">
-        <v>4.115815020798011</v>
+        <v>4.762376946574545</v>
       </c>
       <c r="D52" t="n">
-        <v>5.100600141973314</v>
+        <v>3.680557925923638</v>
       </c>
       <c r="E52" t="n">
-        <v>7.020948861680587</v>
+        <v>5.077211783667568</v>
       </c>
       <c r="F52" t="n">
-        <v>8.618285093881068</v>
+        <v>6.206226875885215</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.766318595517496</v>
+        <v>1.557864373817265</v>
       </c>
       <c r="B53" t="n">
-        <v>2.438650597365801</v>
+        <v>2.82013759342727</v>
       </c>
       <c r="C53" t="n">
-        <v>3.980930014454767</v>
+        <v>4.713292009521272</v>
       </c>
       <c r="D53" t="n">
-        <v>4.920552529974677</v>
+        <v>3.594356958258066</v>
       </c>
       <c r="E53" t="n">
-        <v>6.746728424230311</v>
+        <v>4.94006915016868</v>
       </c>
       <c r="F53" t="n">
-        <v>8.367527214435796</v>
+        <v>6.072801916463904</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.654748398648447</v>
+        <v>1.46685379279553</v>
       </c>
       <c r="B54" t="n">
-        <v>3.68592319930241</v>
+        <v>2.616264955614914</v>
       </c>
       <c r="C54" t="n">
-        <v>3.820849843824952</v>
+        <v>4.507826078839709</v>
       </c>
       <c r="D54" t="n">
-        <v>4.703664608919301</v>
+        <v>5.956355472228106</v>
       </c>
       <c r="E54" t="n">
-        <v>6.409734333905177</v>
+        <v>4.758296544807778</v>
       </c>
       <c r="F54" t="n">
-        <v>8.037986583278908</v>
+        <v>5.841104531238793</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.603693413357709</v>
+        <v>1.437323910302893</v>
       </c>
       <c r="B55" t="n">
-        <v>3.491745037444509</v>
+        <v>2.53978150926622</v>
       </c>
       <c r="C55" t="n">
-        <v>3.678970720441397</v>
+        <v>4.2852405406081</v>
       </c>
       <c r="D55" t="n">
-        <v>4.508163586691972</v>
+        <v>5.71010373154315</v>
       </c>
       <c r="E55" t="n">
-        <v>6.100145261943769</v>
+        <v>4.591928969927419</v>
       </c>
       <c r="F55" t="n">
-        <v>7.729976458345478</v>
+        <v>5.68731688442097</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.515435962266318</v>
+        <v>1.346264227609875</v>
       </c>
       <c r="B56" t="n">
-        <v>3.346779052823474</v>
+        <v>2.351437611873116</v>
       </c>
       <c r="C56" t="n">
-        <v>3.584911912174503</v>
+        <v>4.073106134855873</v>
       </c>
       <c r="D56" t="n">
-        <v>4.391834827406678</v>
+        <v>5.254186466633037</v>
       </c>
       <c r="E56" t="n">
-        <v>5.863299094814594</v>
+        <v>4.384155797432191</v>
       </c>
       <c r="F56" t="n">
-        <v>7.513519398134903</v>
+        <v>5.356447373956449</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.435031704216173</v>
+        <v>1.281003451861319</v>
       </c>
       <c r="B57" t="n">
-        <v>3.109469963517325</v>
+        <v>2.204757590420461</v>
       </c>
       <c r="C57" t="n">
-        <v>3.433081268306658</v>
+        <v>3.819513160412981</v>
       </c>
       <c r="D57" t="n">
-        <v>4.191792505680313</v>
+        <v>4.890150219518694</v>
       </c>
       <c r="E57" t="n">
-        <v>5.534092578440661</v>
+        <v>4.173160404242962</v>
       </c>
       <c r="F57" t="n">
-        <v>7.034974913476061</v>
+        <v>5.069909366064573</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.414823739675362</v>
+        <v>1.284127074310303</v>
       </c>
       <c r="B58" t="n">
-        <v>3.005361881015793</v>
+        <v>2.202224985204214</v>
       </c>
       <c r="C58" t="n">
-        <v>3.238684599551919</v>
+        <v>3.779158449735823</v>
       </c>
       <c r="D58" t="n">
-        <v>3.925744570427486</v>
+        <v>4.858495774330106</v>
       </c>
       <c r="E58" t="n">
-        <v>5.161322588951298</v>
+        <v>3.95127917929038</v>
       </c>
       <c r="F58" t="n">
-        <v>6.62783338400171</v>
+        <v>4.847723925444877</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.424470068726443</v>
+        <v>1.273765358126681</v>
       </c>
       <c r="B59" t="n">
-        <v>3.357066878934715</v>
+        <v>2.178805311498423</v>
       </c>
       <c r="C59" t="n">
-        <v>3.116998454529604</v>
+        <v>4.038215429671661</v>
       </c>
       <c r="D59" t="n">
-        <v>3.771353598220462</v>
+        <v>5.12860391370333</v>
       </c>
       <c r="E59" t="n">
-        <v>4.946797864469535</v>
+        <v>3.768724310373315</v>
       </c>
       <c r="F59" t="n">
-        <v>6.538095782814137</v>
+        <v>4.629249189570872</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.273303600622443</v>
+        <v>1.15375419410249</v>
       </c>
       <c r="B60" t="n">
-        <v>3.074303915764226</v>
+        <v>1.905296519581596</v>
       </c>
       <c r="C60" t="n">
-        <v>2.890527875173989</v>
+        <v>3.636647543024646</v>
       </c>
       <c r="D60" t="n">
-        <v>3.453149415088927</v>
+        <v>4.572424045318373</v>
       </c>
       <c r="E60" t="n">
-        <v>4.427289115582633</v>
+        <v>3.453944202321352</v>
       </c>
       <c r="F60" t="n">
-        <v>5.91016831216917</v>
+        <v>4.221625262699991</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.135355889192784</v>
+        <v>1.026737828378511</v>
       </c>
       <c r="B61" t="n">
-        <v>2.818115725008242</v>
+        <v>1.624456780025714</v>
       </c>
       <c r="C61" t="n">
-        <v>2.703339319650738</v>
+        <v>3.220069072266392</v>
       </c>
       <c r="D61" t="n">
-        <v>3.174909810672982</v>
+        <v>3.942256695081037</v>
       </c>
       <c r="E61" t="n">
-        <v>3.989319659959204</v>
+        <v>3.098482755032833</v>
       </c>
       <c r="F61" t="n">
-        <v>5.275093535930678</v>
+        <v>3.678767755985289</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.111424196211425</v>
+        <v>0.9893871883311731</v>
       </c>
       <c r="B62" t="n">
-        <v>2.670469919168301</v>
+        <v>1.518218227829647</v>
       </c>
       <c r="C62" t="n">
-        <v>3.662767755624873</v>
+        <v>3.042807448350155</v>
       </c>
       <c r="D62" t="n">
-        <v>2.99150757645324</v>
+        <v>3.687511389388612</v>
       </c>
       <c r="E62" t="n">
-        <v>3.758281803722933</v>
+        <v>2.794181115007191</v>
       </c>
       <c r="F62" t="n">
-        <v>4.976673610928984</v>
+        <v>3.392883430182929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.935862515915474</v>
+        <v>0.6971704577393711</v>
       </c>
       <c r="B63" t="n">
-        <v>1.902696726419067</v>
+        <v>1.132286991538072</v>
       </c>
       <c r="C63" t="n">
-        <v>2.458873630693325</v>
+        <v>2.209852862057854</v>
       </c>
       <c r="D63" t="n">
-        <v>2.763791833076263</v>
+        <v>1.266110949499305</v>
       </c>
       <c r="E63" t="n">
-        <v>3.385428376393981</v>
+        <v>1.294125221372486</v>
       </c>
       <c r="F63" t="n">
-        <v>4.294153677691014</v>
+        <v>1.057541062469674</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5096072654375212</v>
+        <v>0.6026700062687387</v>
       </c>
       <c r="B64" t="n">
-        <v>1.669294356425776</v>
+        <v>0.7121759635280061</v>
       </c>
       <c r="C64" t="n">
-        <v>2.102133502508451</v>
+        <v>0.8623985679748234</v>
       </c>
       <c r="D64" t="n">
-        <v>2.659685093378902</v>
+        <v>0.7384337311659852</v>
       </c>
       <c r="E64" t="n">
-        <v>3.229149929543658</v>
+        <v>0.4559947659378167</v>
       </c>
       <c r="F64" t="n">
-        <v>4.048950607527284</v>
+        <v>-0.1408711650574261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1502305884911932</v>
+        <v>0.4009912562673263</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9989099009997267</v>
+        <v>0.2868223440317479</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9724326052338395</v>
+        <v>0.2089128453100209</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5214063235325366</v>
+        <v>-0.1164148908215257</v>
       </c>
       <c r="E65" t="n">
-        <v>3.163805991037017</v>
+        <v>-4.161639139399128</v>
       </c>
       <c r="F65" t="n">
-        <v>3.748452877444659</v>
+        <v>-6.560065777387763</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.3075860949142482</v>
+        <v>0.02220626707841022</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4704623271402708</v>
+        <v>-0.4988833151321934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.113555322298625</v>
+        <v>-0.9902118693070712</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.6387546058349942</v>
+        <v>-5.664444642029245</v>
       </c>
       <c r="E66" t="n">
-        <v>2.966975547615572</v>
+        <v>-8.938908447752382</v>
       </c>
       <c r="F66" t="n">
-        <v>3.275957102907214</v>
+        <v>-13.03904525451298</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.369774285579874</v>
+        <v>-0.06223776227410704</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.163213379451945</v>
+        <v>-0.6140794199132031</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.714890224733171</v>
+        <v>-1.144495272517149</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.629327217518401</v>
+        <v>-4.54468642564408</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.764427787182171</v>
+        <v>-7.553245685528836</v>
       </c>
       <c r="F67" t="n">
-        <v>-12.94806672700257</v>
+        <v>-11.28809331955486</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.3587495960038476</v>
+        <v>0.01640000287497756</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.047763982090673</v>
+        <v>-0.3914964659939733</v>
       </c>
       <c r="C68" t="n">
-        <v>-2.858209409215945</v>
+        <v>-0.757003288429237</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.717940974617136</v>
+        <v>-3.866955731485604</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.412426476079766</v>
+        <v>-6.186874017974183</v>
       </c>
       <c r="F68" t="n">
-        <v>-10.97928994043603</v>
+        <v>-9.552804625018425</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.2972113736028104</v>
+        <v>0.02882979683309905</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9451038285385085</v>
+        <v>-0.374386185087662</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.824415752195836</v>
+        <v>-0.7152690542954065</v>
       </c>
       <c r="D69" t="n">
-        <v>-4.70852514097524</v>
+        <v>-1.210296316257507</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.34914139840285</v>
+        <v>-5.272280937649086</v>
       </c>
       <c r="F69" t="n">
-        <v>-10.9857512494585</v>
+        <v>-8.948764072010647</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.479519507010945</v>
+        <v>-0.07472468599904314</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.278207678831861</v>
+        <v>-0.572950280657281</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.91583555700538</v>
+        <v>-1.010885720847773</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.041077354944967</v>
+        <v>-1.581387303675275</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.132580160404231</v>
+        <v>-5.393676559493684</v>
       </c>
       <c r="F70" t="n">
-        <v>-10.70771234873372</v>
+        <v>-8.794939583296284</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.6733566784732616</v>
+        <v>-0.04096194359064942</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.053378687375155</v>
+        <v>-0.4878577639365291</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.716851733616554</v>
+        <v>-0.9093578085971092</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.832285907996532</v>
+        <v>-1.448954334509603</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.177603748423749</v>
+        <v>-6.136778209232546</v>
       </c>
       <c r="F71" t="n">
-        <v>-11.00618904636212</v>
+        <v>-9.458729398932419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1.211115417523891</v>
+        <v>-0.2583072814982481</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.932452128776289</v>
+        <v>-0.9599640634275159</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.533621036652736</v>
+        <v>-1.630697515308288</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.208054822003373</v>
+        <v>-2.377358318968858</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.92540471827551</v>
+        <v>-9.686403708371863</v>
       </c>
       <c r="F72" t="n">
-        <v>-16.65012022672025</v>
+        <v>-14.8849248861698</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.343122658202872</v>
+        <v>-0.3154276009666832</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.099581644699358</v>
+        <v>-1.042284971447536</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.722905177735097</v>
+        <v>-1.725837421728247</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.390231487805561</v>
+        <v>-2.473067982896616</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.90893413734815</v>
+        <v>-9.980525393495654</v>
       </c>
       <c r="F73" t="n">
-        <v>-16.71809866858224</v>
+        <v>-15.31088524882175</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.651199935726952</v>
+        <v>-0.3077496768086125</v>
       </c>
       <c r="B74" t="n">
-        <v>-3.764980554198239</v>
+        <v>-1.070037294910076</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.865656579709036</v>
+        <v>-1.821140347653825</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.9967951518775</v>
+        <v>-2.645576711843477</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.40159680247552</v>
+        <v>-12.10548753145463</v>
       </c>
       <c r="F74" t="n">
-        <v>-21.13842228053169</v>
+        <v>-19.01787192316819</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.5594887376197537</v>
+        <v>0.08273738015618859</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.549425902504131</v>
+        <v>-0.1428297084899803</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.644561583148736</v>
+        <v>-0.3304204341809758</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.715239528002918</v>
+        <v>-0.639599972572233</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.812378873255533</v>
+        <v>-5.614064461249036</v>
       </c>
       <c r="F75" t="n">
-        <v>-10.5002776047438</v>
+        <v>-8.840145313719418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.0855035340892627</v>
+        <v>0.357911193490223</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1352328284289781</v>
+        <v>0.3975991354982868</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.249109487422043</v>
+        <v>0.4375682909259897</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.131775208197205</v>
+        <v>0.3126525233064186</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.616158722106526</v>
+        <v>-3.81718189452657</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.649217843058864</v>
+        <v>-6.857233581481964</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1266830040959768</v>
+        <v>0.528984071059901</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3082553075337202</v>
+        <v>0.7829478737896292</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4796224937705649</v>
+        <v>1.058071976974142</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4537249794018692</v>
+        <v>1.143402841409758</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5928789207546146</v>
+        <v>-0.3711598377981318</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.999165592369764</v>
+        <v>-1.556850088578173</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4814209967580076</v>
+        <v>0.5506284398036497</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6841824289655039</v>
+        <v>1.125649110809912</v>
       </c>
       <c r="C78" t="n">
-        <v>1.007468337630035</v>
+        <v>1.547591639569358</v>
       </c>
       <c r="D78" t="n">
-        <v>1.119835826481367</v>
+        <v>1.755921802505021</v>
       </c>
       <c r="E78" t="n">
-        <v>1.135949422387505</v>
+        <v>1.681144099202371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4625090925671316</v>
+        <v>1.01711913626967</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4923854038493358</v>
+        <v>0.5492673068387232</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8221133083166201</v>
+        <v>1.001207661617482</v>
       </c>
       <c r="C79" t="n">
-        <v>1.210567658456661</v>
+        <v>1.37669296161906</v>
       </c>
       <c r="D79" t="n">
-        <v>1.407327062931362</v>
+        <v>1.567424039134716</v>
       </c>
       <c r="E79" t="n">
-        <v>1.036651065974048</v>
+        <v>1.321584331821505</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6778828986187193</v>
+        <v>1.178086431725291</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5444817195325671</v>
+        <v>0.5480365180009682</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7075003352585858</v>
+        <v>0.9457579496810959</v>
       </c>
       <c r="C80" t="n">
-        <v>1.018136843916801</v>
+        <v>1.249806809569126</v>
       </c>
       <c r="D80" t="n">
-        <v>1.122581758271764</v>
+        <v>1.35930710332099</v>
       </c>
       <c r="E80" t="n">
-        <v>1.127925747770192</v>
+        <v>1.073774603942269</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2023349013248037</v>
+        <v>0.04631753651716508</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7519540860566485</v>
+        <v>0.5465938943271376</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9464569723284626</v>
+        <v>1.14640254857769</v>
       </c>
       <c r="C81" t="n">
-        <v>1.442463572497056</v>
+        <v>1.606284286463101</v>
       </c>
       <c r="D81" t="n">
-        <v>1.729731058296423</v>
+        <v>1.855458172288447</v>
       </c>
       <c r="E81" t="n">
-        <v>3.574017384047707</v>
+        <v>3.858744234292374</v>
       </c>
       <c r="F81" t="n">
-        <v>3.899309374139648</v>
+        <v>4.275919853567373</v>
       </c>
     </row>
     <row r="82">
@@ -2070,19 +2070,19 @@
         <v>0.5455851358986262</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8766607881822122</v>
+        <v>0.9741177781033326</v>
       </c>
       <c r="C82" t="n">
-        <v>1.266414537724765</v>
+        <v>1.314895355473192</v>
       </c>
       <c r="D82" t="n">
-        <v>1.468290839762048</v>
+        <v>1.469184079917527</v>
       </c>
       <c r="E82" t="n">
-        <v>1.835154266530239</v>
+        <v>1.664864870573901</v>
       </c>
       <c r="F82" t="n">
-        <v>1.69205575864865</v>
+        <v>1.569132690354422</v>
       </c>
     </row>
     <row r="83">
@@ -2090,19 +2090,19 @@
         <v>0.5443931256677663</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5015889444329744</v>
+        <v>0.6656042931597295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6625841606922389</v>
+        <v>0.8160169046237691</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6531742713359172</v>
+        <v>0.8030625915046432</v>
       </c>
       <c r="E83" t="n">
-        <v>0.13323602468963</v>
+        <v>0.8060811298723003</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.025374502552921</v>
+        <v>-1.388951332779442</v>
       </c>
     </row>
     <row r="84">
@@ -2110,19 +2110,19 @@
         <v>0.542410538023984</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7749308799734675</v>
+        <v>0.8830523976206761</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.3075545530954393</v>
+        <v>0.08742676361424628</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5541510057778325</v>
+        <v>-0.0988526504250391</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.865111415750938</v>
+        <v>-0.4677387592153828</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.533338889241506</v>
+        <v>-3.389715224263412</v>
       </c>
     </row>
     <row r="85">
@@ -2133,16 +2133,16 @@
         <v>0.7684608167712959</v>
       </c>
       <c r="C85" t="n">
-        <v>1.088046346539308</v>
+        <v>1.007525144382496</v>
       </c>
       <c r="D85" t="n">
-        <v>1.205565427302965</v>
+        <v>1.066318279477397</v>
       </c>
       <c r="E85" t="n">
-        <v>2.101845881990549</v>
+        <v>1.223907043849838</v>
       </c>
       <c r="F85" t="n">
-        <v>2.39056040530204</v>
+        <v>2.184890804382533</v>
       </c>
     </row>
     <row r="86">
@@ -2153,16 +2153,16 @@
         <v>0.760644967585585</v>
       </c>
       <c r="C86" t="n">
-        <v>1.381647621552789</v>
+        <v>0.9961627768216188</v>
       </c>
       <c r="D86" t="n">
-        <v>1.565987009011817</v>
+        <v>1.424434782978421</v>
       </c>
       <c r="E86" t="n">
-        <v>2.029792403217176</v>
+        <v>1.735123902494919</v>
       </c>
       <c r="F86" t="n">
-        <v>2.538104345531025</v>
+        <v>2.667426674590558</v>
       </c>
     </row>
     <row r="87">
@@ -2173,16 +2173,16 @@
         <v>0.7559709933377794</v>
       </c>
       <c r="C87" t="n">
-        <v>1.671994301941552</v>
+        <v>0.9890100226041194</v>
       </c>
       <c r="D87" t="n">
-        <v>2.042201948207358</v>
+        <v>1.743160112906125</v>
       </c>
       <c r="E87" t="n">
-        <v>2.895140111642554</v>
+        <v>2.317262671544601</v>
       </c>
       <c r="F87" t="n">
-        <v>4.237118418861009</v>
+        <v>7.110631431081515</v>
       </c>
     </row>
     <row r="88">
@@ -2193,16 +2193,16 @@
         <v>0.7518508304206767</v>
       </c>
       <c r="C88" t="n">
-        <v>1.516638139884314</v>
+        <v>0.9823843340141526</v>
       </c>
       <c r="D88" t="n">
-        <v>3.197725933173226</v>
+        <v>2.509422049005249</v>
       </c>
       <c r="E88" t="n">
-        <v>4.605320527863032</v>
+        <v>3.443554117408723</v>
       </c>
       <c r="F88" t="n">
-        <v>6.6721355912332</v>
+        <v>11.43718432596587</v>
       </c>
     </row>
     <row r="89">
@@ -2213,16 +2213,16 @@
         <v>0.7510581851426952</v>
       </c>
       <c r="C89" t="n">
-        <v>2.226812062790019</v>
+        <v>0.9808652107944177</v>
       </c>
       <c r="D89" t="n">
-        <v>2.731476390858575</v>
+        <v>0.9406139188374822</v>
       </c>
       <c r="E89" t="n">
-        <v>3.933907745734665</v>
+        <v>2.884909680784382</v>
       </c>
       <c r="F89" t="n">
-        <v>5.70763648691478</v>
+        <v>3.901944871980795</v>
       </c>
     </row>
     <row r="90">
@@ -2233,16 +2233,16 @@
         <v>0.7525589424052375</v>
       </c>
       <c r="C90" t="n">
-        <v>1.473608424956956</v>
+        <v>0.982781414721468</v>
       </c>
       <c r="D90" t="n">
-        <v>2.702688637389516</v>
+        <v>0.9429705181216952</v>
       </c>
       <c r="E90" t="n">
-        <v>3.896075498790502</v>
+        <v>2.774238351045451</v>
       </c>
       <c r="F90" t="n">
-        <v>5.699902494485102</v>
+        <v>3.800419546593357</v>
       </c>
     </row>
     <row r="91">
@@ -2253,16 +2253,16 @@
         <v>0.7535615698524377</v>
       </c>
       <c r="C91" t="n">
-        <v>1.456548215323458</v>
+        <v>0.9836915985944994</v>
       </c>
       <c r="D91" t="n">
-        <v>2.081936233272886</v>
+        <v>0.9441618593251216</v>
       </c>
       <c r="E91" t="n">
-        <v>2.973916853908811</v>
+        <v>2.033933543112113</v>
       </c>
       <c r="F91" t="n">
-        <v>4.467819644302601</v>
+        <v>2.813714712579408</v>
       </c>
     </row>
     <row r="92">
@@ -2273,16 +2273,16 @@
         <v>0.7572166111131308</v>
       </c>
       <c r="C92" t="n">
-        <v>1.465565369013413</v>
+        <v>0.9895759365517639</v>
       </c>
       <c r="D92" t="n">
-        <v>1.499347541518693</v>
+        <v>0.9526888316770845</v>
       </c>
       <c r="E92" t="n">
-        <v>2.047180685971199</v>
+        <v>0.8759857274710789</v>
       </c>
       <c r="F92" t="n">
-        <v>3.151188598311329</v>
+        <v>1.191564764209424</v>
       </c>
     </row>
     <row r="93">
@@ -2293,16 +2293,16 @@
         <v>0.7606228309704922</v>
       </c>
       <c r="C93" t="n">
-        <v>1.469815519869007</v>
+        <v>0.994637539721537</v>
       </c>
       <c r="D93" t="n">
-        <v>2.654272040838903</v>
+        <v>0.9595013992456575</v>
       </c>
       <c r="E93" t="n">
-        <v>3.787542770937382</v>
+        <v>2.204847394245494</v>
       </c>
       <c r="F93" t="n">
-        <v>5.687854758055821</v>
+        <v>3.116394021406453</v>
       </c>
     </row>
     <row r="94">
@@ -2313,16 +2313,16 @@
         <v>0.763141976696443</v>
       </c>
       <c r="C94" t="n">
-        <v>1.467479751731531</v>
+        <v>0.9987809605802024</v>
       </c>
       <c r="D94" t="n">
-        <v>1.936865976008095</v>
+        <v>0.9654996929728601</v>
       </c>
       <c r="E94" t="n">
-        <v>2.805660664933772</v>
+        <v>1.436941614656426</v>
       </c>
       <c r="F94" t="n">
-        <v>4.445729149800478</v>
+        <v>2.168835298349933</v>
       </c>
     </row>
     <row r="95">
@@ -2333,16 +2333,16 @@
         <v>0.7635879267298885</v>
       </c>
       <c r="C95" t="n">
-        <v>1.456995172980504</v>
+        <v>1.000475006581723</v>
       </c>
       <c r="D95" t="n">
-        <v>1.336910342886654</v>
+        <v>0.9688026615745087</v>
       </c>
       <c r="E95" t="n">
-        <v>1.948355981144452</v>
+        <v>0.6675275032426136</v>
       </c>
       <c r="F95" t="n">
-        <v>5.285709097164201</v>
+        <v>1.070255967743631</v>
       </c>
     </row>
     <row r="96">
@@ -2353,16 +2353,16 @@
         <v>0.7612468502051721</v>
       </c>
       <c r="C96" t="n">
-        <v>1.424918247830631</v>
+        <v>0.9979245903222508</v>
       </c>
       <c r="D96" t="n">
-        <v>2.147192557945454</v>
+        <v>0.9666189860974449</v>
       </c>
       <c r="E96" t="n">
-        <v>3.026609266478101</v>
+        <v>1.03696810834759</v>
       </c>
       <c r="F96" t="n">
-        <v>6.804660922909477</v>
+        <v>7.194079424087093</v>
       </c>
     </row>
     <row r="97">
@@ -2373,16 +2373,16 @@
         <v>0.7627502689513889</v>
       </c>
       <c r="C97" t="n">
-        <v>1.568820488617137</v>
+        <v>1.001052109595668</v>
       </c>
       <c r="D97" t="n">
-        <v>1.939142237620729</v>
+        <v>0.9719618307994827</v>
       </c>
       <c r="E97" t="n">
-        <v>2.795888372911538</v>
+        <v>4.962227011383334</v>
       </c>
       <c r="F97" t="n">
-        <v>6.649999524031934</v>
+        <v>7.382220609598349</v>
       </c>
     </row>
     <row r="98">
@@ -2393,16 +2393,16 @@
         <v>0.7665340970709437</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9100497452388066</v>
+        <v>1.007908660640309</v>
       </c>
       <c r="D98" t="n">
-        <v>1.134604406296186</v>
+        <v>0.9821901578972025</v>
       </c>
       <c r="E98" t="n">
-        <v>1.629113358955621</v>
+        <v>4.033134061541659</v>
       </c>
       <c r="F98" t="n">
-        <v>4.795299622661659</v>
+        <v>5.932550469382448</v>
       </c>
     </row>
     <row r="99">
@@ -2413,16 +2413,16 @@
         <v>0.7701042808760504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9742758845160324</v>
+        <v>1.014234598759773</v>
       </c>
       <c r="D99" t="n">
-        <v>1.243236182828694</v>
+        <v>0.9914271411899225</v>
       </c>
       <c r="E99" t="n">
-        <v>1.824641291094547</v>
+        <v>4.254314800294324</v>
       </c>
       <c r="F99" t="n">
-        <v>4.610501417711703</v>
+        <v>6.017544334487816</v>
       </c>
     </row>
     <row r="100">
@@ -2433,1736 +2433,1736 @@
         <v>0.7759204189556251</v>
       </c>
       <c r="C100" t="n">
-        <v>1.093168158303495</v>
+        <v>1.023536691298639</v>
       </c>
       <c r="D100" t="n">
-        <v>1.371539856980563</v>
+        <v>3.236589721045128</v>
       </c>
       <c r="E100" t="n">
-        <v>1.999419431637385</v>
+        <v>4.570343193325172</v>
       </c>
       <c r="F100" t="n">
-        <v>4.51019190127834</v>
+        <v>6.559635866616766</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.5432842296029441</v>
+        <v>0.5415673976566862</v>
       </c>
       <c r="B101" t="n">
-        <v>1.024809347382572</v>
+        <v>0.7803155977683484</v>
       </c>
       <c r="C101" t="n">
-        <v>1.511186038055628</v>
+        <v>1.030856121256258</v>
       </c>
       <c r="D101" t="n">
-        <v>1.921354764949463</v>
+        <v>3.736573299462105</v>
       </c>
       <c r="E101" t="n">
-        <v>2.798009121291201</v>
+        <v>5.311433864746817</v>
       </c>
       <c r="F101" t="n">
-        <v>5.72440157322248</v>
+        <v>7.604454649285529</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.6046878666986033</v>
+        <v>0.5430472639153315</v>
       </c>
       <c r="B102" t="n">
-        <v>1.119938072489276</v>
+        <v>2.181314190423903</v>
       </c>
       <c r="C102" t="n">
-        <v>1.642643873051778</v>
+        <v>3.084229192283303</v>
       </c>
       <c r="D102" t="n">
-        <v>2.082967692589129</v>
+        <v>3.881086978828264</v>
       </c>
       <c r="E102" t="n">
-        <v>3.912812272199083</v>
+        <v>5.284632921121343</v>
       </c>
       <c r="F102" t="n">
-        <v>6.39109062593699</v>
+        <v>7.617035555656443</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4371918182114394</v>
+        <v>0.2011509146259312</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7615220539841445</v>
+        <v>1.695426641488188</v>
       </c>
       <c r="C103" t="n">
-        <v>1.0972960750086</v>
+        <v>2.289222402024961</v>
       </c>
       <c r="D103" t="n">
-        <v>1.352788171555932</v>
+        <v>2.84476537297288</v>
       </c>
       <c r="E103" t="n">
-        <v>2.42816309474351</v>
+        <v>3.651026049962269</v>
       </c>
       <c r="F103" t="n">
-        <v>3.949912049126887</v>
+        <v>5.605495611969886</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4303930955444191</v>
+        <v>0.2380310389905711</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8068454303244863</v>
+        <v>0.3569441093784311</v>
       </c>
       <c r="C104" t="n">
-        <v>1.190006787531154</v>
+        <v>2.466622708542268</v>
       </c>
       <c r="D104" t="n">
-        <v>1.485552808525339</v>
+        <v>3.081338960995019</v>
       </c>
       <c r="E104" t="n">
-        <v>2.264658769026456</v>
+        <v>4.031574431253787</v>
       </c>
       <c r="F104" t="n">
-        <v>3.960181592235315</v>
+        <v>6.213209095026471</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4804651921342629</v>
+        <v>0.06518607161224699</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8792502384030554</v>
+        <v>0.05677192928164221</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2635036468679</v>
+        <v>2.028498123028729</v>
       </c>
       <c r="D105" t="n">
-        <v>1.596692614095012</v>
+        <v>2.59710676690937</v>
       </c>
       <c r="E105" t="n">
-        <v>3.414197612491021</v>
+        <v>3.700903165939813</v>
       </c>
       <c r="F105" t="n">
-        <v>5.83201755225496</v>
+        <v>5.812284214686301</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.18685177361573</v>
+        <v>-0.2048883010901541</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2341836026496011</v>
+        <v>0.4825631881865764</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2612237056129114</v>
+        <v>0.3254293848458687</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2728474280483972</v>
+        <v>0.3010456348086734</v>
       </c>
       <c r="E106" t="n">
-        <v>1.098493671785569</v>
+        <v>-0.2353080813886095</v>
       </c>
       <c r="F106" t="n">
-        <v>2.331584820731472</v>
+        <v>0.5828514477657123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1662767768129965</v>
+        <v>-0.1900215170524699</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3955174773177292</v>
+        <v>0.6006571996472072</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6601760706793591</v>
+        <v>0.9410169402477848</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2912056269484582</v>
+        <v>1.404235937380179</v>
       </c>
       <c r="E107" t="n">
-        <v>1.387356212127468</v>
+        <v>2.271437643047797</v>
       </c>
       <c r="F107" t="n">
-        <v>4.122731319341259</v>
+        <v>0.8079769240994636</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4545703743786111</v>
+        <v>0.0392075659818909</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9324646112303023</v>
+        <v>1.216050537134471</v>
       </c>
       <c r="C108" t="n">
-        <v>1.222537377037308</v>
+        <v>1.980021281434862</v>
       </c>
       <c r="D108" t="n">
-        <v>1.841317720110979</v>
+        <v>2.770926472212391</v>
       </c>
       <c r="E108" t="n">
-        <v>3.481837157607618</v>
+        <v>1.161060291694499</v>
       </c>
       <c r="F108" t="n">
-        <v>6.190556663564365</v>
+        <v>2.452255654887193</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4208257912409348</v>
+        <v>0.4147621029509772</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4952829180668705</v>
+        <v>1.283273281275283</v>
       </c>
       <c r="C109" t="n">
-        <v>1.078289314582587</v>
+        <v>2.214731796558301</v>
       </c>
       <c r="D109" t="n">
-        <v>1.714424116866796</v>
+        <v>3.794253432629262</v>
       </c>
       <c r="E109" t="n">
-        <v>3.540080043074219</v>
+        <v>1.229647974389179</v>
       </c>
       <c r="F109" t="n">
-        <v>7.322701976353432</v>
+        <v>3.207159427252286</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4487190865795019</v>
+        <v>0.3502459449072428</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5034193778883553</v>
+        <v>0.9577533882876139</v>
       </c>
       <c r="C110" t="n">
-        <v>1.077129903959351</v>
+        <v>2.105471998318009</v>
       </c>
       <c r="D110" t="n">
-        <v>1.687549166629909</v>
+        <v>2.235331096940893</v>
       </c>
       <c r="E110" t="n">
-        <v>3.361010442639698</v>
+        <v>0.9672004771061999</v>
       </c>
       <c r="F110" t="n">
-        <v>6.509982013167019</v>
+        <v>2.402012889576277</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.285636463411955</v>
+        <v>1.039693850913399</v>
       </c>
       <c r="B111" t="n">
-        <v>1.138689880934093</v>
+        <v>3.982424235522281</v>
       </c>
       <c r="C111" t="n">
-        <v>2.26289687287866</v>
+        <v>5.59366014223674</v>
       </c>
       <c r="D111" t="n">
-        <v>3.295941495971737</v>
+        <v>5.882802608664427</v>
       </c>
       <c r="E111" t="n">
-        <v>6.018736861336375</v>
+        <v>2.918187453299502</v>
       </c>
       <c r="F111" t="n">
-        <v>11.15515219031968</v>
+        <v>5.986544577588692</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2831667330078307</v>
+        <v>1.073216792918097</v>
       </c>
       <c r="B112" t="n">
-        <v>1.063495884256833</v>
+        <v>3.810355177407967</v>
       </c>
       <c r="C112" t="n">
-        <v>2.088050751994211</v>
+        <v>5.399925462126934</v>
       </c>
       <c r="D112" t="n">
-        <v>3.08922431927874</v>
+        <v>5.86490393248231</v>
       </c>
       <c r="E112" t="n">
-        <v>5.758518315438668</v>
+        <v>3.096569915809347</v>
       </c>
       <c r="F112" t="n">
-        <v>10.85707934507605</v>
+        <v>6.291237304107401</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.3646610526100282</v>
+        <v>1.320783087563189</v>
       </c>
       <c r="B113" t="n">
-        <v>1.177527526610765</v>
+        <v>4.431165916498058</v>
       </c>
       <c r="C113" t="n">
-        <v>2.205225910095673</v>
+        <v>6.176460950469718</v>
       </c>
       <c r="D113" t="n">
-        <v>3.396895507216493</v>
+        <v>6.616877541697413</v>
       </c>
       <c r="E113" t="n">
-        <v>6.215054333718884</v>
+        <v>3.510958900810227</v>
       </c>
       <c r="F113" t="n">
-        <v>11.69869017933951</v>
+        <v>7.002453111330738</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.3991088765816552</v>
+        <v>1.529628361792341</v>
       </c>
       <c r="B114" t="n">
-        <v>1.690185402008336</v>
+        <v>5.099008009722013</v>
       </c>
       <c r="C114" t="n">
-        <v>3.05286165299459</v>
+        <v>7.321905930168597</v>
       </c>
       <c r="D114" t="n">
-        <v>4.300804815080787</v>
+        <v>7.919899193844024</v>
       </c>
       <c r="E114" t="n">
-        <v>7.453756166806841</v>
+        <v>4.433436978696509</v>
       </c>
       <c r="F114" t="n">
-        <v>13.3340040383076</v>
+        <v>8.225991136941506</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.5384892384384832</v>
+        <v>1.742660634865826</v>
       </c>
       <c r="B115" t="n">
-        <v>2.21950829074623</v>
+        <v>5.024750818387883</v>
       </c>
       <c r="C115" t="n">
-        <v>3.877563151721446</v>
+        <v>7.160742406589712</v>
       </c>
       <c r="D115" t="n">
-        <v>5.291353907069595</v>
+        <v>8.078684992943238</v>
       </c>
       <c r="E115" t="n">
-        <v>8.851415467066635</v>
+        <v>5.402246365961782</v>
       </c>
       <c r="F115" t="n">
-        <v>15.27812255416612</v>
+        <v>9.679682052259651</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4361207965697874</v>
+        <v>1.64000729864988</v>
       </c>
       <c r="B116" t="n">
-        <v>1.792057621854964</v>
+        <v>3.831934469786974</v>
       </c>
       <c r="C116" t="n">
-        <v>3.215271102373315</v>
+        <v>6.086890247476926</v>
       </c>
       <c r="D116" t="n">
-        <v>4.07860475472936</v>
+        <v>8.101759104831842</v>
       </c>
       <c r="E116" t="n">
-        <v>7.06464540979</v>
+        <v>4.703477428074459</v>
       </c>
       <c r="F116" t="n">
-        <v>12.84138870862403</v>
+        <v>8.784364080528146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4844126069471228</v>
+        <v>1.653660864993705</v>
       </c>
       <c r="B117" t="n">
-        <v>2.139754554703536</v>
+        <v>3.807755890365058</v>
       </c>
       <c r="C117" t="n">
-        <v>3.801397595024688</v>
+        <v>6.049729042439797</v>
       </c>
       <c r="D117" t="n">
-        <v>4.785668660303429</v>
+        <v>2.487117068297637</v>
       </c>
       <c r="E117" t="n">
-        <v>7.852384568245684</v>
+        <v>4.968710188257985</v>
       </c>
       <c r="F117" t="n">
-        <v>13.90066568486608</v>
+        <v>9.097763965778206</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.5150492473458811</v>
+        <v>0.6627601487771619</v>
       </c>
       <c r="B118" t="n">
-        <v>2.012032491649536</v>
+        <v>3.51841263783199</v>
       </c>
       <c r="C118" t="n">
-        <v>3.489000907199918</v>
+        <v>5.46014032930044</v>
       </c>
       <c r="D118" t="n">
-        <v>4.430425976724234</v>
+        <v>2.164313023350654</v>
       </c>
       <c r="E118" t="n">
-        <v>6.908307444957797</v>
+        <v>4.442800885342907</v>
       </c>
       <c r="F118" t="n">
-        <v>12.37153976319323</v>
+        <v>8.3210803251351</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.5546042395034492</v>
+        <v>0.8696113534618326</v>
       </c>
       <c r="B119" t="n">
-        <v>2.543694826285209</v>
+        <v>3.762550783377407</v>
       </c>
       <c r="C119" t="n">
-        <v>4.408728470422798</v>
+        <v>1.688317246944715</v>
       </c>
       <c r="D119" t="n">
-        <v>5.635949070615642</v>
+        <v>2.615043259551871</v>
       </c>
       <c r="E119" t="n">
-        <v>8.686837177475807</v>
+        <v>5.165880751060797</v>
       </c>
       <c r="F119" t="n">
-        <v>14.21829858621286</v>
+        <v>9.435372304663797</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4272980416953282</v>
+        <v>0.7980159965011246</v>
       </c>
       <c r="B120" t="n">
-        <v>2.214063027124246</v>
+        <v>1.524447871620702</v>
       </c>
       <c r="C120" t="n">
-        <v>3.958076776716346</v>
+        <v>1.463877451929981</v>
       </c>
       <c r="D120" t="n">
-        <v>5.079766766692481</v>
+        <v>2.230970857934341</v>
       </c>
       <c r="E120" t="n">
-        <v>7.989919023680464</v>
+        <v>4.583002664578554</v>
       </c>
       <c r="F120" t="n">
-        <v>13.67284226771557</v>
+        <v>8.84262111932237</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.478737552954692</v>
+        <v>0.9459928994397115</v>
       </c>
       <c r="B121" t="n">
-        <v>2.69098109527636</v>
+        <v>1.824331104259303</v>
       </c>
       <c r="C121" t="n">
-        <v>4.818220626703006</v>
+        <v>1.851256720207463</v>
       </c>
       <c r="D121" t="n">
-        <v>6.200578588374194</v>
+        <v>2.764876218080774</v>
       </c>
       <c r="E121" t="n">
-        <v>9.740510918948972</v>
+        <v>5.513088139132584</v>
       </c>
       <c r="F121" t="n">
-        <v>16.3596848380959</v>
+        <v>10.38977537541538</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4828193402908631</v>
+        <v>1.00309624216873</v>
       </c>
       <c r="B122" t="n">
-        <v>2.768469244805147</v>
+        <v>1.898906760380568</v>
       </c>
       <c r="C122" t="n">
-        <v>4.932862926453697</v>
+        <v>1.862923858087765</v>
       </c>
       <c r="D122" t="n">
-        <v>6.276169104832884</v>
+        <v>2.700880807663008</v>
       </c>
       <c r="E122" t="n">
-        <v>9.74437562076297</v>
+        <v>5.242582625774373</v>
       </c>
       <c r="F122" t="n">
-        <v>13.9670021817863</v>
+        <v>9.628227381612707</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3956616628616684</v>
+        <v>0.8802669966578147</v>
       </c>
       <c r="B123" t="n">
-        <v>2.738906162326105</v>
+        <v>1.598076430168828</v>
       </c>
       <c r="C123" t="n">
-        <v>4.063907049534425</v>
+        <v>2.37013970198276</v>
       </c>
       <c r="D123" t="n">
-        <v>5.177345072421716</v>
+        <v>2.043747564692854</v>
       </c>
       <c r="E123" t="n">
-        <v>7.426064637692203</v>
+        <v>3.949153841007133</v>
       </c>
       <c r="F123" t="n">
-        <v>11.09173814252912</v>
+        <v>7.346001348362062</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4380404722291534</v>
+        <v>0.7244230234674318</v>
       </c>
       <c r="B124" t="n">
-        <v>2.410047465767826</v>
+        <v>1.225950252686036</v>
       </c>
       <c r="C124" t="n">
-        <v>3.410569952578394</v>
+        <v>1.72896748195633</v>
       </c>
       <c r="D124" t="n">
-        <v>4.214078809107901</v>
+        <v>2.073784243264598</v>
       </c>
       <c r="E124" t="n">
-        <v>5.956125525524435</v>
+        <v>3.173525122529218</v>
       </c>
       <c r="F124" t="n">
-        <v>8.689427581645525</v>
+        <v>5.734804459371286</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3049970351185085</v>
+        <v>0.8028673365380561</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7215663779923521</v>
+        <v>1.395902908501935</v>
       </c>
       <c r="C125" t="n">
-        <v>3.833542448419232</v>
+        <v>1.117824864927103</v>
       </c>
       <c r="D125" t="n">
-        <v>4.754299555321655</v>
+        <v>2.44351691333288</v>
       </c>
       <c r="E125" t="n">
-        <v>6.608596000417847</v>
+        <v>3.36932502050125</v>
       </c>
       <c r="F125" t="n">
-        <v>9.718579417350849</v>
+        <v>4.991677288745095</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4773129233269249</v>
+        <v>0.8890497820206336</v>
       </c>
       <c r="B126" t="n">
-        <v>0.714277274121433</v>
+        <v>1.50399357704524</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9415309793982489</v>
+        <v>1.31794706635775</v>
       </c>
       <c r="D126" t="n">
-        <v>4.67306001201613</v>
+        <v>2.455598386630658</v>
       </c>
       <c r="E126" t="n">
-        <v>6.28979442974898</v>
+        <v>3.254550932454851</v>
       </c>
       <c r="F126" t="n">
-        <v>9.024784036726977</v>
+        <v>4.702992111086481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.3077733733597013</v>
+        <v>0.5721398626246863</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7088530278262603</v>
+        <v>0.2371007265235665</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9350437231332793</v>
+        <v>0.577112370929</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9581313543984458</v>
+        <v>0.7417919548749472</v>
       </c>
       <c r="E127" t="n">
-        <v>3.42099105501967</v>
+        <v>1.603465306379764</v>
       </c>
       <c r="F127" t="n">
-        <v>3.042084187962346</v>
+        <v>2.57410892648161</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.2924293200731817</v>
+        <v>0.5841272792832677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7049857694301194</v>
+        <v>0.211240432059161</v>
       </c>
       <c r="C128" t="n">
-        <v>0.930659953159603</v>
+        <v>0.5759159312384705</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9199658551275807</v>
+        <v>0.7739736636280714</v>
       </c>
       <c r="E128" t="n">
-        <v>1.583485644256413</v>
+        <v>1.550313998201165</v>
       </c>
       <c r="F128" t="n">
-        <v>2.948120639816104</v>
+        <v>2.467973900692638</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.3079202538087332</v>
+        <v>0.4582895687319222</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7022914036148648</v>
+        <v>0.1514895358147763</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9286027550105609</v>
+        <v>0.3915590424632827</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9029541171992255</v>
+        <v>0.4443292615175949</v>
       </c>
       <c r="E129" t="n">
-        <v>1.676313833642334</v>
+        <v>0.7316129165406231</v>
       </c>
       <c r="F129" t="n">
-        <v>2.852263358456245</v>
+        <v>1.231173434087079</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2495272113407653</v>
+        <v>0.3959414772353305</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6998672585821849</v>
+        <v>0.02290387530700855</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9267260761825308</v>
+        <v>0.23032401642166</v>
       </c>
       <c r="D130" t="n">
-        <v>1.163230155121771</v>
+        <v>0.3849985586263811</v>
       </c>
       <c r="E130" t="n">
-        <v>1.615974643531124</v>
+        <v>0.8899796423211725</v>
       </c>
       <c r="F130" t="n">
-        <v>2.903257407793117</v>
+        <v>1.796874215233533</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.2261270336901382</v>
+        <v>0.400030202803606</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6986650701273466</v>
+        <v>-0.01622659161557127</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9268241666311947</v>
+        <v>0.231211578748983</v>
       </c>
       <c r="D131" t="n">
-        <v>1.165753906869397</v>
+        <v>0.4384262484913997</v>
       </c>
       <c r="E131" t="n">
-        <v>1.61013551781515</v>
+        <v>0.8628592679093732</v>
       </c>
       <c r="F131" t="n">
-        <v>2.81532180048765</v>
+        <v>1.717569800212168</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2590183878789602</v>
+        <v>0.1683472083788449</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6997906644713289</v>
+        <v>-0.1420621550239907</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9300962857587032</v>
+        <v>-0.0305163973789444</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26377210930087</v>
+        <v>0.05307939858915312</v>
       </c>
       <c r="E132" t="n">
-        <v>1.725900014054952</v>
+        <v>0.2634465477349952</v>
       </c>
       <c r="F132" t="n">
-        <v>2.721185905947841</v>
+        <v>0.4038466525980056</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.2966524083341244</v>
+        <v>0.06576227677062163</v>
       </c>
       <c r="B133" t="n">
-        <v>0.553430520132855</v>
+        <v>-0.3987729520512389</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9394386440560927</v>
+        <v>-0.6519501945487152</v>
       </c>
       <c r="D133" t="n">
-        <v>1.404381928947322</v>
+        <v>-0.9307938236638842</v>
       </c>
       <c r="E133" t="n">
-        <v>1.855888981256818</v>
+        <v>-1.395171342594809</v>
       </c>
       <c r="F133" t="n">
-        <v>2.552422851602793</v>
+        <v>-1.285800904709742</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2905577985291783</v>
+        <v>-0.1002904753388392</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5630634370472887</v>
+        <v>-0.2550539370626095</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9542429304231288</v>
+        <v>-0.8295572805065028</v>
       </c>
       <c r="D134" t="n">
-        <v>1.496747517908864</v>
+        <v>-1.55518586788453</v>
       </c>
       <c r="E134" t="n">
-        <v>2.012652950433093</v>
+        <v>-2.750396257051523</v>
       </c>
       <c r="F134" t="n">
-        <v>2.744921062749046</v>
+        <v>-1.560264164686821</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3845932908547371</v>
+        <v>0.01294286062566163</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5882429109114425</v>
+        <v>-0.1028916231591817</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9696512266108526</v>
+        <v>-0.5518771597486642</v>
       </c>
       <c r="D135" t="n">
-        <v>1.605028947971482</v>
+        <v>-1.157819916921855</v>
       </c>
       <c r="E135" t="n">
-        <v>2.25177751931688</v>
+        <v>-1.951271032811709</v>
       </c>
       <c r="F135" t="n">
-        <v>3.063197529023943</v>
+        <v>-1.054079212826451</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4452182696432255</v>
+        <v>0.1121299133899392</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6121540788505822</v>
+        <v>0.09599961415872471</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9831935439370768</v>
+        <v>-0.5781940827833933</v>
       </c>
       <c r="D136" t="n">
-        <v>1.684915506455372</v>
+        <v>-1.323640150494887</v>
       </c>
       <c r="E136" t="n">
-        <v>2.379351649729584</v>
+        <v>-1.840255628309256</v>
       </c>
       <c r="F136" t="n">
-        <v>3.229270152555639</v>
+        <v>-0.2232436723728206</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5472727144506564</v>
+        <v>0.477701595383174</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6687479565194441</v>
+        <v>0.8075524604887896</v>
       </c>
       <c r="C137" t="n">
-        <v>1.295060670311172</v>
+        <v>1.059353421058044</v>
       </c>
       <c r="D137" t="n">
-        <v>1.783638037146569</v>
+        <v>-0.1008666317167011</v>
       </c>
       <c r="E137" t="n">
-        <v>2.63852532795805</v>
+        <v>-0.007158683349056005</v>
       </c>
       <c r="F137" t="n">
-        <v>3.802008262451809</v>
+        <v>2.425118519383702</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5758081201152372</v>
+        <v>0.7375345174059262</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7152400614268989</v>
+        <v>1.298738580267287</v>
       </c>
       <c r="C138" t="n">
-        <v>1.347070097436987</v>
+        <v>1.814424090699081</v>
       </c>
       <c r="D138" t="n">
-        <v>1.841193473197386</v>
+        <v>1.18940458506514</v>
       </c>
       <c r="E138" t="n">
-        <v>2.830293859964183</v>
+        <v>2.85888066885099</v>
       </c>
       <c r="F138" t="n">
-        <v>4.171970235996807</v>
+        <v>4.252459929443308</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.5254062042612661</v>
+        <v>0.8657361748768988</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9445778639308462</v>
+        <v>1.489950964024362</v>
       </c>
       <c r="C139" t="n">
-        <v>1.389952508112198</v>
+        <v>2.049415697248209</v>
       </c>
       <c r="D139" t="n">
-        <v>1.880332001474651</v>
+        <v>2.448338992582672</v>
       </c>
       <c r="E139" t="n">
-        <v>2.926668084151066</v>
+        <v>3.14373856814268</v>
       </c>
       <c r="F139" t="n">
-        <v>4.288107740718694</v>
+        <v>4.458481046656988</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.5315440449064821</v>
+        <v>0.842038152249879</v>
       </c>
       <c r="B140" t="n">
-        <v>0.530435030406825</v>
+        <v>1.491467488340619</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9336962319818669</v>
+        <v>2.04518852009466</v>
       </c>
       <c r="D140" t="n">
-        <v>1.333753462134984</v>
+        <v>2.456265444547714</v>
       </c>
       <c r="E140" t="n">
-        <v>2.983859814292996</v>
+        <v>3.166671076951701</v>
       </c>
       <c r="F140" t="n">
-        <v>4.162749011957026</v>
+        <v>4.495358403011831</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.53746739417936</v>
+        <v>0.8573162839797828</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.05241952851061815</v>
+        <v>1.456908698043596</v>
       </c>
       <c r="C141" t="n">
-        <v>0.05334912371735001</v>
+        <v>1.898857300921684</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2300349785853477</v>
+        <v>2.190188440199384</v>
       </c>
       <c r="E141" t="n">
-        <v>3.215427045574159</v>
+        <v>2.620544247336596</v>
       </c>
       <c r="F141" t="n">
-        <v>4.129999755946364</v>
+        <v>3.455890436374357</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.5449441031172805</v>
+        <v>0.7831066724296987</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.02567039499448787</v>
+        <v>1.366056791906948</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.6416158590343364</v>
+        <v>1.806913165341237</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.553412588024802</v>
+        <v>2.095314790462908</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.003220911831361</v>
+        <v>2.593323991171314</v>
       </c>
       <c r="F142" t="n">
-        <v>4.313224173919616</v>
+        <v>3.619302656295911</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.294236428891529</v>
+        <v>0.9063959192810915</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2023536209906549</v>
+        <v>1.569798722986891</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.2908744932004423</v>
+        <v>2.051274109752092</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.6105838157758718</v>
+        <v>3.109725936550314</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.415697433329593</v>
+        <v>3.227427210110042</v>
       </c>
       <c r="F143" t="n">
-        <v>4.414142096451414</v>
+        <v>3.671202568916701</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.662788168229737</v>
+        <v>1.310816886203113</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8077099411196191</v>
+        <v>2.342913696345154</v>
       </c>
       <c r="C144" t="n">
-        <v>1.081367361990834</v>
+        <v>3.267680992713241</v>
       </c>
       <c r="D144" t="n">
-        <v>1.234086667469199</v>
+        <v>4.337066691504488</v>
       </c>
       <c r="E144" t="n">
-        <v>1.600008468110282</v>
+        <v>5.262602622161511</v>
       </c>
       <c r="F144" t="n">
-        <v>5.059589094978595</v>
+        <v>7.069957689922738</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.069698890500577</v>
+        <v>1.608126858338433</v>
       </c>
       <c r="B145" t="n">
-        <v>1.510576826484891</v>
+        <v>2.883305107230988</v>
       </c>
       <c r="C145" t="n">
-        <v>2.346593965817172</v>
+        <v>4.054906068005988</v>
       </c>
       <c r="D145" t="n">
-        <v>2.949542631703981</v>
+        <v>5.053527596576146</v>
       </c>
       <c r="E145" t="n">
-        <v>4.089213264810635</v>
+        <v>6.626113517355833</v>
       </c>
       <c r="F145" t="n">
-        <v>5.559165573178627</v>
+        <v>8.912589308128119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.114376626696738</v>
+        <v>1.619793876914284</v>
       </c>
       <c r="B146" t="n">
-        <v>1.533825010535707</v>
+        <v>2.880710370477799</v>
       </c>
       <c r="C146" t="n">
-        <v>2.482708843569073</v>
+        <v>4.020249226247716</v>
       </c>
       <c r="D146" t="n">
-        <v>3.118343450532874</v>
+        <v>4.985441866373107</v>
       </c>
       <c r="E146" t="n">
-        <v>7.488039834693247</v>
+        <v>6.484870860877015</v>
       </c>
       <c r="F146" t="n">
-        <v>5.562600060953616</v>
+        <v>8.59116744232831</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.039219542793</v>
+        <v>1.520141409107423</v>
       </c>
       <c r="B147" t="n">
-        <v>1.38439237612236</v>
+        <v>2.670241281709646</v>
       </c>
       <c r="C147" t="n">
-        <v>2.292671544656937</v>
+        <v>3.429045150144654</v>
       </c>
       <c r="D147" t="n">
-        <v>2.892659824497002</v>
+        <v>4.634592332380954</v>
       </c>
       <c r="E147" t="n">
-        <v>6.937330347373237</v>
+        <v>5.944239769571922</v>
       </c>
       <c r="F147" t="n">
-        <v>5.450967722280445</v>
+        <v>7.888252514459904</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9513046768847516</v>
+        <v>1.945948701697845</v>
       </c>
       <c r="B148" t="n">
-        <v>2.308152289394461</v>
+        <v>3.436836852589223</v>
       </c>
       <c r="C148" t="n">
-        <v>3.853530609093368</v>
+        <v>4.218963425343393</v>
       </c>
       <c r="D148" t="n">
-        <v>4.971188043259558</v>
+        <v>5.729526214269381</v>
       </c>
       <c r="E148" t="n">
-        <v>9.285171149730022</v>
+        <v>7.839196889324569</v>
       </c>
       <c r="F148" t="n">
-        <v>6.096477169846406</v>
+        <v>10.35422194392282</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.457577758513005</v>
+        <v>1.846542410533418</v>
       </c>
       <c r="B149" t="n">
-        <v>2.242028904330853</v>
+        <v>3.232044892163239</v>
       </c>
       <c r="C149" t="n">
-        <v>3.559167849926927</v>
+        <v>4.010653904253164</v>
       </c>
       <c r="D149" t="n">
-        <v>4.526287030822383</v>
+        <v>5.410368222745205</v>
       </c>
       <c r="E149" t="n">
-        <v>8.06996657516617</v>
+        <v>7.077090669785592</v>
       </c>
       <c r="F149" t="n">
-        <v>6.033197318948434</v>
+        <v>9.26228704736344</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.283999498978647</v>
+        <v>1.695703699921058</v>
       </c>
       <c r="B150" t="n">
-        <v>1.927702443098241</v>
+        <v>2.94422698479337</v>
       </c>
       <c r="C150" t="n">
-        <v>3.112503474063843</v>
+        <v>3.663528395292889</v>
       </c>
       <c r="D150" t="n">
-        <v>3.993651563045219</v>
+        <v>4.892827308248748</v>
       </c>
       <c r="E150" t="n">
-        <v>7.468492719780144</v>
+        <v>6.497065029381286</v>
       </c>
       <c r="F150" t="n">
-        <v>5.892863780819888</v>
+        <v>8.695181273933464</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.329698791086708</v>
+        <v>1.657370394236308</v>
       </c>
       <c r="B151" t="n">
-        <v>2.00694571274622</v>
+        <v>2.883311269728458</v>
       </c>
       <c r="C151" t="n">
-        <v>3.178531544274353</v>
+        <v>3.534699935069416</v>
       </c>
       <c r="D151" t="n">
-        <v>4.098225783266638</v>
+        <v>4.744890938229494</v>
       </c>
       <c r="E151" t="n">
-        <v>7.51074599699021</v>
+        <v>6.295120420253925</v>
       </c>
       <c r="F151" t="n">
-        <v>5.871137694681066</v>
+        <v>8.492530887162939</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.190423910383317</v>
+        <v>1.470226018270924</v>
       </c>
       <c r="B152" t="n">
-        <v>3.685380499887209</v>
+        <v>2.505151414352836</v>
       </c>
       <c r="C152" t="n">
-        <v>2.64508123373007</v>
+        <v>3.179130256182243</v>
       </c>
       <c r="D152" t="n">
-        <v>3.392661406961314</v>
+        <v>4.298047060640227</v>
       </c>
       <c r="E152" t="n">
-        <v>6.312133237619081</v>
+        <v>5.097823319262851</v>
       </c>
       <c r="F152" t="n">
-        <v>5.709844233299753</v>
+        <v>6.884036102608533</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.034107670530428</v>
+        <v>1.333397796987684</v>
       </c>
       <c r="B153" t="n">
-        <v>3.372973829911028</v>
+        <v>2.242414110328339</v>
       </c>
       <c r="C153" t="n">
-        <v>4.088075270763742</v>
+        <v>2.938682799476104</v>
       </c>
       <c r="D153" t="n">
-        <v>2.883330096854854</v>
+        <v>3.938421289002154</v>
       </c>
       <c r="E153" t="n">
-        <v>5.066170222819025</v>
+        <v>3.988680401559858</v>
       </c>
       <c r="F153" t="n">
-        <v>5.503586858048631</v>
+        <v>5.090438404346212</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.508296953774626</v>
+        <v>0.9460992983942238</v>
       </c>
       <c r="B154" t="n">
-        <v>2.430289545551148</v>
+        <v>1.538730252504838</v>
       </c>
       <c r="C154" t="n">
-        <v>2.765739213675001</v>
+        <v>2.104811719985459</v>
       </c>
       <c r="D154" t="n">
-        <v>1.221333897174324</v>
+        <v>2.80738735032248</v>
       </c>
       <c r="E154" t="n">
-        <v>2.684000708854896</v>
+        <v>2.133257094139609</v>
       </c>
       <c r="F154" t="n">
-        <v>5.152685950411312</v>
+        <v>2.663665356221497</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.648427546222876</v>
+        <v>1.100512268733749</v>
       </c>
       <c r="B155" t="n">
-        <v>2.752807209882401</v>
+        <v>1.875103093099959</v>
       </c>
       <c r="C155" t="n">
-        <v>3.297091577122046</v>
+        <v>2.507020039160326</v>
       </c>
       <c r="D155" t="n">
-        <v>3.514570630142481</v>
+        <v>3.354594429355272</v>
       </c>
       <c r="E155" t="n">
-        <v>3.7694061198615</v>
+        <v>3.168383577670035</v>
       </c>
       <c r="F155" t="n">
-        <v>5.508205959096287</v>
+        <v>4.12316208535346</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.857219705272609</v>
+        <v>1.36543150899368</v>
       </c>
       <c r="B156" t="n">
-        <v>3.235118437423675</v>
+        <v>2.400361568190242</v>
       </c>
       <c r="C156" t="n">
-        <v>4.093348177561628</v>
+        <v>3.154117188227641</v>
       </c>
       <c r="D156" t="n">
-        <v>4.606352992206002</v>
+        <v>4.124461178467031</v>
       </c>
       <c r="E156" t="n">
-        <v>5.372524047164234</v>
+        <v>4.663089738075493</v>
       </c>
       <c r="F156" t="n">
-        <v>5.944252185865408</v>
+        <v>5.972507019351664</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.57677755802392</v>
+        <v>1.119906973845563</v>
       </c>
       <c r="B157" t="n">
-        <v>2.789090244007773</v>
+        <v>1.989518202165785</v>
       </c>
       <c r="C157" t="n">
-        <v>3.471710258624899</v>
+        <v>2.731642065518208</v>
       </c>
       <c r="D157" t="n">
-        <v>3.809438864599407</v>
+        <v>3.540608955916694</v>
       </c>
       <c r="E157" t="n">
-        <v>4.22244253142641</v>
+        <v>3.614921149939695</v>
       </c>
       <c r="F157" t="n">
-        <v>6.024487112875805</v>
+        <v>4.671928524071493</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.516873913040197</v>
+        <v>1.148000948988489</v>
       </c>
       <c r="B158" t="n">
-        <v>2.72526272953491</v>
+        <v>2.067161506174966</v>
       </c>
       <c r="C158" t="n">
-        <v>3.422574994087992</v>
+        <v>2.849813091354757</v>
       </c>
       <c r="D158" t="n">
-        <v>3.766236511858002</v>
+        <v>3.54587229803226</v>
       </c>
       <c r="E158" t="n">
-        <v>4.126968961494134</v>
+        <v>3.78092781209323</v>
       </c>
       <c r="F158" t="n">
-        <v>6.189272215867725</v>
+        <v>4.777164311357403</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.483051282161954</v>
+        <v>1.092930357647745</v>
       </c>
       <c r="B159" t="n">
-        <v>2.634837785994924</v>
+        <v>1.95219169834743</v>
       </c>
       <c r="C159" t="n">
-        <v>3.157627546452591</v>
+        <v>2.781337658867312</v>
       </c>
       <c r="D159" t="n">
-        <v>3.300299539931776</v>
+        <v>3.508810377177485</v>
       </c>
       <c r="E159" t="n">
-        <v>3.17943642350415</v>
+        <v>2.955454678929092</v>
       </c>
       <c r="F159" t="n">
-        <v>6.285067293976509</v>
+        <v>3.414577156718181</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.532063608170629</v>
+        <v>0.9169007623502834</v>
       </c>
       <c r="B160" t="n">
-        <v>2.789098331258589</v>
+        <v>2.123394675676109</v>
       </c>
       <c r="C160" t="n">
-        <v>3.422919604400828</v>
+        <v>2.941076306887362</v>
       </c>
       <c r="D160" t="n">
-        <v>3.665840309761373</v>
+        <v>3.688031812319107</v>
       </c>
       <c r="E160" t="n">
-        <v>3.77657327458088</v>
+        <v>3.531069661763208</v>
       </c>
       <c r="F160" t="n">
-        <v>3.592315824307256</v>
+        <v>4.323054134425032</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.566788873551122</v>
+        <v>1.004457307593017</v>
       </c>
       <c r="B161" t="n">
-        <v>2.917508772341439</v>
+        <v>2.313960596680316</v>
       </c>
       <c r="C161" t="n">
-        <v>3.65669666174717</v>
+        <v>3.153008180420183</v>
       </c>
       <c r="D161" t="n">
-        <v>3.961816326335356</v>
+        <v>3.928673542533484</v>
       </c>
       <c r="E161" t="n">
-        <v>4.111098122586945</v>
+        <v>3.959723434595487</v>
       </c>
       <c r="F161" t="n">
-        <v>3.911584578236738</v>
+        <v>4.856211787874471</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.9976444526496051</v>
+        <v>0.2027232464540356</v>
       </c>
       <c r="B162" t="n">
-        <v>1.879227137513185</v>
+        <v>1.499791926498731</v>
       </c>
       <c r="C162" t="n">
-        <v>2.189107674348888</v>
+        <v>2.283060636224674</v>
       </c>
       <c r="D162" t="n">
-        <v>2.125073055248112</v>
+        <v>2.701245086216142</v>
       </c>
       <c r="E162" t="n">
-        <v>1.530325522450658</v>
+        <v>1.828749931950927</v>
       </c>
       <c r="F162" t="n">
-        <v>6.592633343850342</v>
+        <v>2.007269387151098</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.7974248044430712</v>
+        <v>-0.1190373741892203</v>
       </c>
       <c r="B163" t="n">
-        <v>1.561877297635257</v>
+        <v>1.476740763672792</v>
       </c>
       <c r="C163" t="n">
-        <v>1.839800464494279</v>
+        <v>2.207323046196693</v>
       </c>
       <c r="D163" t="n">
-        <v>1.737548557046379</v>
+        <v>2.433008116317617</v>
       </c>
       <c r="E163" t="n">
-        <v>1.085637560202118</v>
+        <v>1.984997315024389</v>
       </c>
       <c r="F163" t="n">
-        <v>6.811829373995478</v>
+        <v>2.384540311748911</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.477329056581219</v>
+        <v>0.6202350319057373</v>
       </c>
       <c r="B164" t="n">
-        <v>2.953876934495037</v>
+        <v>2.564491079548112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.05314499534231</v>
+        <v>3.45248389136871</v>
       </c>
       <c r="D164" t="n">
-        <v>4.685197271624265</v>
+        <v>4.071611675151639</v>
       </c>
       <c r="E164" t="n">
-        <v>5.563359792186796</v>
+        <v>5.516370074195011</v>
       </c>
       <c r="F164" t="n">
-        <v>7.843114004689927</v>
+        <v>7.505478375593395</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.551767912513617</v>
+        <v>0.7035526061746582</v>
       </c>
       <c r="B165" t="n">
-        <v>3.073034715478383</v>
+        <v>2.692190757074434</v>
       </c>
       <c r="C165" t="n">
-        <v>4.210167245799783</v>
+        <v>3.600960066723268</v>
       </c>
       <c r="D165" t="n">
-        <v>4.876853903007639</v>
+        <v>4.248782120108026</v>
       </c>
       <c r="E165" t="n">
-        <v>5.730581347249673</v>
+        <v>5.772800327264168</v>
       </c>
       <c r="F165" t="n">
-        <v>7.858065030631083</v>
+        <v>7.513824375024353</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.14267710733121</v>
+        <v>0.1935669861727758</v>
       </c>
       <c r="B166" t="n">
-        <v>2.311436204835425</v>
+        <v>2.06361421257516</v>
       </c>
       <c r="C166" t="n">
-        <v>3.099260454238278</v>
+        <v>3.007884172258407</v>
       </c>
       <c r="D166" t="n">
-        <v>3.475190918747256</v>
+        <v>3.4842685434671</v>
       </c>
       <c r="E166" t="n">
-        <v>3.829756013847772</v>
+        <v>4.229936080229519</v>
       </c>
       <c r="F166" t="n">
-        <v>7.555148884331411</v>
+        <v>5.495466748582</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.114959145276559</v>
+        <v>0.1287842630341505</v>
       </c>
       <c r="B167" t="n">
-        <v>2.270007784925099</v>
+        <v>2.17362599161524</v>
       </c>
       <c r="C167" t="n">
-        <v>3.133463321696247</v>
+        <v>3.104189251228281</v>
       </c>
       <c r="D167" t="n">
-        <v>3.604395012979955</v>
+        <v>3.516723626727798</v>
       </c>
       <c r="E167" t="n">
-        <v>4.17822281660534</v>
+        <v>4.835807054202347</v>
       </c>
       <c r="F167" t="n">
-        <v>7.634562785896655</v>
+        <v>6.307488489446332</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.091346945108779</v>
+        <v>0.1686701959248169</v>
       </c>
       <c r="B168" t="n">
-        <v>1.989764900079439</v>
+        <v>2.179275893841244</v>
       </c>
       <c r="C168" t="n">
-        <v>3.155207457265359</v>
+        <v>3.140251593646054</v>
       </c>
       <c r="D168" t="n">
-        <v>3.70653552993287</v>
+        <v>3.55924270080786</v>
       </c>
       <c r="E168" t="n">
-        <v>4.491794984081672</v>
+        <v>5.067661594185786</v>
       </c>
       <c r="F168" t="n">
-        <v>7.664255129346338</v>
+        <v>6.658825147024981</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.9203604298705177</v>
+        <v>-0.1191506403353884</v>
       </c>
       <c r="B169" t="n">
-        <v>1.871645883183465</v>
+        <v>1.940795242357793</v>
       </c>
       <c r="C169" t="n">
-        <v>2.644384268824949</v>
+        <v>2.957762335806046</v>
       </c>
       <c r="D169" t="n">
-        <v>3.055729235052421</v>
+        <v>3.230410436139282</v>
       </c>
       <c r="E169" t="n">
-        <v>3.59836591105617</v>
+        <v>4.509553828409899</v>
       </c>
       <c r="F169" t="n">
-        <v>7.55259851589706</v>
+        <v>5.907439346831655</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.9091603224921228</v>
+        <v>-0.07931231158689367</v>
       </c>
       <c r="B170" t="n">
-        <v>1.937266609629289</v>
+        <v>1.926465126317174</v>
       </c>
       <c r="C170" t="n">
-        <v>2.55723885530046</v>
+        <v>2.904930704033995</v>
       </c>
       <c r="D170" t="n">
-        <v>2.92603675245684</v>
+        <v>3.153600194631842</v>
       </c>
       <c r="E170" t="n">
-        <v>3.381009901931444</v>
+        <v>4.338857410224975</v>
       </c>
       <c r="F170" t="n">
-        <v>7.52722778978211</v>
+        <v>5.627109665963552</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7948002088122288</v>
+        <v>-0.1942059166634296</v>
       </c>
       <c r="B171" t="n">
-        <v>1.896178074382364</v>
+        <v>1.719507329542911</v>
       </c>
       <c r="C171" t="n">
-        <v>1.912827810960307</v>
+        <v>2.729972762395431</v>
       </c>
       <c r="D171" t="n">
-        <v>2.549118984230065</v>
+        <v>2.936881244051438</v>
       </c>
       <c r="E171" t="n">
-        <v>2.898524847102808</v>
+        <v>3.836943323828857</v>
       </c>
       <c r="F171" t="n">
-        <v>7.386548948029666</v>
+        <v>5.04329172455391</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4268788254370579</v>
+        <v>-0.6478233317840103</v>
       </c>
       <c r="B172" t="n">
-        <v>1.606423889014079</v>
+        <v>1.321250813943685</v>
       </c>
       <c r="C172" t="n">
-        <v>1.326843071349317</v>
+        <v>2.512513762021227</v>
       </c>
       <c r="D172" t="n">
-        <v>1.388077636839634</v>
+        <v>2.592399733040107</v>
       </c>
       <c r="E172" t="n">
-        <v>1.306409478892608</v>
+        <v>2.874076133438383</v>
       </c>
       <c r="F172" t="n">
-        <v>7.288733994469403</v>
+        <v>3.756106145102091</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8440530195176512</v>
+        <v>-0.1601707113869226</v>
       </c>
       <c r="B173" t="n">
-        <v>2.154312979682196</v>
+        <v>2.035625327430465</v>
       </c>
       <c r="C173" t="n">
-        <v>2.338966670718422</v>
+        <v>2.942963225244794</v>
       </c>
       <c r="D173" t="n">
-        <v>3.006181245961672</v>
+        <v>3.420544864106131</v>
       </c>
       <c r="E173" t="n">
-        <v>3.632128161444804</v>
+        <v>4.854282955217993</v>
       </c>
       <c r="F173" t="n">
-        <v>7.570283585023899</v>
+        <v>6.372905153536099</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.9606271478135122</v>
+        <v>0.02453167588073368</v>
       </c>
       <c r="B174" t="n">
-        <v>2.508657515047226</v>
+        <v>2.169397989449965</v>
       </c>
       <c r="C174" t="n">
-        <v>2.853970440026719</v>
+        <v>3.144207398892419</v>
       </c>
       <c r="D174" t="n">
-        <v>3.394321604342162</v>
+        <v>3.667503110836399</v>
       </c>
       <c r="E174" t="n">
-        <v>4.259386536631476</v>
+        <v>5.230447764214583</v>
       </c>
       <c r="F174" t="n">
-        <v>5.350488208035902</v>
+        <v>6.946745519143168</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.073028767289053</v>
+        <v>0.1258711096941387</v>
       </c>
       <c r="B175" t="n">
-        <v>2.638184830106265</v>
+        <v>2.162970929625866</v>
       </c>
       <c r="C175" t="n">
-        <v>3.070345728995922</v>
+        <v>3.072478973070946</v>
       </c>
       <c r="D175" t="n">
-        <v>3.094211403728104</v>
+        <v>3.603443294562551</v>
       </c>
       <c r="E175" t="n">
-        <v>4.38324256742014</v>
+        <v>4.973098667961048</v>
       </c>
       <c r="F175" t="n">
-        <v>5.346915966529103</v>
+        <v>6.491899873842296</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.6770952422105432</v>
+        <v>-0.2910584458837162</v>
       </c>
       <c r="B176" t="n">
-        <v>2.283850046204348</v>
+        <v>1.703286945697805</v>
       </c>
       <c r="C176" t="n">
-        <v>2.481116234463737</v>
+        <v>2.431042179124272</v>
       </c>
       <c r="D176" t="n">
-        <v>2.241420931762428</v>
+        <v>3.104578366205812</v>
       </c>
       <c r="E176" t="n">
-        <v>2.771301044448947</v>
+        <v>3.712899127602697</v>
       </c>
       <c r="F176" t="n">
-        <v>3.242288430326997</v>
+        <v>5.124561530229155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.3595127749473088</v>
+        <v>-0.5930369671018955</v>
       </c>
       <c r="B177" t="n">
-        <v>1.955244952909972</v>
+        <v>1.250536687357322</v>
       </c>
       <c r="C177" t="n">
-        <v>1.870092393012833</v>
+        <v>1.730835715827166</v>
       </c>
       <c r="D177" t="n">
-        <v>1.404558529366879</v>
+        <v>2.673820668925975</v>
       </c>
       <c r="E177" t="n">
-        <v>0.826050029517118</v>
+        <v>2.748140012558782</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7133758972866069</v>
+        <v>3.238263204722767</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2615494083219461</v>
+        <v>-0.6438855511297737</v>
       </c>
       <c r="B178" t="n">
-        <v>1.789682073150359</v>
+        <v>1.14844697565025</v>
       </c>
       <c r="C178" t="n">
-        <v>1.534618750598913</v>
+        <v>1.566665653051689</v>
       </c>
       <c r="D178" t="n">
-        <v>1.005317370172225</v>
+        <v>2.512077358977121</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2417531208660719</v>
+        <v>2.421102948229404</v>
       </c>
       <c r="F178" t="n">
-        <v>0.06330371144232316</v>
+        <v>1.828404897504434</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.1311998816595499</v>
+        <v>-1.153577345263566</v>
       </c>
       <c r="B179" t="n">
-        <v>1.547009326106785</v>
+        <v>0.721155047529026</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9184590190753239</v>
+        <v>0.948960043163078</v>
       </c>
       <c r="D179" t="n">
-        <v>0.07473867928175881</v>
+        <v>2.234212035511773</v>
       </c>
       <c r="E179" t="n">
-        <v>-1.456778157353263</v>
+        <v>1.592030942256361</v>
       </c>
       <c r="F179" t="n">
-        <v>6.819374120003125</v>
+        <v>0.07536408498301839</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1800046542735716</v>
+        <v>-0.764493027550766</v>
       </c>
       <c r="B180" t="n">
-        <v>1.835386314870135</v>
+        <v>-1.052657596812252</v>
       </c>
       <c r="C180" t="n">
-        <v>1.421444968485221</v>
+        <v>1.507538981787755</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8270609443645967</v>
+        <v>2.700260279689296</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.2709622945658605</v>
+        <v>2.395149614460189</v>
       </c>
       <c r="F180" t="n">
-        <v>7.009973546823174</v>
+        <v>1.27433805095777</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.2581187981638129</v>
+        <v>-1.193529509855419</v>
       </c>
       <c r="B181" t="n">
-        <v>1.459228415038487</v>
+        <v>-1.895243052774793</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7127915030652634</v>
+        <v>0.8927774924871068</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.1249161134785943</v>
+        <v>2.257927446883506</v>
       </c>
       <c r="E181" t="n">
-        <v>5.082556339778774</v>
+        <v>1.683597080184104</v>
       </c>
       <c r="F181" t="n">
-        <v>6.775229754021845</v>
+        <v>0.1779325233099591</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.6429294934548857</v>
+        <v>-1.259326330377965</v>
       </c>
       <c r="B182" t="n">
-        <v>1.325529005567943</v>
+        <v>-2.092472213659796</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5018712059569537</v>
+        <v>0.6385332267597281</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.3685744495484502</v>
+        <v>2.144784835991211</v>
       </c>
       <c r="E182" t="n">
-        <v>5.030057411224638</v>
+        <v>1.20657560742805</v>
       </c>
       <c r="F182" t="n">
-        <v>6.658727587021327</v>
+        <v>0.09701035139206837</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.6383719100682517</v>
+        <v>-1.340587144298476</v>
       </c>
       <c r="B183" t="n">
-        <v>1.132034742372332</v>
+        <v>0.4791054916583399</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1858120792140809</v>
+        <v>2.615676379992997</v>
       </c>
       <c r="D183" t="n">
-        <v>3.377055985762636</v>
+        <v>2.204177176043927</v>
       </c>
       <c r="E183" t="n">
-        <v>4.902223277289998</v>
+        <v>0.5054178663134561</v>
       </c>
       <c r="F183" t="n">
-        <v>6.589950353683364</v>
+        <v>0.2336926692992591</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.6331006424801978</v>
+        <v>0.4546092604810616</v>
       </c>
       <c r="B184" t="n">
-        <v>1.250205976712686</v>
+        <v>0.687896943203278</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6062612401858929</v>
+        <v>2.796461338916454</v>
       </c>
       <c r="D184" t="n">
-        <v>3.311917001934922</v>
+        <v>2.425740225900187</v>
       </c>
       <c r="E184" t="n">
-        <v>4.864608520649645</v>
+        <v>0.8199223097889874</v>
       </c>
       <c r="F184" t="n">
-        <v>6.608071057421503</v>
+        <v>0.5873641749865968</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.6307303165434092</v>
+        <v>0.1961317352572893</v>
       </c>
       <c r="B185" t="n">
-        <v>1.418703211362968</v>
+        <v>1.797786681436741</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.1595757898402876</v>
+        <v>2.482719274189536</v>
       </c>
       <c r="D185" t="n">
-        <v>3.25388456627122</v>
+        <v>1.951769791613817</v>
       </c>
       <c r="E185" t="n">
-        <v>4.729710410658585</v>
+        <v>-0.5412077477539636</v>
       </c>
       <c r="F185" t="n">
-        <v>6.386660761143109</v>
+        <v>-1.173186377134446</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.6289321343702219</v>
+        <v>0.09285673089317714</v>
       </c>
       <c r="B186" t="n">
-        <v>1.400644295896239</v>
+        <v>1.658955981668597</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.5212716364656773</v>
+        <v>2.297887610670599</v>
       </c>
       <c r="D186" t="n">
-        <v>3.22049696297884</v>
+        <v>1.838807847561602</v>
       </c>
       <c r="E186" t="n">
-        <v>4.660925629898395</v>
+        <v>3.477724559603034</v>
       </c>
       <c r="F186" t="n">
-        <v>6.266500454262017</v>
+        <v>-2.221172058320171</v>
       </c>
     </row>
     <row r="187">
@@ -4170,19 +4170,19 @@
         <v>0.6270219298641166</v>
       </c>
       <c r="B187" t="n">
-        <v>1.385457053995973</v>
+        <v>1.575576120453899</v>
       </c>
       <c r="C187" t="n">
-        <v>2.383748233760884</v>
+        <v>2.165880117912697</v>
       </c>
       <c r="D187" t="n">
-        <v>3.187666566647124</v>
+        <v>1.818447075436004</v>
       </c>
       <c r="E187" t="n">
-        <v>4.61299276849701</v>
+        <v>3.51437581051055</v>
       </c>
       <c r="F187" t="n">
-        <v>6.216958020283349</v>
+        <v>-2.543668533611665</v>
       </c>
     </row>
     <row r="188">
@@ -4190,19 +4190,19 @@
         <v>0.6240212925983362</v>
       </c>
       <c r="B188" t="n">
-        <v>1.355912889060398</v>
+        <v>0.9885188233577912</v>
       </c>
       <c r="C188" t="n">
-        <v>2.345482960855825</v>
+        <v>2.448378673611632</v>
       </c>
       <c r="D188" t="n">
-        <v>3.143781294908317</v>
+        <v>2.237652289160394</v>
       </c>
       <c r="E188" t="n">
-        <v>4.613175545829369</v>
+        <v>3.52079494381542</v>
       </c>
       <c r="F188" t="n">
-        <v>6.356978644856745</v>
+        <v>4.840384960138357</v>
       </c>
     </row>
     <row r="189">
@@ -4210,19 +4210,19 @@
         <v>0.6201302832371811</v>
       </c>
       <c r="B189" t="n">
-        <v>1.322821396657723</v>
+        <v>0.9827644715698572</v>
       </c>
       <c r="C189" t="n">
-        <v>2.308946850211342</v>
+        <v>2.115296838033139</v>
       </c>
       <c r="D189" t="n">
-        <v>3.109614582429773</v>
+        <v>1.894898472141286</v>
       </c>
       <c r="E189" t="n">
-        <v>4.570569555881425</v>
+        <v>3.499442088096932</v>
       </c>
       <c r="F189" t="n">
-        <v>6.28033681262602</v>
+        <v>4.785038991080715</v>
       </c>
     </row>
     <row r="190">
@@ -4230,19 +4230,19 @@
         <v>0.6159345661441749</v>
       </c>
       <c r="B190" t="n">
-        <v>1.280710130864109</v>
+        <v>0.9758599073309256</v>
       </c>
       <c r="C190" t="n">
-        <v>2.253221211504501</v>
+        <v>2.249235029590828</v>
       </c>
       <c r="D190" t="n">
-        <v>3.050721047538631</v>
+        <v>2.131911053492836</v>
       </c>
       <c r="E190" t="n">
-        <v>4.548683565467959</v>
+        <v>3.455614326794807</v>
       </c>
       <c r="F190" t="n">
-        <v>6.372861177456231</v>
+        <v>4.830391010928541</v>
       </c>
     </row>
     <row r="191">
@@ -4250,19 +4250,19 @@
         <v>0.6107613617320913</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0984632459865844</v>
+        <v>0.9672203210596322</v>
       </c>
       <c r="C191" t="n">
-        <v>2.197125758026375</v>
+        <v>2.333380399507777</v>
       </c>
       <c r="D191" t="n">
-        <v>2.985974539086347</v>
+        <v>2.260371756124207</v>
       </c>
       <c r="E191" t="n">
-        <v>4.501293162414253</v>
+        <v>3.410741081200801</v>
       </c>
       <c r="F191" t="n">
-        <v>6.433397546999958</v>
+        <v>4.879005557431341</v>
       </c>
     </row>
     <row r="192">
@@ -4270,19 +4270,19 @@
         <v>0.6067100876217491</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.1962857653322942</v>
+        <v>0.9608891262595454</v>
       </c>
       <c r="C192" t="n">
-        <v>2.150089869913111</v>
+        <v>2.121439697913714</v>
       </c>
       <c r="D192" t="n">
-        <v>2.908298640663847</v>
+        <v>2.02082015822041</v>
       </c>
       <c r="E192" t="n">
-        <v>4.368715667100633</v>
+        <v>3.379541752186098</v>
       </c>
       <c r="F192" t="n">
-        <v>6.300840968061351</v>
+        <v>4.860994343413103</v>
       </c>
     </row>
     <row r="193">
@@ -4290,19 +4290,19 @@
         <v>0.6026659930965037</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.2940492012340101</v>
+        <v>0.954265120286062</v>
       </c>
       <c r="C193" t="n">
-        <v>2.098128907426246</v>
+        <v>1.923931301808885</v>
       </c>
       <c r="D193" t="n">
-        <v>2.839697784885689</v>
+        <v>1.83465727699255</v>
       </c>
       <c r="E193" t="n">
-        <v>4.260819237221915</v>
+        <v>3.330307604153038</v>
       </c>
       <c r="F193" t="n">
-        <v>6.144729435893581</v>
+        <v>4.781370578424084</v>
       </c>
     </row>
     <row r="194">
@@ -4310,19 +4310,19 @@
         <v>0.5987431382541523</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.5860061113841823</v>
+        <v>0.9478459442459407</v>
       </c>
       <c r="C194" t="n">
-        <v>2.0427795783889</v>
+        <v>1.845415528530957</v>
       </c>
       <c r="D194" t="n">
-        <v>2.733521565019281</v>
+        <v>1.74426110199302</v>
       </c>
       <c r="E194" t="n">
-        <v>4.07559846074658</v>
+        <v>3.281470643302689</v>
       </c>
       <c r="F194" t="n">
-        <v>5.94869603308315</v>
+        <v>4.746293775437491</v>
       </c>
     </row>
     <row r="195">
@@ -4330,19 +4330,19 @@
         <v>0.5953740387644586</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.7212611437608658</v>
+        <v>0.9424496867511148</v>
       </c>
       <c r="C195" t="n">
-        <v>1.995634004607988</v>
+        <v>1.842721569490087</v>
       </c>
       <c r="D195" t="n">
-        <v>2.687993258009617</v>
+        <v>1.715559243320009</v>
       </c>
       <c r="E195" t="n">
-        <v>4.04112240333832</v>
+        <v>3.224177253016283</v>
       </c>
       <c r="F195" t="n">
-        <v>5.912614469375747</v>
+        <v>4.683265769473491</v>
       </c>
     </row>
     <row r="196">
@@ -4350,624 +4350,624 @@
         <v>0.5921724596989515</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.4870709179783739</v>
+        <v>-0.005485014782064201</v>
       </c>
       <c r="C196" t="n">
-        <v>1.955208049681116</v>
+        <v>1.978814978000032</v>
       </c>
       <c r="D196" t="n">
-        <v>2.624091893750062</v>
+        <v>1.951140586819914</v>
       </c>
       <c r="E196" t="n">
-        <v>3.962408211078105</v>
+        <v>3.198380525836243</v>
       </c>
       <c r="F196" t="n">
-        <v>5.934473364708414</v>
+        <v>4.770802779356901</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.5882525894460641</v>
+        <v>0.2080046441450412</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.5857060229178115</v>
+        <v>0.03106381770386113</v>
       </c>
       <c r="C197" t="n">
-        <v>1.903012061100848</v>
+        <v>2.011532143665393</v>
       </c>
       <c r="D197" t="n">
-        <v>2.558113039828046</v>
+        <v>-0.4175024353388146</v>
       </c>
       <c r="E197" t="n">
-        <v>3.886926688463287</v>
+        <v>-0.7373413179991672</v>
       </c>
       <c r="F197" t="n">
-        <v>5.915067587566895</v>
+        <v>4.766436796911798</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.583590390982289</v>
+        <v>0.1069906615101375</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.033310035949349</v>
+        <v>-0.2085703396754108</v>
       </c>
       <c r="C198" t="n">
-        <v>1.839406033637674</v>
+        <v>-0.5766138703411503</v>
       </c>
       <c r="D198" t="n">
-        <v>2.482349848223663</v>
+        <v>-0.8921938428209595</v>
       </c>
       <c r="E198" t="n">
-        <v>3.789044861850663</v>
+        <v>-1.431344533942839</v>
       </c>
       <c r="F198" t="n">
-        <v>5.789481825633739</v>
+        <v>-1.806224681241458</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.5785122369529637</v>
+        <v>0.2075432827433425</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.9064921251676106</v>
+        <v>-0.003743060800521114</v>
       </c>
       <c r="C199" t="n">
-        <v>-2.114748874930239</v>
+        <v>-0.3017768739283087</v>
       </c>
       <c r="D199" t="n">
-        <v>2.381088865322702</v>
+        <v>-0.571202589094149</v>
       </c>
       <c r="E199" t="n">
-        <v>3.622287159894778</v>
+        <v>-1.062547479684536</v>
       </c>
       <c r="F199" t="n">
-        <v>5.541318382744011</v>
+        <v>-1.424901280953733</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-1.194948061329652</v>
+        <v>0.1739615110726247</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.051208570923987</v>
+        <v>-0.09307174182050915</v>
       </c>
       <c r="C200" t="n">
-        <v>-2.30394899271663</v>
+        <v>-0.5096479621564107</v>
       </c>
       <c r="D200" t="n">
-        <v>2.331137429197724</v>
+        <v>-0.9005313409308258</v>
       </c>
       <c r="E200" t="n">
-        <v>2.951245053512093</v>
+        <v>-1.64006351485795</v>
       </c>
       <c r="F200" t="n">
-        <v>5.36471569850362</v>
+        <v>-2.321748802190838</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-1.327634090829695</v>
+        <v>0.06836569123991687</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.251675381179195</v>
+        <v>-0.2964212015053027</v>
       </c>
       <c r="C201" t="n">
-        <v>-2.571899666561223</v>
+        <v>-0.8471564533280791</v>
       </c>
       <c r="D201" t="n">
-        <v>2.257809757499317</v>
+        <v>-1.355785190337592</v>
       </c>
       <c r="E201" t="n">
-        <v>2.861495459341351</v>
+        <v>-2.357834071178155</v>
       </c>
       <c r="F201" t="n">
-        <v>5.082278161597229</v>
+        <v>-3.406303971816465</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-1.271453770469886</v>
+        <v>0.01502534828566282</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.185307007362616</v>
+        <v>-0.3806278899986602</v>
       </c>
       <c r="C202" t="n">
-        <v>-2.416799443381714</v>
+        <v>-0.9717069222851737</v>
       </c>
       <c r="D202" t="n">
-        <v>2.195385496228325</v>
+        <v>-1.515603770638524</v>
       </c>
       <c r="E202" t="n">
-        <v>2.797987604631694</v>
+        <v>-2.599259085142549</v>
       </c>
       <c r="F202" t="n">
-        <v>4.851019679345622</v>
+        <v>-3.716033060522095</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.8719807847678527</v>
+        <v>0.1843933819755204</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.6975084165286705</v>
+        <v>-0.0264744216230941</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.560963979792637</v>
+        <v>-0.4923027561693045</v>
       </c>
       <c r="D203" t="n">
-        <v>2.154728876346968</v>
+        <v>-0.9395687670364428</v>
       </c>
       <c r="E203" t="n">
-        <v>2.745169780464283</v>
+        <v>-1.868676424973371</v>
       </c>
       <c r="F203" t="n">
-        <v>4.729486698594932</v>
+        <v>-2.83604514781914</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-1.039099801722959</v>
+        <v>0.07865801801781469</v>
       </c>
       <c r="B204" t="n">
-        <v>-2.130108363003287</v>
+        <v>-0.2361837363677144</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.820127484578106</v>
+        <v>-0.8101316061517538</v>
       </c>
       <c r="D204" t="n">
-        <v>-4.394448075984727</v>
+        <v>-1.348219430133956</v>
       </c>
       <c r="E204" t="n">
-        <v>2.717456772868118</v>
+        <v>-2.445068411973232</v>
       </c>
       <c r="F204" t="n">
-        <v>4.680143295409025</v>
+        <v>-3.599390785610431</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-1.10429564339045</v>
+        <v>0.06189981629033769</v>
       </c>
       <c r="B205" t="n">
-        <v>-2.189278296358944</v>
+        <v>-0.2295478134136335</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.841734826024699</v>
+        <v>-0.7064470966275724</v>
       </c>
       <c r="D205" t="n">
-        <v>-4.178278367957929</v>
+        <v>-1.143624849014857</v>
       </c>
       <c r="E205" t="n">
-        <v>2.67601996004351</v>
+        <v>-1.993092695689684</v>
       </c>
       <c r="F205" t="n">
-        <v>4.689858909793506</v>
+        <v>-2.758021578784948</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.6890489154409186</v>
+        <v>0.2463368938316006</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.423630641209666</v>
+        <v>0.1283506105134267</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.9888645092178883</v>
+        <v>-0.217669372390767</v>
       </c>
       <c r="D206" t="n">
-        <v>-2.953951019549605</v>
+        <v>-0.5656022939085625</v>
       </c>
       <c r="E206" t="n">
-        <v>2.6055287377442</v>
+        <v>-1.273546106181035</v>
       </c>
       <c r="F206" t="n">
-        <v>4.706177772751391</v>
+        <v>-1.990769470978098</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.9578807748981514</v>
+        <v>0.08419749067040527</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.977759390003411</v>
+        <v>-0.2023363292721725</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.520438290494111</v>
+        <v>-0.726817072192504</v>
       </c>
       <c r="D207" t="n">
-        <v>-4.044193358263641</v>
+        <v>-1.235933320773825</v>
       </c>
       <c r="E207" t="n">
-        <v>2.583222397567499</v>
+        <v>-2.233863746960369</v>
       </c>
       <c r="F207" t="n">
-        <v>4.648050859871086</v>
+        <v>-3.392218591792572</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1.007566829329445</v>
+        <v>-0.5442635699799546</v>
       </c>
       <c r="B208" t="n">
-        <v>-2.030126022459025</v>
+        <v>-0.2000790451260426</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.585324249342016</v>
+        <v>-0.6558300615796675</v>
       </c>
       <c r="D208" t="n">
-        <v>-3.91759833273255</v>
+        <v>-1.096474991677619</v>
       </c>
       <c r="E208" t="n">
-        <v>2.580892965843292</v>
+        <v>-1.895314831697842</v>
       </c>
       <c r="F208" t="n">
-        <v>4.617853911373912</v>
+        <v>-2.732765184751367</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.9522642890751727</v>
+        <v>-0.5018165844318699</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.959502087301817</v>
+        <v>-0.1657638332328157</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.338406245827827</v>
+        <v>-0.6347128727565581</v>
       </c>
       <c r="D209" t="n">
-        <v>-3.888771237507</v>
+        <v>-1.089640301775405</v>
       </c>
       <c r="E209" t="n">
-        <v>-5.512406991510735</v>
+        <v>-1.912705582040262</v>
       </c>
       <c r="F209" t="n">
-        <v>4.707020470746702</v>
+        <v>-2.866569212806681</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.5099826358298376</v>
+        <v>-0.1520247437635598</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.411329551682359</v>
+        <v>0.2063601319926152</v>
       </c>
       <c r="C210" t="n">
-        <v>-2.142064282719678</v>
+        <v>-0.07568729572024147</v>
       </c>
       <c r="D210" t="n">
-        <v>-2.842093128620259</v>
+        <v>-0.3797405557492226</v>
       </c>
       <c r="E210" t="n">
-        <v>-4.023150935928145</v>
+        <v>-0.9054783800586073</v>
       </c>
       <c r="F210" t="n">
-        <v>4.759171306181001</v>
+        <v>-1.57263273353427</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.6000963708929712</v>
+        <v>-0.1405956694066295</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.9573482648029144</v>
+        <v>0.3360264437129028</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.866896170111079</v>
+        <v>0.1243330052735105</v>
       </c>
       <c r="D211" t="n">
-        <v>-2.502598772725359</v>
+        <v>-0.1270045496959806</v>
       </c>
       <c r="E211" t="n">
-        <v>-3.515194977494051</v>
+        <v>-0.5192348438879737</v>
       </c>
       <c r="F211" t="n">
-        <v>4.796894433895859</v>
+        <v>-0.955887772776709</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.8593034285458003</v>
+        <v>-0.1895514359633184</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.548873748764433</v>
+        <v>0.2329819347345676</v>
       </c>
       <c r="C212" t="n">
-        <v>-2.062566499128492</v>
+        <v>-0.05864231858951463</v>
       </c>
       <c r="D212" t="n">
-        <v>-2.80723433777603</v>
+        <v>-0.3842755350407758</v>
       </c>
       <c r="E212" t="n">
-        <v>-4.02420029627852</v>
+        <v>-0.9331764160643168</v>
       </c>
       <c r="F212" t="n">
-        <v>4.74883415083573</v>
+        <v>-1.546075948617784</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.7910069092793721</v>
+        <v>-0.2720695985327609</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.445069938635269</v>
+        <v>0.1905896747483005</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.761559321229472</v>
+        <v>-0.1426854230514856</v>
       </c>
       <c r="D213" t="n">
-        <v>-2.485957921273315</v>
+        <v>-0.5194317040060605</v>
       </c>
       <c r="E213" t="n">
-        <v>2.500322344125195</v>
+        <v>-1.200596747631238</v>
       </c>
       <c r="F213" t="n">
-        <v>4.659367649382711</v>
+        <v>-1.877849024678996</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.6562522415206997</v>
+        <v>-0.06531075433059086</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.8558810943441495</v>
+        <v>0.4097204288120841</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.586257644608132</v>
+        <v>0.1904171799853467</v>
       </c>
       <c r="D214" t="n">
-        <v>-2.268426090598144</v>
+        <v>-0.100525648501395</v>
       </c>
       <c r="E214" t="n">
-        <v>2.483697007833972</v>
+        <v>-0.6011949035544486</v>
       </c>
       <c r="F214" t="n">
-        <v>4.680703135602229</v>
+        <v>-1.011917097590826</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.7166826366978913</v>
+        <v>-0.1343093271702869</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.9986896298759094</v>
+        <v>-0.7030898464096884</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.217154104650666</v>
+        <v>0.04705842124527759</v>
       </c>
       <c r="D215" t="n">
-        <v>-2.657745276096287</v>
+        <v>-0.275346564923864</v>
       </c>
       <c r="E215" t="n">
-        <v>-3.835011954446404</v>
+        <v>-0.8425210843817617</v>
       </c>
       <c r="F215" t="n">
-        <v>4.630910829575768</v>
+        <v>-1.374306256138693</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.6307333962506807</v>
+        <v>-0.4051681554677431</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.299112509559291</v>
+        <v>-1.559637356983327</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.91051615204832</v>
+        <v>-0.3780854314136004</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.761372900996748</v>
+        <v>-0.8510016642965805</v>
       </c>
       <c r="E216" t="n">
-        <v>2.495240845190287</v>
+        <v>-1.638909321020719</v>
       </c>
       <c r="F216" t="n">
-        <v>4.458111446743905</v>
+        <v>-2.387935401259833</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.4101556801036627</v>
+        <v>-0.2371218066031802</v>
       </c>
       <c r="B217" t="n">
-        <v>-2.195038084245552</v>
+        <v>-1.306081377733093</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.624623721757086</v>
+        <v>0.01048304774111841</v>
       </c>
       <c r="D217" t="n">
-        <v>-3.525094810372353</v>
+        <v>-0.4080372699791077</v>
       </c>
       <c r="E217" t="n">
-        <v>-4.580235812365931</v>
+        <v>-1.079130838020999</v>
       </c>
       <c r="F217" t="n">
-        <v>4.684305774164057</v>
+        <v>-1.708415590083566</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.4950565150679266</v>
+        <v>-0.3775068234767452</v>
       </c>
       <c r="B218" t="n">
-        <v>-2.600505858502426</v>
+        <v>-1.61836635962925</v>
       </c>
       <c r="C218" t="n">
-        <v>-3.108888059284284</v>
+        <v>-0.07359360821876049</v>
       </c>
       <c r="D218" t="n">
-        <v>-4.001039656759088</v>
+        <v>-0.4941241656807707</v>
       </c>
       <c r="E218" t="n">
-        <v>-4.692927731139644</v>
+        <v>-1.13646623236075</v>
       </c>
       <c r="F218" t="n">
-        <v>4.661793234502045</v>
+        <v>-1.652711297169702</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.3587276870250823</v>
+        <v>-0.4858174035037972</v>
       </c>
       <c r="B219" t="n">
-        <v>-3.101778859232291</v>
+        <v>-1.822016763146179</v>
       </c>
       <c r="C219" t="n">
-        <v>-3.932036383514965</v>
+        <v>0.1709730307682813</v>
       </c>
       <c r="D219" t="n">
-        <v>-4.932238538643645</v>
+        <v>-0.1558319965778061</v>
       </c>
       <c r="E219" t="n">
-        <v>-5.814886939161035</v>
+        <v>-0.5237598908162902</v>
       </c>
       <c r="F219" t="n">
-        <v>4.766719427884283</v>
+        <v>-0.7485238015051667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.08325320181203311</v>
+        <v>-0.1335473360621477</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.838300884380026</v>
+        <v>-1.099216432841899</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.062647681505512</v>
+        <v>0.5146541537866263</v>
       </c>
       <c r="D220" t="n">
-        <v>-2.98952055695236</v>
+        <v>0.2447838926589352</v>
       </c>
       <c r="E220" t="n">
-        <v>-4.291837940231442</v>
+        <v>-0.03708158164129216</v>
       </c>
       <c r="F220" t="n">
-        <v>4.847043848584716</v>
+        <v>0.1488162939356936</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.1767968178623955</v>
+        <v>0.3705704718365048</v>
       </c>
       <c r="B221" t="n">
-        <v>0.6535774967259824</v>
+        <v>0.3214523017486552</v>
       </c>
       <c r="C221" t="n">
-        <v>1.474728128601731</v>
+        <v>1.369992487865091</v>
       </c>
       <c r="D221" t="n">
-        <v>1.658308224492998</v>
+        <v>1.341904650483115</v>
       </c>
       <c r="E221" t="n">
-        <v>2.819232748705502</v>
+        <v>1.484269854833315</v>
       </c>
       <c r="F221" t="n">
-        <v>4.899108090984026</v>
+        <v>1.682500111225565</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.5478394867806058</v>
+        <v>0.617355951524138</v>
       </c>
       <c r="B222" t="n">
-        <v>1.379844271024714</v>
+        <v>0.9401406930155183</v>
       </c>
       <c r="C222" t="n">
-        <v>2.256151132039752</v>
+        <v>2.016516620025539</v>
       </c>
       <c r="D222" t="n">
-        <v>2.494560823511639</v>
+        <v>2.154386474600625</v>
       </c>
       <c r="E222" t="n">
-        <v>2.861280722850198</v>
+        <v>2.637828373527132</v>
       </c>
       <c r="F222" t="n">
-        <v>4.939721116604324</v>
+        <v>3.013573156438337</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.2512642289865372</v>
+        <v>0.5405044329657183</v>
       </c>
       <c r="B223" t="n">
-        <v>0.7468214230722214</v>
+        <v>0.8222261003953752</v>
       </c>
       <c r="C223" t="n">
-        <v>1.020404947998196</v>
+        <v>1.845486277274928</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5930687580376208</v>
+        <v>1.949957769085215</v>
       </c>
       <c r="E223" t="n">
-        <v>2.920796926948537</v>
+        <v>2.435777754246846</v>
       </c>
       <c r="F223" t="n">
-        <v>4.959799184630237</v>
+        <v>2.902601826827118</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1704083703311774</v>
+        <v>0.5602023543005594</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6788908817865202</v>
+        <v>1.706154419946304</v>
       </c>
       <c r="C224" t="n">
-        <v>0.8037699782863381</v>
+        <v>2.071561498578801</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4478775288498973</v>
+        <v>2.182821412985748</v>
       </c>
       <c r="E224" t="n">
-        <v>2.953993021996784</v>
+        <v>2.643333815882245</v>
       </c>
       <c r="F224" t="n">
-        <v>4.925981482102346</v>
+        <v>2.863151204868048</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.06901629586366509</v>
+        <v>0.6605809870603829</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1576204872017009</v>
+        <v>1.722445274379169</v>
       </c>
       <c r="C225" t="n">
-        <v>1.27799719668386</v>
+        <v>2.026276639734805</v>
       </c>
       <c r="D225" t="n">
-        <v>1.564934257112251</v>
+        <v>2.049402887518172</v>
       </c>
       <c r="E225" t="n">
-        <v>2.972617207700652</v>
+        <v>2.244402684875114</v>
       </c>
       <c r="F225" t="n">
-        <v>4.84396816126368</v>
+        <v>1.244852359626275</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.01970050464712791</v>
+        <v>0.7602117103033497</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9558906358020108</v>
+        <v>1.866290577375899</v>
       </c>
       <c r="C226" t="n">
-        <v>1.287921623442105</v>
+        <v>2.197830052144375</v>
       </c>
       <c r="D226" t="n">
-        <v>1.605707161982027</v>
+        <v>2.232302602587092</v>
       </c>
       <c r="E226" t="n">
-        <v>3.01484858769443</v>
+        <v>2.561825688308733</v>
       </c>
       <c r="F226" t="n">
-        <v>4.819365357584225</v>
+        <v>1.181262440766856</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-2.179073956935828</v>
+        <v>-0.2001485288726593</v>
       </c>
       <c r="B227" t="n">
         <v>0.9651354613931478</v>
@@ -4976,18 +4976,18 @@
         <v>1.300453176617707</v>
       </c>
       <c r="D227" t="n">
-        <v>1.680290663763925</v>
+        <v>1.397510532278966</v>
       </c>
       <c r="E227" t="n">
-        <v>3.142834512803665</v>
+        <v>1.725370436234033</v>
       </c>
       <c r="F227" t="n">
-        <v>4.971414128499072</v>
+        <v>3.817747013709992</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.5954830903931465</v>
+        <v>0.2622327928099086</v>
       </c>
       <c r="B228" t="n">
         <v>0.9727021077911354</v>
@@ -4996,18 +4996,18 @@
         <v>1.312074520439291</v>
       </c>
       <c r="D228" t="n">
-        <v>1.747062048101203</v>
+        <v>1.414255201837273</v>
       </c>
       <c r="E228" t="n">
-        <v>3.1959385260838</v>
+        <v>1.772301397449532</v>
       </c>
       <c r="F228" t="n">
-        <v>4.966032615239509</v>
+        <v>1.474794081600034</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.5997527787201096</v>
+        <v>0.3477029339518967</v>
       </c>
       <c r="B229" t="n">
         <v>0.9813546289807946</v>
@@ -5016,18 +5016,18 @@
         <v>1.324830662463112</v>
       </c>
       <c r="D229" t="n">
-        <v>1.823446798549657</v>
+        <v>1.432833389270016</v>
       </c>
       <c r="E229" t="n">
-        <v>3.282104077493037</v>
+        <v>1.854029039114419</v>
       </c>
       <c r="F229" t="n">
-        <v>5.076331672804002</v>
+        <v>3.488291588977563</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.6019125446291416</v>
+        <v>0.6554797762213709</v>
       </c>
       <c r="B230" t="n">
         <v>0.9857575544918434</v>
@@ -5036,18 +5036,18 @@
         <v>1.331031851211441</v>
       </c>
       <c r="D230" t="n">
-        <v>1.854339902372722</v>
+        <v>1.442788704047082</v>
       </c>
       <c r="E230" t="n">
-        <v>3.302213633699302</v>
+        <v>1.874528279008021</v>
       </c>
       <c r="F230" t="n">
-        <v>5.066801845762106</v>
+        <v>3.406213311274412</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.6026025389555891</v>
+        <v>1.325924612140154</v>
       </c>
       <c r="B231" t="n">
         <v>0.988185643009252</v>
@@ -5056,18 +5056,18 @@
         <v>1.334954894594433</v>
       </c>
       <c r="D231" t="n">
-        <v>1.834875019120584</v>
+        <v>1.449366841079508</v>
       </c>
       <c r="E231" t="n">
-        <v>3.178620440995404</v>
+        <v>1.892991982999363</v>
       </c>
       <c r="F231" t="n">
-        <v>4.79028051414581</v>
+        <v>3.369536790908066</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.6036660198247179</v>
+        <v>1.2411998470419</v>
       </c>
       <c r="B232" t="n">
         <v>0.991174320638354</v>
@@ -5076,18 +5076,18 @@
         <v>1.34075497400469</v>
       </c>
       <c r="D232" t="n">
-        <v>1.862440197143001</v>
+        <v>1.458093795229618</v>
       </c>
       <c r="E232" t="n">
-        <v>3.208938811162663</v>
+        <v>1.927355080858726</v>
       </c>
       <c r="F232" t="n">
-        <v>4.85345080805032</v>
+        <v>3.416091994866044</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.6069125509570682</v>
+        <v>1.642448183406476</v>
       </c>
       <c r="B233" t="n">
         <v>0.9971578162417275</v>
@@ -5096,893 +5096,893 @@
         <v>1.349557408681318</v>
       </c>
       <c r="D233" t="n">
-        <v>1.921276073618366</v>
+        <v>1.93935977287311</v>
       </c>
       <c r="E233" t="n">
-        <v>3.314574727230566</v>
+        <v>1.970711824770618</v>
       </c>
       <c r="F233" t="n">
-        <v>7.460863714282693</v>
+        <v>3.486856178495276</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.6112621781992619</v>
+        <v>2.2596499314976</v>
       </c>
       <c r="B234" t="n">
         <v>1.005751486686133</v>
       </c>
       <c r="C234" t="n">
-        <v>1.361469271453881</v>
+        <v>1.382029833592472</v>
       </c>
       <c r="D234" t="n">
-        <v>1.974546961290722</v>
+        <v>1.980825533392519</v>
       </c>
       <c r="E234" t="n">
-        <v>3.364771032385192</v>
+        <v>2.013330419135769</v>
       </c>
       <c r="F234" t="n">
-        <v>7.564415771009707</v>
+        <v>3.534177263407615</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.6150623249641152</v>
+        <v>2.6668993045718</v>
       </c>
       <c r="B235" t="n">
         <v>1.01300308812959</v>
       </c>
       <c r="C235" t="n">
-        <v>1.370846679993455</v>
+        <v>1.410115872278575</v>
       </c>
       <c r="D235" t="n">
-        <v>2.001858294333543</v>
+        <v>2.005190516957577</v>
       </c>
       <c r="E235" t="n">
-        <v>3.370743020636755</v>
+        <v>3.119019533904412</v>
       </c>
       <c r="F235" t="n">
-        <v>7.414992106548405</v>
+        <v>4.247752790290875</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.6185483085153637</v>
+        <v>2.519056554259002</v>
       </c>
       <c r="B236" t="n">
         <v>1.019734569615601</v>
       </c>
       <c r="C236" t="n">
-        <v>1.379425489534126</v>
+        <v>1.435466212010442</v>
       </c>
       <c r="D236" t="n">
-        <v>2.037335650148672</v>
+        <v>2.034178845856136</v>
       </c>
       <c r="E236" t="n">
-        <v>3.403398480009044</v>
+        <v>3.146609667670787</v>
       </c>
       <c r="F236" t="n">
-        <v>7.369317344861773</v>
+        <v>4.320967362299255</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.6216943159610738</v>
+        <v>2.323411701520158</v>
       </c>
       <c r="B237" t="n">
         <v>1.025934911157995</v>
       </c>
       <c r="C237" t="n">
-        <v>1.38747724299575</v>
+        <v>1.459988484738501</v>
       </c>
       <c r="D237" t="n">
-        <v>2.076566751179723</v>
+        <v>2.065142829653767</v>
       </c>
       <c r="E237" t="n">
-        <v>3.446178643451391</v>
+        <v>3.176839346803235</v>
       </c>
       <c r="F237" t="n">
-        <v>7.228833820364349</v>
+        <v>4.376731913748857</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.6237341847136586</v>
+        <v>2.404069027472836</v>
       </c>
       <c r="B238" t="n">
         <v>1.030776805426157</v>
       </c>
       <c r="C238" t="n">
-        <v>1.394877005006438</v>
+        <v>1.48267366377178</v>
       </c>
       <c r="D238" t="n">
-        <v>2.115542117945679</v>
+        <v>2.095455842306974</v>
       </c>
       <c r="E238" t="n">
-        <v>3.502263749440142</v>
+        <v>3.215295485725623</v>
       </c>
       <c r="F238" t="n">
-        <v>7.323074913397757</v>
+        <v>4.422806810576581</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.6246481372201551</v>
+        <v>2.477248266094374</v>
       </c>
       <c r="B239" t="n">
-        <v>3.529534201549508</v>
+        <v>1.033532984381929</v>
       </c>
       <c r="C239" t="n">
-        <v>1.399031774108439</v>
+        <v>1.494241113690179</v>
       </c>
       <c r="D239" t="n">
-        <v>2.15588024488118</v>
+        <v>2.123835307437038</v>
       </c>
       <c r="E239" t="n">
-        <v>3.58945637412714</v>
+        <v>3.269552973459704</v>
       </c>
       <c r="F239" t="n">
-        <v>7.859040671168561</v>
+        <v>4.578447345244642</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.6245994590028834</v>
+        <v>2.109725304652988</v>
       </c>
       <c r="B240" t="n">
         <v>1.034329583150883</v>
       </c>
       <c r="C240" t="n">
-        <v>1.398378959138652</v>
+        <v>1.487377969310821</v>
       </c>
       <c r="D240" t="n">
-        <v>2.157222668977195</v>
+        <v>2.121690571625597</v>
       </c>
       <c r="E240" t="n">
-        <v>3.622536932017193</v>
+        <v>3.284333827542931</v>
       </c>
       <c r="F240" t="n">
-        <v>7.735475698292714</v>
+        <v>4.598226037975216</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.6238240168558917</v>
+        <v>2.597836516337724</v>
       </c>
       <c r="B241" t="n">
         <v>1.032940582883966</v>
       </c>
       <c r="C241" t="n">
-        <v>1.393267962243932</v>
+        <v>1.466310592314236</v>
       </c>
       <c r="D241" t="n">
-        <v>2.10734602613384</v>
+        <v>2.087238546301774</v>
       </c>
       <c r="E241" t="n">
-        <v>3.540412033291434</v>
+        <v>3.229015068461494</v>
       </c>
       <c r="F241" t="n">
-        <v>7.093121720495663</v>
+        <v>4.618639621572121</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.6242978247993508</v>
+        <v>2.298177050314237</v>
       </c>
       <c r="B242" t="n">
-        <v>1.034845237251912</v>
+        <v>3.474281599540432</v>
       </c>
       <c r="C242" t="n">
-        <v>1.393579750544865</v>
+        <v>1.464982795968701</v>
       </c>
       <c r="D242" t="n">
-        <v>2.098034658427453</v>
+        <v>2.087445955536871</v>
       </c>
       <c r="E242" t="n">
-        <v>3.545873085027422</v>
+        <v>3.246402197101694</v>
       </c>
       <c r="F242" t="n">
-        <v>6.794279305516874</v>
+        <v>4.636242297671712</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.6247539746785593</v>
+        <v>2.271860175451267</v>
       </c>
       <c r="B243" t="n">
-        <v>1.256478562627872</v>
+        <v>3.437576088560586</v>
       </c>
       <c r="C243" t="n">
-        <v>1.394850692294409</v>
+        <v>1.465504024500869</v>
       </c>
       <c r="D243" t="n">
-        <v>2.088733011993875</v>
+        <v>2.081899021690441</v>
       </c>
       <c r="E243" t="n">
-        <v>3.539003594635311</v>
+        <v>3.242551819049846</v>
       </c>
       <c r="F243" t="n">
-        <v>6.551450857082606</v>
+        <v>4.633991000220505</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.6245328723358808</v>
+        <v>2.488885497927717</v>
       </c>
       <c r="B244" t="n">
-        <v>1.252474133610153</v>
+        <v>3.594034127423873</v>
       </c>
       <c r="C244" t="n">
-        <v>1.392116812072935</v>
+        <v>1.453932544125277</v>
       </c>
       <c r="D244" t="n">
-        <v>2.061830266461598</v>
+        <v>2.066097783626187</v>
       </c>
       <c r="E244" t="n">
-        <v>3.504689820450999</v>
+        <v>3.223423287209207</v>
       </c>
       <c r="F244" t="n">
-        <v>6.080595776405142</v>
+        <v>4.6515322915492</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.6251446033019619</v>
+        <v>2.260224159707861</v>
       </c>
       <c r="B245" t="n">
-        <v>1.253239056182484</v>
+        <v>3.35474168892598</v>
       </c>
       <c r="C245" t="n">
-        <v>1.393179579894642</v>
+        <v>1.453906030845415</v>
       </c>
       <c r="D245" t="n">
-        <v>2.051724301587673</v>
+        <v>2.062628565702114</v>
       </c>
       <c r="E245" t="n">
-        <v>3.483338440096338</v>
+        <v>3.216070948753004</v>
       </c>
       <c r="F245" t="n">
-        <v>5.781138494510103</v>
+        <v>4.593352929759428</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.6257660233005519</v>
+        <v>1.663580765055196</v>
       </c>
       <c r="B246" t="n">
-        <v>1.260286442402039</v>
+        <v>3.361470182880414</v>
       </c>
       <c r="C246" t="n">
-        <v>1.397237168522566</v>
+        <v>1.464403312266623</v>
       </c>
       <c r="D246" t="n">
-        <v>2.072920896260649</v>
+        <v>2.08459990574704</v>
       </c>
       <c r="E246" t="n">
-        <v>3.521887721904058</v>
+        <v>3.25580263574606</v>
       </c>
       <c r="F246" t="n">
-        <v>5.903992320435224</v>
+        <v>4.646816863603455</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.6272962941529333</v>
+        <v>1.470813197186844</v>
       </c>
       <c r="B247" t="n">
-        <v>1.271837873205516</v>
+        <v>3.002773930170102</v>
       </c>
       <c r="C247" t="n">
-        <v>2.220457270773403</v>
+        <v>1.487785146281299</v>
       </c>
       <c r="D247" t="n">
-        <v>2.104905922357596</v>
+        <v>2.111129730338736</v>
       </c>
       <c r="E247" t="n">
-        <v>3.55461031235268</v>
+        <v>3.286716805210598</v>
       </c>
       <c r="F247" t="n">
-        <v>5.865037624872011</v>
+        <v>4.603828886381303</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.6289210675474487</v>
+        <v>1.279372669106949</v>
       </c>
       <c r="B248" t="n">
-        <v>1.28607644164674</v>
+        <v>2.643370992687048</v>
       </c>
       <c r="C248" t="n">
-        <v>2.247632315197774</v>
+        <v>1.513235747735128</v>
       </c>
       <c r="D248" t="n">
-        <v>2.14951907489166</v>
+        <v>2.1479039718257</v>
       </c>
       <c r="E248" t="n">
-        <v>3.608063100358986</v>
+        <v>3.33271075430039</v>
       </c>
       <c r="F248" t="n">
-        <v>5.957970749385364</v>
+        <v>4.699717748288483</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.6302465513669455</v>
+        <v>1.135927408816759</v>
       </c>
       <c r="B249" t="n">
-        <v>1.301280034528805</v>
+        <v>2.329779240259672</v>
       </c>
       <c r="C249" t="n">
-        <v>2.281079608488851</v>
+        <v>1.538776535228138</v>
       </c>
       <c r="D249" t="n">
-        <v>2.201878027974629</v>
+        <v>3.326117539693859</v>
       </c>
       <c r="E249" t="n">
-        <v>3.693261321361515</v>
+        <v>4.779177338814129</v>
       </c>
       <c r="F249" t="n">
-        <v>6.054915162134585</v>
+        <v>4.686122112156319</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.6314663062900593</v>
+        <v>1.074801441480302</v>
       </c>
       <c r="B250" t="n">
-        <v>1.314598784843861</v>
+        <v>2.135492784365544</v>
       </c>
       <c r="C250" t="n">
-        <v>2.308534995669072</v>
+        <v>2.393848354737223</v>
       </c>
       <c r="D250" t="n">
-        <v>3.109682983312998</v>
+        <v>3.117983171054169</v>
       </c>
       <c r="E250" t="n">
-        <v>3.763773395856275</v>
+        <v>4.603507597206305</v>
       </c>
       <c r="F250" t="n">
-        <v>6.252491970785481</v>
+        <v>4.774586560830279</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.6325724213093554</v>
+        <v>0.9810977284170345</v>
       </c>
       <c r="B251" t="n">
-        <v>2.041379677272694</v>
+        <v>2.073857774146472</v>
       </c>
       <c r="C251" t="n">
-        <v>2.340887025035881</v>
+        <v>2.569417563189888</v>
       </c>
       <c r="D251" t="n">
-        <v>3.159828167525245</v>
+        <v>2.843529500766388</v>
       </c>
       <c r="E251" t="n">
-        <v>3.841879884470388</v>
+        <v>4.253480357147382</v>
       </c>
       <c r="F251" t="n">
-        <v>6.384428280432751</v>
+        <v>4.884117296829032</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.6327920685188938</v>
+        <v>1.131366901201151</v>
       </c>
       <c r="B252" t="n">
-        <v>2.148210595896701</v>
+        <v>2.327484938938202</v>
       </c>
       <c r="C252" t="n">
-        <v>2.357325015126924</v>
+        <v>3.061465496291456</v>
       </c>
       <c r="D252" t="n">
-        <v>3.18831784000213</v>
+        <v>3.51801614537318</v>
       </c>
       <c r="E252" t="n">
-        <v>5.188909107423438</v>
+        <v>3.562129347619036</v>
       </c>
       <c r="F252" t="n">
-        <v>6.564180698549395</v>
+        <v>4.955015683472814</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.6344777881552637</v>
+        <v>1.405438002841409</v>
       </c>
       <c r="B253" t="n">
-        <v>2.509363445604458</v>
+        <v>2.744495315516063</v>
       </c>
       <c r="C253" t="n">
-        <v>2.405466596856191</v>
+        <v>3.850560258244271</v>
       </c>
       <c r="D253" t="n">
-        <v>3.261848213853716</v>
+        <v>4.692977119173925</v>
       </c>
       <c r="E253" t="n">
-        <v>5.328593815206075</v>
+        <v>3.642482077355958</v>
       </c>
       <c r="F253" t="n">
-        <v>6.970355139103703</v>
+        <v>5.196378868729688</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.6353097228168008</v>
+        <v>1.36339868777222</v>
       </c>
       <c r="B254" t="n">
-        <v>2.385925434877813</v>
+        <v>2.736643101679685</v>
       </c>
       <c r="C254" t="n">
-        <v>2.430875075913856</v>
+        <v>3.899696470899678</v>
       </c>
       <c r="D254" t="n">
-        <v>3.301906860378674</v>
+        <v>4.677548755980959</v>
       </c>
       <c r="E254" t="n">
-        <v>5.376726054176002</v>
+        <v>3.682482217541492</v>
       </c>
       <c r="F254" t="n">
-        <v>7.029457982434145</v>
+        <v>5.281810074303694</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.636038252420004</v>
+        <v>1.480747128901604</v>
       </c>
       <c r="B255" t="n">
-        <v>2.397332395689576</v>
+        <v>2.833866318442524</v>
       </c>
       <c r="C255" t="n">
-        <v>2.46065299644436</v>
+        <v>4.151189311116047</v>
       </c>
       <c r="D255" t="n">
-        <v>3.350707178794952</v>
+        <v>5.082874427208377</v>
       </c>
       <c r="E255" t="n">
-        <v>5.420427211813634</v>
+        <v>3.725887481185941</v>
       </c>
       <c r="F255" t="n">
-        <v>7.224981743559397</v>
+        <v>5.338773514485109</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.6372559033850445</v>
+        <v>1.522599021463741</v>
       </c>
       <c r="B256" t="n">
-        <v>2.415274312868754</v>
+        <v>2.935397399183172</v>
       </c>
       <c r="C256" t="n">
-        <v>2.497445911055814</v>
+        <v>4.363929440505203</v>
       </c>
       <c r="D256" t="n">
-        <v>3.407626788445083</v>
+        <v>5.356407321405221</v>
       </c>
       <c r="E256" t="n">
-        <v>5.50118256733804</v>
+        <v>3.772318993600642</v>
       </c>
       <c r="F256" t="n">
-        <v>7.343099521407003</v>
+        <v>5.413543324104606</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.6384116577786303</v>
+        <v>1.404467733432189</v>
       </c>
       <c r="B257" t="n">
-        <v>2.217136196678227</v>
+        <v>2.806352826297256</v>
       </c>
       <c r="C257" t="n">
-        <v>2.520461816991954</v>
+        <v>4.192137603765204</v>
       </c>
       <c r="D257" t="n">
-        <v>3.440847965841311</v>
+        <v>5.181839561730979</v>
       </c>
       <c r="E257" t="n">
-        <v>5.527363541509898</v>
+        <v>3.791260365222189</v>
       </c>
       <c r="F257" t="n">
-        <v>7.422832262723471</v>
+        <v>5.43355252152818</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.6388903714329439</v>
+        <v>1.254616018121229</v>
       </c>
       <c r="B258" t="n">
-        <v>2.015948283787206</v>
+        <v>2.610567558208698</v>
       </c>
       <c r="C258" t="n">
-        <v>2.546576009494846</v>
+        <v>3.913749503419955</v>
       </c>
       <c r="D258" t="n">
-        <v>3.479667489304215</v>
+        <v>4.857916901295503</v>
       </c>
       <c r="E258" t="n">
-        <v>5.526449904519974</v>
+        <v>3.823139989934816</v>
       </c>
       <c r="F258" t="n">
-        <v>7.373446838223019</v>
+        <v>5.445212450198854</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.6387861367428277</v>
+        <v>1.25975959402049</v>
       </c>
       <c r="B259" t="n">
-        <v>2.076063805386501</v>
+        <v>2.656133821764553</v>
       </c>
       <c r="C259" t="n">
-        <v>2.547935601066948</v>
+        <v>4.028068055694989</v>
       </c>
       <c r="D259" t="n">
-        <v>3.479846836736766</v>
+        <v>5.000128335915598</v>
       </c>
       <c r="E259" t="n">
-        <v>5.423668245411429</v>
+        <v>3.813637236676602</v>
       </c>
       <c r="F259" t="n">
-        <v>7.278751102719004</v>
+        <v>5.46211050257404</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.6383873157181347</v>
+        <v>1.017573540243873</v>
       </c>
       <c r="B260" t="n">
-        <v>1.414641186852873</v>
+        <v>2.353590764065148</v>
       </c>
       <c r="C260" t="n">
-        <v>2.559057380358546</v>
+        <v>3.56437690318824</v>
       </c>
       <c r="D260" t="n">
-        <v>3.50458522627811</v>
+        <v>4.443012655844403</v>
       </c>
       <c r="E260" t="n">
-        <v>5.396965076005068</v>
+        <v>3.842677371307774</v>
       </c>
       <c r="F260" t="n">
-        <v>7.099294174841888</v>
+        <v>5.445722064421682</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.6381008620057853</v>
+        <v>0.8904216213466658</v>
       </c>
       <c r="B261" t="n">
-        <v>1.41088714735806</v>
+        <v>2.142547235498729</v>
       </c>
       <c r="C261" t="n">
-        <v>2.561242801310472</v>
+        <v>3.244362382065212</v>
       </c>
       <c r="D261" t="n">
-        <v>3.512585777922388</v>
+        <v>4.038478780050017</v>
       </c>
       <c r="E261" t="n">
-        <v>5.350211654886023</v>
+        <v>3.861086084319236</v>
       </c>
       <c r="F261" t="n">
-        <v>6.808222123349404</v>
+        <v>5.371547294349384</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.161441253941932</v>
+        <v>0.8422115511636704</v>
       </c>
       <c r="B262" t="n">
-        <v>1.401504563627271</v>
+        <v>2.026855272715179</v>
       </c>
       <c r="C262" t="n">
-        <v>2.549276763442498</v>
+        <v>3.083308873310815</v>
       </c>
       <c r="D262" t="n">
-        <v>3.500351391992579</v>
+        <v>3.86472140626328</v>
       </c>
       <c r="E262" t="n">
-        <v>5.296378492800297</v>
+        <v>3.866384212693396</v>
       </c>
       <c r="F262" t="n">
-        <v>6.682384035659386</v>
+        <v>5.320830704505086</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.118806650103802</v>
+        <v>0.8598505120290052</v>
       </c>
       <c r="B263" t="n">
-        <v>1.392136976086473</v>
+        <v>2.002534808217954</v>
       </c>
       <c r="C263" t="n">
-        <v>2.54331460940077</v>
+        <v>3.077430525064436</v>
       </c>
       <c r="D263" t="n">
-        <v>3.501238105183073</v>
+        <v>3.899041146467566</v>
       </c>
       <c r="E263" t="n">
-        <v>5.274697848154821</v>
+        <v>3.891298066221793</v>
       </c>
       <c r="F263" t="n">
-        <v>6.882254416932775</v>
+        <v>5.437709253451898</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.071371943666081</v>
+        <v>0.774001796905355</v>
       </c>
       <c r="B264" t="n">
-        <v>1.387252177237857</v>
+        <v>1.932719318159679</v>
       </c>
       <c r="C264" t="n">
-        <v>2.543516360281972</v>
+        <v>2.971685212899451</v>
       </c>
       <c r="D264" t="n">
-        <v>3.509904564414573</v>
+        <v>3.745561587195739</v>
       </c>
       <c r="E264" t="n">
-        <v>5.28242102384599</v>
+        <v>3.918528819729253</v>
       </c>
       <c r="F264" t="n">
-        <v>6.851403052560022</v>
+        <v>5.479406847805381</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.028988375956781</v>
+        <v>0.714055356843604</v>
       </c>
       <c r="B265" t="n">
-        <v>1.392346037756893</v>
+        <v>1.860445899420687</v>
       </c>
       <c r="C265" t="n">
-        <v>2.566679665317803</v>
+        <v>2.892590632127505</v>
       </c>
       <c r="D265" t="n">
-        <v>3.555778160625068</v>
+        <v>3.717806040798231</v>
       </c>
       <c r="E265" t="n">
-        <v>5.41358172349512</v>
+        <v>3.993380302105734</v>
       </c>
       <c r="F265" t="n">
-        <v>6.788265816602154</v>
+        <v>5.582120688685199</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.9774978373067474</v>
+        <v>0.6167730391728157</v>
       </c>
       <c r="B266" t="n">
-        <v>1.399170235972251</v>
+        <v>1.741914650776591</v>
       </c>
       <c r="C266" t="n">
-        <v>2.596256306123841</v>
+        <v>2.723622134781571</v>
       </c>
       <c r="D266" t="n">
-        <v>3.616485118203423</v>
+        <v>3.552650251603255</v>
       </c>
       <c r="E266" t="n">
-        <v>5.580015832787087</v>
+        <v>4.087790295995009</v>
       </c>
       <c r="F266" t="n">
-        <v>6.982411948556775</v>
+        <v>5.756301388790952</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.998712165538293</v>
+        <v>0.6799478654192955</v>
       </c>
       <c r="B267" t="n">
-        <v>1.409020769026054</v>
+        <v>1.85305790108229</v>
       </c>
       <c r="C267" t="n">
-        <v>2.626722989231051</v>
+        <v>2.931809435002415</v>
       </c>
       <c r="D267" t="n">
-        <v>3.674611149281898</v>
+        <v>3.848685546007377</v>
       </c>
       <c r="E267" t="n">
-        <v>5.735255349702275</v>
+        <v>4.17140993599386</v>
       </c>
       <c r="F267" t="n">
-        <v>7.150708922461007</v>
+        <v>5.906156745336606</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.014514191151562</v>
+        <v>0.6659074690677903</v>
       </c>
       <c r="B268" t="n">
-        <v>1.415928638083124</v>
+        <v>1.950615474579589</v>
       </c>
       <c r="C268" t="n">
-        <v>2.638826569023078</v>
+        <v>3.104768830108141</v>
       </c>
       <c r="D268" t="n">
-        <v>3.694660939419891</v>
+        <v>4.072618188700702</v>
       </c>
       <c r="E268" t="n">
-        <v>5.798700640674629</v>
+        <v>4.214313880266735</v>
       </c>
       <c r="F268" t="n">
-        <v>7.205338436007685</v>
+        <v>5.996421243710685</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.9582033775168363</v>
+        <v>0.6324877272492775</v>
       </c>
       <c r="B269" t="n">
-        <v>1.420758323463563</v>
+        <v>1.82620279080735</v>
       </c>
       <c r="C269" t="n">
-        <v>2.657161708619681</v>
+        <v>2.924300674940409</v>
       </c>
       <c r="D269" t="n">
-        <v>3.732408084457915</v>
+        <v>3.884141615902736</v>
       </c>
       <c r="E269" t="n">
-        <v>5.912695034559773</v>
+        <v>4.285636971521644</v>
       </c>
       <c r="F269" t="n">
-        <v>7.335547748200897</v>
+        <v>6.083555042826539</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.9042747942755112</v>
+        <v>0.6058795742396972</v>
       </c>
       <c r="B270" t="n">
-        <v>1.417952804475439</v>
+        <v>1.706540313305422</v>
       </c>
       <c r="C270" t="n">
-        <v>2.660691628729806</v>
+        <v>2.740134044005813</v>
       </c>
       <c r="D270" t="n">
-        <v>3.75030183387842</v>
+        <v>3.666572289587929</v>
       </c>
       <c r="E270" t="n">
-        <v>5.985931139408041</v>
+        <v>4.341521492365819</v>
       </c>
       <c r="F270" t="n">
-        <v>7.451233173594401</v>
+        <v>6.174962130777379</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.881868368011453</v>
+        <v>0.6077686796002946</v>
       </c>
       <c r="B271" t="n">
-        <v>1.413483650677877</v>
+        <v>1.691420540057355</v>
       </c>
       <c r="C271" t="n">
-        <v>2.659696527228467</v>
+        <v>2.73910241359411</v>
       </c>
       <c r="D271" t="n">
-        <v>3.758046106506924</v>
+        <v>3.700407986680913</v>
       </c>
       <c r="E271" t="n">
-        <v>6.043844523637062</v>
+        <v>4.385620642695794</v>
       </c>
       <c r="F271" t="n">
-        <v>7.544325471177427</v>
+        <v>6.321150011948378</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8381046362836463</v>
+        <v>0.5867251671259721</v>
       </c>
       <c r="B272" t="n">
-        <v>1.406967562716047</v>
+        <v>1.600640282755179</v>
       </c>
       <c r="C272" t="n">
-        <v>2.662483886847596</v>
+        <v>2.603706967400443</v>
       </c>
       <c r="D272" t="n">
-        <v>3.778757934643742</v>
+        <v>3.542125333822435</v>
       </c>
       <c r="E272" t="n">
-        <v>6.110262908984852</v>
+        <v>4.438950640967411</v>
       </c>
       <c r="F272" t="n">
-        <v>7.682735277983066</v>
+        <v>6.469058646649274</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8006388659340149</v>
+        <v>0.5737237831344533</v>
       </c>
       <c r="B273" t="n">
-        <v>1.39217464654501</v>
+        <v>1.550070788146501</v>
       </c>
       <c r="C273" t="n">
-        <v>2.64350744204167</v>
+        <v>2.537037173761348</v>
       </c>
       <c r="D273" t="n">
-        <v>3.761442095777674</v>
+        <v>3.465070122443954</v>
       </c>
       <c r="E273" t="n">
-        <v>6.073875285521861</v>
+        <v>4.443180896969611</v>
       </c>
       <c r="F273" t="n">
-        <v>7.697533882876902</v>
+        <v>6.517670357202006</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.7887191436977152</v>
+        <v>0.5860634829346143</v>
       </c>
       <c r="B274" t="n">
-        <v>1.383182071725652</v>
+        <v>1.545573857426964</v>
       </c>
       <c r="C274" t="n">
-        <v>2.639350123736715</v>
+        <v>2.508641393044934</v>
       </c>
       <c r="D274" t="n">
-        <v>3.767440893997592</v>
+        <v>3.39197230004508</v>
       </c>
       <c r="E274" t="n">
-        <v>6.035766424304109</v>
+        <v>4.469033131808184</v>
       </c>
       <c r="F274" t="n">
-        <v>7.73205300638706</v>
+        <v>6.561007375742193</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.7909730451090312</v>
+        <v>0.602136435599316</v>
       </c>
       <c r="B275" t="n">
-        <v>1.371938439903907</v>
+        <v>1.586800695278161</v>
       </c>
       <c r="C275" t="n">
-        <v>2.629607900353008</v>
+        <v>2.582683058364984</v>
       </c>
       <c r="D275" t="n">
-        <v>3.765866009858922</v>
+        <v>3.501734781667869</v>
       </c>
       <c r="E275" t="n">
-        <v>6.018295019702414</v>
+        <v>4.486485683569319</v>
       </c>
       <c r="F275" t="n">
-        <v>7.771376833510471</v>
+        <v>6.608276435611592</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.6324966986324443</v>
+        <v>0.5793495224222867</v>
       </c>
       <c r="B276" t="n">
-        <v>1.360329886356472</v>
+        <v>1.492031072020112</v>
       </c>
       <c r="C276" t="n">
-        <v>2.615575050463674</v>
+        <v>2.439143510156396</v>
       </c>
       <c r="D276" t="n">
-        <v>3.755562312962059</v>
+        <v>3.352857075235163</v>
       </c>
       <c r="E276" t="n">
-        <v>5.991347772182634</v>
+        <v>4.496283057778676</v>
       </c>
       <c r="F276" t="n">
-        <v>7.779556428185964</v>
+        <v>6.627602175988625</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.6315782705873141</v>
+        <v>0.6028048511229127</v>
       </c>
       <c r="B277" t="n">
-        <v>1.349746499400258</v>
+        <v>1.552965590634442</v>
       </c>
       <c r="C277" t="n">
-        <v>2.605325279284808</v>
+        <v>2.531612775495724</v>
       </c>
       <c r="D277" t="n">
-        <v>3.749927450489473</v>
+        <v>3.459660751339362</v>
       </c>
       <c r="E277" t="n">
-        <v>5.95120561739146</v>
+        <v>4.497643316388296</v>
       </c>
       <c r="F277" t="n">
-        <v>7.78550665101244</v>
+        <v>6.631339650987046</v>
       </c>
     </row>
     <row r="278">
@@ -5990,19 +5990,19 @@
         <v>0.6305322452314577</v>
       </c>
       <c r="B278" t="n">
-        <v>1.335908886727918</v>
+        <v>1.675885471853613</v>
       </c>
       <c r="C278" t="n">
-        <v>2.587270031968968</v>
+        <v>2.743067987423668</v>
       </c>
       <c r="D278" t="n">
-        <v>3.731451965621587</v>
+        <v>3.719569937424791</v>
       </c>
       <c r="E278" t="n">
-        <v>5.893515311457971</v>
+        <v>4.481873420612123</v>
       </c>
       <c r="F278" t="n">
-        <v>7.756595348823006</v>
+        <v>6.612665623581433</v>
       </c>
     </row>
     <row r="279">
@@ -6010,19 +6010,19 @@
         <v>0.629742346642416</v>
       </c>
       <c r="B279" t="n">
-        <v>1.328296938676296</v>
+        <v>1.581000132559644</v>
       </c>
       <c r="C279" t="n">
-        <v>2.58552094896386</v>
+        <v>2.570143393337805</v>
       </c>
       <c r="D279" t="n">
-        <v>3.739722984572792</v>
+        <v>3.504409082321048</v>
       </c>
       <c r="E279" t="n">
-        <v>5.878623302237324</v>
+        <v>4.500576800400324</v>
       </c>
       <c r="F279" t="n">
-        <v>7.794633760030901</v>
+        <v>6.629951996593586</v>
       </c>
     </row>
     <row r="280">
@@ -6030,19 +6030,19 @@
         <v>0.629108656268011</v>
       </c>
       <c r="B280" t="n">
-        <v>1.31953790179803</v>
+        <v>1.560849875627099</v>
       </c>
       <c r="C280" t="n">
-        <v>2.574404926733619</v>
+        <v>2.541463791559006</v>
       </c>
       <c r="D280" t="n">
-        <v>3.728569478206603</v>
+        <v>3.474591144353103</v>
       </c>
       <c r="E280" t="n">
-        <v>5.851988480311316</v>
+        <v>4.499086593793154</v>
       </c>
       <c r="F280" t="n">
-        <v>7.787980453809532</v>
+        <v>6.624720308305118</v>
       </c>
     </row>
     <row r="281">
@@ -6050,19 +6050,19 @@
         <v>0.6282590351881155</v>
       </c>
       <c r="B281" t="n">
-        <v>1.308780561423795</v>
+        <v>1.507310436100944</v>
       </c>
       <c r="C281" t="n">
-        <v>2.562279526605347</v>
+        <v>2.468780344985051</v>
       </c>
       <c r="D281" t="n">
-        <v>3.717296354647871</v>
+        <v>2.750039312560589</v>
       </c>
       <c r="E281" t="n">
-        <v>5.820253565047034</v>
+        <v>4.494217717987632</v>
       </c>
       <c r="F281" t="n">
-        <v>7.788352466619479</v>
+        <v>6.612963345931467</v>
       </c>
     </row>
     <row r="282">
@@ -6070,19 +6070,19 @@
         <v>0.6273750300351855</v>
       </c>
       <c r="B282" t="n">
-        <v>1.296398903322015</v>
+        <v>1.710901909976406</v>
       </c>
       <c r="C282" t="n">
-        <v>2.545781456042937</v>
+        <v>2.789818272265159</v>
       </c>
       <c r="D282" t="n">
-        <v>3.695637440045837</v>
+        <v>2.731213355883228</v>
       </c>
       <c r="E282" t="n">
-        <v>5.729120855343943</v>
+        <v>4.46133534521189</v>
       </c>
       <c r="F282" t="n">
-        <v>7.727656711383913</v>
+        <v>6.585316020883847</v>
       </c>
     </row>
     <row r="283">
@@ -6090,19 +6090,19 @@
         <v>0.626557835683782</v>
       </c>
       <c r="B283" t="n">
-        <v>1.284085369582018</v>
+        <v>2.010448055576984</v>
       </c>
       <c r="C283" t="n">
-        <v>2.526756041601966</v>
+        <v>3.313000255061457</v>
       </c>
       <c r="D283" t="n">
-        <v>3.66696377496039</v>
+        <v>2.705590419137558</v>
       </c>
       <c r="E283" t="n">
-        <v>5.659494150152079</v>
+        <v>4.416607080007469</v>
       </c>
       <c r="F283" t="n">
-        <v>7.644599097433721</v>
+        <v>6.537511991828834</v>
       </c>
     </row>
     <row r="284">
@@ -6110,19 +6110,19 @@
         <v>0.6255180726321585</v>
       </c>
       <c r="B284" t="n">
-        <v>1.266593304144843</v>
+        <v>1.968975524092923</v>
       </c>
       <c r="C284" t="n">
-        <v>2.489077978186819</v>
+        <v>3.229304706905817</v>
       </c>
       <c r="D284" t="n">
-        <v>3.604162347434734</v>
+        <v>2.662855494979937</v>
       </c>
       <c r="E284" t="n">
-        <v>5.520709616575186</v>
+        <v>4.331946676864343</v>
       </c>
       <c r="F284" t="n">
-        <v>7.457972863261765</v>
+        <v>6.398126649953824</v>
       </c>
     </row>
     <row r="285">
@@ -6130,19 +6130,19 @@
         <v>0.624463912700562</v>
       </c>
       <c r="B285" t="n">
-        <v>1.250723115563638</v>
+        <v>2.133802462161773</v>
       </c>
       <c r="C285" t="n">
-        <v>2.462127103604239</v>
+        <v>3.490542246810787</v>
       </c>
       <c r="D285" t="n">
-        <v>3.563424502186935</v>
+        <v>2.628832184777956</v>
       </c>
       <c r="E285" t="n">
-        <v>5.419811379068933</v>
+        <v>4.27399604080314</v>
       </c>
       <c r="F285" t="n">
-        <v>7.340941887575249</v>
+        <v>6.321309288304075</v>
       </c>
     </row>
     <row r="286">
@@ -6150,19 +6150,19 @@
         <v>0.6235639776521437</v>
       </c>
       <c r="B286" t="n">
-        <v>1.237351530538393</v>
+        <v>1.982822969042194</v>
       </c>
       <c r="C286" t="n">
-        <v>2.441784409202731</v>
+        <v>3.243441945259395</v>
       </c>
       <c r="D286" t="n">
-        <v>3.533333278914906</v>
+        <v>2.602387287116803</v>
       </c>
       <c r="E286" t="n">
-        <v>5.344997568949708</v>
+        <v>4.229978673077358</v>
       </c>
       <c r="F286" t="n">
-        <v>7.252668361903687</v>
+        <v>6.247116428981421</v>
       </c>
     </row>
     <row r="287">
@@ -6170,19 +6170,19 @@
         <v>0.6227849704623486</v>
       </c>
       <c r="B287" t="n">
-        <v>1.224705947550475</v>
+        <v>1.916944888397995</v>
       </c>
       <c r="C287" t="n">
-        <v>2.417783605074994</v>
+        <v>3.111768988309621</v>
       </c>
       <c r="D287" t="n">
-        <v>3.494604659481038</v>
+        <v>2.57263322162908</v>
       </c>
       <c r="E287" t="n">
-        <v>5.25246868118443</v>
+        <v>4.173982506871392</v>
       </c>
       <c r="F287" t="n">
-        <v>7.135172536708954</v>
+        <v>6.143699578879472</v>
       </c>
     </row>
     <row r="288">
@@ -6190,19 +6190,19 @@
         <v>0.6218677072094707</v>
       </c>
       <c r="B288" t="n">
-        <v>1.211821156300155</v>
+        <v>1.933021880584658</v>
       </c>
       <c r="C288" t="n">
-        <v>2.396441091073864</v>
+        <v>3.104642533321145</v>
       </c>
       <c r="D288" t="n">
-        <v>3.461035039136896</v>
+        <v>2.545135612830486</v>
       </c>
       <c r="E288" t="n">
-        <v>5.161617458991337</v>
+        <v>4.123164605131644</v>
       </c>
       <c r="F288" t="n">
-        <v>7.018781489461122</v>
+        <v>6.089685295141569</v>
       </c>
     </row>
     <row r="289">
@@ -6210,19 +6210,19 @@
         <v>0.6209767594333</v>
       </c>
       <c r="B289" t="n">
-        <v>1.198088901568046</v>
+        <v>2.188278895571529</v>
       </c>
       <c r="C289" t="n">
-        <v>2.37119134589127</v>
+        <v>3.528456747743133</v>
       </c>
       <c r="D289" t="n">
-        <v>3.419161333849524</v>
+        <v>2.512151580976314</v>
       </c>
       <c r="E289" t="n">
-        <v>5.061757032175874</v>
+        <v>4.064474754533244</v>
       </c>
       <c r="F289" t="n">
-        <v>6.888805387992735</v>
+        <v>6.017384281720734</v>
       </c>
     </row>
     <row r="290">
@@ -6230,19 +6230,19 @@
         <v>0.6202027677570671</v>
       </c>
       <c r="B290" t="n">
-        <v>1.185206805373105</v>
+        <v>1.979971352512666</v>
       </c>
       <c r="C290" t="n">
-        <v>2.34010232650732</v>
+        <v>3.199172915559625</v>
       </c>
       <c r="D290" t="n">
-        <v>3.366436565550135</v>
+        <v>2.479608546803301</v>
       </c>
       <c r="E290" t="n">
-        <v>4.955297677195857</v>
+        <v>4.002953999012117</v>
       </c>
       <c r="F290" t="n">
-        <v>6.751089572505384</v>
+        <v>5.861116603371604</v>
       </c>
     </row>
     <row r="291">
@@ -6250,19 +6250,19 @@
         <v>0.6193015482383364</v>
       </c>
       <c r="B291" t="n">
-        <v>1.172976932205635</v>
+        <v>2.007320008223877</v>
       </c>
       <c r="C291" t="n">
-        <v>2.322258458286567</v>
+        <v>3.215725653490729</v>
       </c>
       <c r="D291" t="n">
-        <v>3.340622882004</v>
+        <v>4.201118527358041</v>
       </c>
       <c r="E291" t="n">
-        <v>4.892696136023781</v>
+        <v>3.967100972372961</v>
       </c>
       <c r="F291" t="n">
-        <v>6.688111708670172</v>
+        <v>5.816586611628127</v>
       </c>
     </row>
     <row r="292">
@@ -6270,19 +6270,19 @@
         <v>0.6184964039863939</v>
       </c>
       <c r="B292" t="n">
-        <v>1.159139366968504</v>
+        <v>2.121167596867647</v>
       </c>
       <c r="C292" t="n">
-        <v>2.298615209744803</v>
+        <v>3.390517447704724</v>
       </c>
       <c r="D292" t="n">
-        <v>3.305442768539883</v>
+        <v>4.415948454463457</v>
       </c>
       <c r="E292" t="n">
-        <v>4.801226737862355</v>
+        <v>3.919587148912105</v>
       </c>
       <c r="F292" t="n">
-        <v>6.613203573055698</v>
+        <v>5.76135837361597</v>
       </c>
     </row>
     <row r="293">
@@ -6290,19 +6290,19 @@
         <v>0.6176490663535148</v>
       </c>
       <c r="B293" t="n">
-        <v>1.14322962033304</v>
+        <v>2.043665902702553</v>
       </c>
       <c r="C293" t="n">
-        <v>2.262902885529633</v>
+        <v>3.222274788981443</v>
       </c>
       <c r="D293" t="n">
-        <v>3.247087398810835</v>
+        <v>4.166688067108264</v>
       </c>
       <c r="E293" t="n">
-        <v>4.66197133189913</v>
+        <v>3.848436734404555</v>
       </c>
       <c r="F293" t="n">
-        <v>6.30973499044627</v>
+        <v>5.64156718270757</v>
       </c>
     </row>
     <row r="294">
@@ -6310,559 +6310,559 @@
         <v>0.6170776276772496</v>
       </c>
       <c r="B294" t="n">
-        <v>1.13353052225508</v>
+        <v>1.943993308704062</v>
       </c>
       <c r="C294" t="n">
-        <v>2.241683699851541</v>
+        <v>3.063205329108558</v>
       </c>
       <c r="D294" t="n">
-        <v>3.213211116028003</v>
+        <v>3.973968752632248</v>
       </c>
       <c r="E294" t="n">
-        <v>4.577974259831503</v>
+        <v>3.813630414124833</v>
       </c>
       <c r="F294" t="n">
-        <v>6.138184773651573</v>
+        <v>5.575629429748217</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.6180520391096035</v>
+        <v>0.7467314987559857</v>
       </c>
       <c r="B295" t="n">
-        <v>1.127645929221765</v>
+        <v>1.990000677274815</v>
       </c>
       <c r="C295" t="n">
-        <v>2.231367405691311</v>
+        <v>3.160460195981479</v>
       </c>
       <c r="D295" t="n">
-        <v>3.197769828246873</v>
+        <v>4.122307732049329</v>
       </c>
       <c r="E295" t="n">
-        <v>4.523518904173343</v>
+        <v>3.801348472263997</v>
       </c>
       <c r="F295" t="n">
-        <v>6.062866500656982</v>
+        <v>5.573648402067617</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.6203188574382479</v>
+        <v>0.7733222319368549</v>
       </c>
       <c r="B296" t="n">
-        <v>1.39423752694117</v>
+        <v>2.083814925002817</v>
       </c>
       <c r="C296" t="n">
-        <v>2.218692243178794</v>
+        <v>3.283815567497697</v>
       </c>
       <c r="D296" t="n">
-        <v>3.181329956092583</v>
+        <v>4.229991081411101</v>
       </c>
       <c r="E296" t="n">
-        <v>4.513651964902181</v>
+        <v>5.443223640100653</v>
       </c>
       <c r="F296" t="n">
-        <v>6.091835690861004</v>
+        <v>5.575428262606041</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.5891824026294403</v>
+        <v>0.7421752457855124</v>
       </c>
       <c r="B297" t="n">
-        <v>1.297165561502188</v>
+        <v>1.958713311840013</v>
       </c>
       <c r="C297" t="n">
-        <v>2.21042217601863</v>
+        <v>3.10285531272168</v>
       </c>
       <c r="D297" t="n">
-        <v>3.167949285445638</v>
+        <v>4.029478538800912</v>
       </c>
       <c r="E297" t="n">
-        <v>4.471208931110693</v>
+        <v>4.876214338386248</v>
       </c>
       <c r="F297" t="n">
-        <v>5.962344514957383</v>
+        <v>6.258744951246975</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.5825836899943218</v>
+        <v>0.7591418431035863</v>
       </c>
       <c r="B298" t="n">
-        <v>1.383543088885425</v>
+        <v>2.028915625301473</v>
       </c>
       <c r="C298" t="n">
-        <v>2.192785895448558</v>
+        <v>3.205973930634918</v>
       </c>
       <c r="D298" t="n">
-        <v>3.141645169756209</v>
+        <v>4.146804251666675</v>
       </c>
       <c r="E298" t="n">
-        <v>4.448545574191111</v>
+        <v>5.382773457735967</v>
       </c>
       <c r="F298" t="n">
-        <v>6.030434103619356</v>
+        <v>7.037506679296628</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.5558060780635206</v>
+        <v>0.7304588741762962</v>
       </c>
       <c r="B299" t="n">
-        <v>1.299465474139951</v>
+        <v>1.905255901876135</v>
       </c>
       <c r="C299" t="n">
-        <v>2.169450590337088</v>
+        <v>2.98209406024881</v>
       </c>
       <c r="D299" t="n">
-        <v>3.103299484120942</v>
+        <v>3.854839034383717</v>
       </c>
       <c r="E299" t="n">
-        <v>4.388720942919049</v>
+        <v>4.820453795466642</v>
       </c>
       <c r="F299" t="n">
-        <v>5.939626491917586</v>
+        <v>6.322421009213517</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.5458907850982994</v>
+        <v>0.7049214259024892</v>
       </c>
       <c r="B300" t="n">
-        <v>1.237333142960515</v>
+        <v>1.807898047990749</v>
       </c>
       <c r="C300" t="n">
-        <v>2.020412886729217</v>
+        <v>2.848568478097612</v>
       </c>
       <c r="D300" t="n">
-        <v>3.084527079467095</v>
+        <v>3.727528934465821</v>
       </c>
       <c r="E300" t="n">
-        <v>4.398666362972754</v>
+        <v>4.583467368570015</v>
       </c>
       <c r="F300" t="n">
-        <v>5.981632552096209</v>
+        <v>6.009645123817389</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.5042214364701427</v>
+        <v>0.7127326348908218</v>
       </c>
       <c r="B301" t="n">
-        <v>1.254124328422614</v>
+        <v>1.826829903539649</v>
       </c>
       <c r="C301" t="n">
-        <v>2.065813169821255</v>
+        <v>2.885922070495957</v>
       </c>
       <c r="D301" t="n">
-        <v>3.069537114314662</v>
+        <v>3.786350670071303</v>
       </c>
       <c r="E301" t="n">
-        <v>4.375846381962264</v>
+        <v>4.612608930938933</v>
       </c>
       <c r="F301" t="n">
-        <v>5.937329363514044</v>
+        <v>5.852366958554081</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.471318637277664</v>
+        <v>0.6316011477477811</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9516648209828469</v>
+        <v>1.490869600821751</v>
       </c>
       <c r="C302" t="n">
-        <v>1.659782106607207</v>
+        <v>2.336854769479567</v>
       </c>
       <c r="D302" t="n">
-        <v>2.404418962847159</v>
+        <v>3.124857341364256</v>
       </c>
       <c r="E302" t="n">
-        <v>4.382025601302268</v>
+        <v>3.180164255928386</v>
       </c>
       <c r="F302" t="n">
-        <v>5.857995483431361</v>
+        <v>3.836968870866993</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.498489092359107</v>
+        <v>0.6767514699672856</v>
       </c>
       <c r="B303" t="n">
-        <v>1.188183748379748</v>
+        <v>1.689230139057597</v>
       </c>
       <c r="C303" t="n">
-        <v>2.216729084272517</v>
+        <v>2.683596029663894</v>
       </c>
       <c r="D303" t="n">
-        <v>3.127831960269205</v>
+        <v>3.566749618185213</v>
       </c>
       <c r="E303" t="n">
-        <v>4.428152505359209</v>
+        <v>4.235036613506741</v>
       </c>
       <c r="F303" t="n">
-        <v>5.981248997270563</v>
+        <v>5.326114009093336</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.4840887417260388</v>
+        <v>0.661873009960279</v>
       </c>
       <c r="B304" t="n">
-        <v>1.138573890318502</v>
+        <v>1.635010373397739</v>
       </c>
       <c r="C304" t="n">
-        <v>2.048319821463678</v>
+        <v>2.359880488121744</v>
       </c>
       <c r="D304" t="n">
-        <v>2.926660823280552</v>
+        <v>2.964290888901976</v>
       </c>
       <c r="E304" t="n">
-        <v>4.223525918757866</v>
+        <v>3.944243292559332</v>
       </c>
       <c r="F304" t="n">
-        <v>6.03954246712731</v>
+        <v>5.034023669413788</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.4579820490453898</v>
+        <v>0.6617691808960506</v>
       </c>
       <c r="B305" t="n">
-        <v>1.049252122885416</v>
+        <v>1.618967667799925</v>
       </c>
       <c r="C305" t="n">
-        <v>1.700568604053741</v>
+        <v>2.098764936734478</v>
       </c>
       <c r="D305" t="n">
-        <v>2.57831862337056</v>
+        <v>2.674717885903562</v>
       </c>
       <c r="E305" t="n">
-        <v>3.973973335439893</v>
+        <v>3.682164676294415</v>
       </c>
       <c r="F305" t="n">
-        <v>6.078307243614927</v>
+        <v>4.989538727664824</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.463317353002661</v>
+        <v>0.6673807399881366</v>
       </c>
       <c r="B306" t="n">
-        <v>1.11436006677438</v>
+        <v>1.657521656108194</v>
       </c>
       <c r="C306" t="n">
-        <v>1.835975090279323</v>
+        <v>2.201909985539553</v>
       </c>
       <c r="D306" t="n">
-        <v>2.66864850645032</v>
+        <v>2.800290354225225</v>
       </c>
       <c r="E306" t="n">
-        <v>4.19253209414669</v>
+        <v>3.877152192318494</v>
       </c>
       <c r="F306" t="n">
-        <v>6.136477506158148</v>
+        <v>5.337928693031497</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.4557154372096725</v>
+        <v>0.689321340605166</v>
       </c>
       <c r="B307" t="n">
-        <v>1.209695510328893</v>
+        <v>1.749835570764303</v>
       </c>
       <c r="C307" t="n">
-        <v>1.913137021442297</v>
+        <v>2.34999114545446</v>
       </c>
       <c r="D307" t="n">
-        <v>2.858602407006626</v>
+        <v>3.02217878346593</v>
       </c>
       <c r="E307" t="n">
-        <v>4.557076011518372</v>
+        <v>4.250850886213408</v>
       </c>
       <c r="F307" t="n">
-        <v>7.370413257133682</v>
+        <v>6.014807854831236</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.4619533607612967</v>
+        <v>0.6739585922022293</v>
       </c>
       <c r="B308" t="n">
-        <v>1.179593710748523</v>
+        <v>1.690502060744631</v>
       </c>
       <c r="C308" t="n">
-        <v>1.926153543878089</v>
+        <v>2.287150613869577</v>
       </c>
       <c r="D308" t="n">
-        <v>2.769544067508828</v>
+        <v>2.880952847190656</v>
       </c>
       <c r="E308" t="n">
-        <v>4.060571594858087</v>
+        <v>3.85165566506408</v>
       </c>
       <c r="F308" t="n">
-        <v>6.345344804091434</v>
+        <v>5.146212062534477</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.4504923150993452</v>
+        <v>0.6711452436670469</v>
       </c>
       <c r="B309" t="n">
-        <v>1.229391604179066</v>
+        <v>1.692813108802975</v>
       </c>
       <c r="C309" t="n">
-        <v>2.017988355100857</v>
+        <v>2.4984312684305</v>
       </c>
       <c r="D309" t="n">
-        <v>3.185866311233036</v>
+        <v>3.148791589393461</v>
       </c>
       <c r="E309" t="n">
-        <v>4.566296856690215</v>
+        <v>4.212163953554176</v>
       </c>
       <c r="F309" t="n">
-        <v>7.06379010366132</v>
+        <v>5.652628018249922</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.4511739600759164</v>
+        <v>0.6382220759141146</v>
       </c>
       <c r="B310" t="n">
-        <v>1.113623427817949</v>
+        <v>1.542245501063385</v>
       </c>
       <c r="C310" t="n">
-        <v>1.809015371435584</v>
+        <v>2.064345043379087</v>
       </c>
       <c r="D310" t="n">
-        <v>2.679844727640333</v>
+        <v>2.559321441475639</v>
       </c>
       <c r="E310" t="n">
-        <v>3.671661987729843</v>
+        <v>3.293894658627057</v>
       </c>
       <c r="F310" t="n">
-        <v>5.697673588853423</v>
+        <v>4.35576818708536</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.4378060496394253</v>
+        <v>0.6666825758791061</v>
       </c>
       <c r="B311" t="n">
-        <v>1.196226761284391</v>
+        <v>1.672665896173081</v>
       </c>
       <c r="C311" t="n">
-        <v>1.981796160613137</v>
+        <v>2.411305093706643</v>
       </c>
       <c r="D311" t="n">
-        <v>3.077218991043472</v>
+        <v>3.023584969961936</v>
       </c>
       <c r="E311" t="n">
-        <v>4.250584628826116</v>
+        <v>3.991165143977814</v>
       </c>
       <c r="F311" t="n">
-        <v>6.576655521400086</v>
+        <v>5.334609462832015</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.6094300373518147</v>
+        <v>0.6598567946467541</v>
       </c>
       <c r="B312" t="n">
-        <v>1.217412953983502</v>
+        <v>1.644944014947411</v>
       </c>
       <c r="C312" t="n">
-        <v>1.995250540036239</v>
+        <v>2.3966340898708</v>
       </c>
       <c r="D312" t="n">
-        <v>3.078902439516662</v>
+        <v>3.006183208541076</v>
       </c>
       <c r="E312" t="n">
-        <v>4.229792551322626</v>
+        <v>3.938415795469172</v>
       </c>
       <c r="F312" t="n">
-        <v>6.460157888797514</v>
+        <v>5.225503849768794</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.6088108431113842</v>
+        <v>0.6627828940025704</v>
       </c>
       <c r="B313" t="n">
-        <v>1.26322769846187</v>
+        <v>1.650256998586751</v>
       </c>
       <c r="C313" t="n">
-        <v>2.082924671982399</v>
+        <v>2.481821946300837</v>
       </c>
       <c r="D313" t="n">
-        <v>3.149755238034352</v>
+        <v>3.087558090205377</v>
       </c>
       <c r="E313" t="n">
-        <v>4.227369515684153</v>
+        <v>3.985352857157968</v>
       </c>
       <c r="F313" t="n">
-        <v>6.371044257487929</v>
+        <v>5.253524182118744</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.607825964412726</v>
+        <v>0.6081788375242831</v>
       </c>
       <c r="B314" t="n">
-        <v>1.069780004528577</v>
+        <v>1.420938113099258</v>
       </c>
       <c r="C314" t="n">
-        <v>2.059422034580577</v>
+        <v>1.918371028980566</v>
       </c>
       <c r="D314" t="n">
-        <v>2.391192043843733</v>
+        <v>2.344259237948455</v>
       </c>
       <c r="E314" t="n">
-        <v>3.00769615951352</v>
+        <v>2.873834995447643</v>
       </c>
       <c r="F314" t="n">
-        <v>4.634876548982838</v>
+        <v>3.71984117699226</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.607313284648054</v>
+        <v>0.6007596221736082</v>
       </c>
       <c r="B315" t="n">
-        <v>1.070103172120703</v>
+        <v>1.384642687893419</v>
       </c>
       <c r="C315" t="n">
-        <v>2.055555747171913</v>
+        <v>1.63207384953171</v>
       </c>
       <c r="D315" t="n">
-        <v>2.086697362901325</v>
+        <v>1.96406601994553</v>
       </c>
       <c r="E315" t="n">
-        <v>2.475557749754781</v>
+        <v>2.263556010230744</v>
       </c>
       <c r="F315" t="n">
-        <v>3.752541773097137</v>
+        <v>2.739762860806666</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.6066534736598911</v>
+        <v>0.5903105002546734</v>
       </c>
       <c r="B316" t="n">
         <v>1.069850895119334</v>
       </c>
       <c r="C316" t="n">
-        <v>2.052777216278326</v>
+        <v>1.679036038888035</v>
       </c>
       <c r="D316" t="n">
-        <v>2.011402960972966</v>
+        <v>2.046636502524344</v>
       </c>
       <c r="E316" t="n">
-        <v>2.450727588333583</v>
+        <v>2.447693334751573</v>
       </c>
       <c r="F316" t="n">
-        <v>3.769259978831775</v>
+        <v>3.080953102684481</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.606141986243763</v>
+        <v>0.6027457914614491</v>
       </c>
       <c r="B317" t="n">
         <v>1.069586456154132</v>
       </c>
       <c r="C317" t="n">
-        <v>2.054974272783966</v>
+        <v>2.255407426063363</v>
       </c>
       <c r="D317" t="n">
-        <v>2.277263696491618</v>
+        <v>2.246037227702504</v>
       </c>
       <c r="E317" t="n">
-        <v>2.856350607780015</v>
+        <v>2.74526473697895</v>
       </c>
       <c r="F317" t="n">
-        <v>4.217683016656892</v>
+        <v>3.442424543893503</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.6054155627783254</v>
+        <v>0.609862814559426</v>
       </c>
       <c r="B318" t="n">
         <v>1.069064531388354</v>
       </c>
       <c r="C318" t="n">
-        <v>2.048756312730591</v>
+        <v>2.299713293514336</v>
       </c>
       <c r="D318" t="n">
-        <v>2.255227741992045</v>
+        <v>2.229811101819664</v>
       </c>
       <c r="E318" t="n">
-        <v>2.807274902117729</v>
+        <v>2.704398960866618</v>
       </c>
       <c r="F318" t="n">
-        <v>4.044952004290002</v>
+        <v>3.324285872283724</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.6052065706612019</v>
+        <v>0.5649656072459679</v>
       </c>
       <c r="B319" t="n">
         <v>1.070044066033297</v>
       </c>
       <c r="C319" t="n">
-        <v>2.055110491367718</v>
+        <v>1.936126787418927</v>
       </c>
       <c r="D319" t="n">
-        <v>1.65022394039792</v>
+        <v>1.614091862131936</v>
       </c>
       <c r="E319" t="n">
-        <v>1.89412174484496</v>
+        <v>1.786975769482333</v>
       </c>
       <c r="F319" t="n">
-        <v>2.609876872139539</v>
+        <v>2.038146154169157</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.604876457044522</v>
+        <v>0.5663152439276704</v>
       </c>
       <c r="B320" t="n">
         <v>1.07048095965058</v>
       </c>
       <c r="C320" t="n">
-        <v>2.059271060291978</v>
+        <v>1.301978339603656</v>
       </c>
       <c r="D320" t="n">
-        <v>1.536617100669396</v>
+        <v>1.57796216427487</v>
       </c>
       <c r="E320" t="n">
-        <v>1.808011504140127</v>
+        <v>1.776346677381833</v>
       </c>
       <c r="F320" t="n">
-        <v>2.517721275823748</v>
+        <v>2.029325235321632</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.6045701326463735</v>
+        <v>0.5860994826561079</v>
       </c>
       <c r="B321" t="n">
         <v>1.070724788006591</v>
       </c>
       <c r="C321" t="n">
-        <v>1.631806315027282</v>
+        <v>1.605372535446635</v>
       </c>
       <c r="D321" t="n">
-        <v>2.074376219902678</v>
+        <v>1.950675075584001</v>
       </c>
       <c r="E321" t="n">
-        <v>2.531111136626785</v>
+        <v>2.279046871382479</v>
       </c>
       <c r="F321" t="n">
-        <v>3.383278746818261</v>
+        <v>2.620367316711699</v>
       </c>
     </row>
     <row r="322">
@@ -6873,16 +6873,16 @@
         <v>1.070275290315154</v>
       </c>
       <c r="C322" t="n">
-        <v>1.551503848274799</v>
+        <v>1.552404496173993</v>
       </c>
       <c r="D322" t="n">
-        <v>1.976684853195279</v>
+        <v>1.894563305692629</v>
       </c>
       <c r="E322" t="n">
-        <v>2.441334890853939</v>
+        <v>2.247413580438041</v>
       </c>
       <c r="F322" t="n">
-        <v>3.397654410545572</v>
+        <v>2.741822339220192</v>
       </c>
     </row>
     <row r="323">
@@ -6893,16 +6893,16 @@
         <v>1.07004562440936</v>
       </c>
       <c r="C323" t="n">
-        <v>1.68571102257336</v>
+        <v>1.712978284228835</v>
       </c>
       <c r="D323" t="n">
-        <v>2.22476922137459</v>
+        <v>2.156238495202116</v>
       </c>
       <c r="E323" t="n">
-        <v>2.970125927105693</v>
+        <v>2.757430687142705</v>
       </c>
       <c r="F323" t="n">
-        <v>4.369287760903775</v>
+        <v>3.656061887407647</v>
       </c>
     </row>
     <row r="324">
@@ -6913,16 +6913,16 @@
         <v>1.069456217456281</v>
       </c>
       <c r="C324" t="n">
-        <v>2.634325846464343</v>
+        <v>2.612540787766188</v>
       </c>
       <c r="D324" t="n">
-        <v>3.46337666482954</v>
+        <v>3.318966245958852</v>
       </c>
       <c r="E324" t="n">
-        <v>4.792141986109884</v>
+        <v>4.467085825075624</v>
       </c>
       <c r="F324" t="n">
-        <v>6.939000067812014</v>
+        <v>6.010865768996265</v>
       </c>
     </row>
     <row r="325">
@@ -6933,16 +6933,16 @@
         <v>1.068949676907939</v>
       </c>
       <c r="C325" t="n">
-        <v>2.519268005006031</v>
+        <v>2.572636590208337</v>
       </c>
       <c r="D325" t="n">
-        <v>3.326870318847628</v>
+        <v>3.291120407448783</v>
       </c>
       <c r="E325" t="n">
-        <v>4.67261773443742</v>
+        <v>4.471394893541706</v>
       </c>
       <c r="F325" t="n">
-        <v>6.806855556008616</v>
+        <v>6.116892930823742</v>
       </c>
     </row>
     <row r="326">
@@ -6953,16 +6953,16 @@
         <v>1.066802866112613</v>
       </c>
       <c r="C326" t="n">
-        <v>2.427388615113502</v>
+        <v>2.55930859052821</v>
       </c>
       <c r="D326" t="n">
-        <v>3.182216712026099</v>
+        <v>3.245554870934702</v>
       </c>
       <c r="E326" t="n">
-        <v>4.463627266312964</v>
+        <v>4.371801014781229</v>
       </c>
       <c r="F326" t="n">
-        <v>6.491123836777824</v>
+        <v>5.970470899778514</v>
       </c>
     </row>
     <row r="327">
@@ -6973,16 +6973,16 @@
         <v>1.063950792071172</v>
       </c>
       <c r="C327" t="n">
-        <v>2.234619519060801</v>
+        <v>2.392523806416595</v>
       </c>
       <c r="D327" t="n">
-        <v>2.909798939332571</v>
+        <v>3.007780364723996</v>
       </c>
       <c r="E327" t="n">
-        <v>4.053246758372069</v>
+        <v>3.977694234957742</v>
       </c>
       <c r="F327" t="n">
-        <v>5.796877515579133</v>
+        <v>5.310003954065355</v>
       </c>
     </row>
     <row r="328">
@@ -6993,16 +6993,16 @@
         <v>1.060988020433835</v>
       </c>
       <c r="C328" t="n">
-        <v>2.168481857868813</v>
+        <v>2.341379520207894</v>
       </c>
       <c r="D328" t="n">
-        <v>2.786178142513252</v>
+        <v>2.929074610586619</v>
       </c>
       <c r="E328" t="n">
-        <v>3.860318117282734</v>
+        <v>3.853833494939146</v>
       </c>
       <c r="F328" t="n">
-        <v>5.460412570089396</v>
+        <v>5.122779258020065</v>
       </c>
     </row>
     <row r="329">
@@ -7013,16 +7013,16 @@
         <v>1.058475506630011</v>
       </c>
       <c r="C329" t="n">
-        <v>1.917894910754394</v>
+        <v>2.102726626704739</v>
       </c>
       <c r="D329" t="n">
-        <v>2.462512057601423</v>
+        <v>2.622255503671359</v>
       </c>
       <c r="E329" t="n">
-        <v>3.433825873824071</v>
+        <v>3.431158774178872</v>
       </c>
       <c r="F329" t="n">
-        <v>4.850525785832867</v>
+        <v>4.5469480339511</v>
       </c>
     </row>
     <row r="330">
@@ -7033,16 +7033,16 @@
         <v>1.056188569015776</v>
       </c>
       <c r="C330" t="n">
-        <v>1.750545420715605</v>
+        <v>1.975473656539106</v>
       </c>
       <c r="D330" t="n">
-        <v>2.243584988527947</v>
+        <v>2.461405398470892</v>
       </c>
       <c r="E330" t="n">
-        <v>3.129593352718582</v>
+        <v>3.197419361846156</v>
       </c>
       <c r="F330" t="n">
-        <v>4.403240051101083</v>
+        <v>4.219935353842622</v>
       </c>
     </row>
     <row r="331">
@@ -7053,16 +7053,16 @@
         <v>1.052142591653812</v>
       </c>
       <c r="C331" t="n">
-        <v>1.489990092368443</v>
+        <v>1.771215289893009</v>
       </c>
       <c r="D331" t="n">
-        <v>1.994834048438384</v>
+        <v>2.200962124521749</v>
       </c>
       <c r="E331" t="n">
-        <v>2.830146850713127</v>
+        <v>2.83824779278823</v>
       </c>
       <c r="F331" t="n">
-        <v>4.058528891760274</v>
+        <v>3.690001539446428</v>
       </c>
     </row>
     <row r="332">
@@ -7076,13 +7076,13 @@
         <v>1.484627359086414</v>
       </c>
       <c r="D332" t="n">
-        <v>1.949995421713778</v>
+        <v>2.249118282385267</v>
       </c>
       <c r="E332" t="n">
-        <v>2.773971101502585</v>
+        <v>2.921113305949875</v>
       </c>
       <c r="F332" t="n">
-        <v>3.920266039678442</v>
+        <v>3.517818204109373</v>
       </c>
     </row>
     <row r="333">
@@ -7096,13 +7096,13 @@
         <v>1.480971296483477</v>
       </c>
       <c r="D333" t="n">
-        <v>1.471486004747056</v>
+        <v>1.809947790927579</v>
       </c>
       <c r="E333" t="n">
-        <v>2.002420552849602</v>
+        <v>2.22445278139428</v>
       </c>
       <c r="F333" t="n">
-        <v>2.899610625672135</v>
+        <v>2.465320092081027</v>
       </c>
     </row>
     <row r="334">
@@ -7116,13 +7116,13 @@
         <v>1.475863679683625</v>
       </c>
       <c r="D334" t="n">
-        <v>1.834803613898537</v>
+        <v>2.121677917258903</v>
       </c>
       <c r="E334" t="n">
-        <v>2.577418410002386</v>
+        <v>2.708420864659192</v>
       </c>
       <c r="F334" t="n">
-        <v>3.534394118129148</v>
+        <v>3.003755267152615</v>
       </c>
     </row>
     <row r="335">
@@ -7136,13 +7136,13 @@
         <v>1.471156239696633</v>
       </c>
       <c r="D335" t="n">
-        <v>1.830356371667119</v>
+        <v>2.074027381938445</v>
       </c>
       <c r="E335" t="n">
-        <v>2.439715772965764</v>
+        <v>2.685460036792987</v>
       </c>
       <c r="F335" t="n">
-        <v>3.510902342157712</v>
+        <v>2.975423797295669</v>
       </c>
     </row>
     <row r="336">
@@ -7156,13 +7156,13 @@
         <v>1.468977426516939</v>
       </c>
       <c r="D336" t="n">
-        <v>1.816608380024437</v>
+        <v>1.98646931850503</v>
       </c>
       <c r="E336" t="n">
-        <v>2.519902191076849</v>
+        <v>2.766871032957944</v>
       </c>
       <c r="F336" t="n">
-        <v>3.680243644611384</v>
+        <v>2.982570166741331</v>
       </c>
     </row>
     <row r="337">
@@ -7176,13 +7176,13 @@
         <v>1.466716418370523</v>
       </c>
       <c r="D337" t="n">
-        <v>1.801097873593736</v>
+        <v>1.680363620595342</v>
       </c>
       <c r="E337" t="n">
-        <v>2.474350760609777</v>
+        <v>2.636154269114638</v>
       </c>
       <c r="F337" t="n">
-        <v>3.514912451087765</v>
+        <v>2.666445523599162</v>
       </c>
     </row>
     <row r="338">
@@ -7196,13 +7196,13 @@
         <v>1.462749462755402</v>
       </c>
       <c r="D338" t="n">
-        <v>1.775917346120589</v>
+        <v>1.675845668693263</v>
       </c>
       <c r="E338" t="n">
-        <v>2.855357539204824</v>
+        <v>3.102020709919988</v>
       </c>
       <c r="F338" t="n">
-        <v>4.013878139450963</v>
+        <v>3.39578500934649</v>
       </c>
     </row>
     <row r="339">
@@ -7216,13 +7216,13 @@
         <v>1.458307680321163</v>
       </c>
       <c r="D339" t="n">
-        <v>1.747441944374559</v>
+        <v>1.670421913699153</v>
       </c>
       <c r="E339" t="n">
-        <v>3.401561555515261</v>
+        <v>3.483213722772415</v>
       </c>
       <c r="F339" t="n">
-        <v>4.887306949831974</v>
+        <v>3.840698944693203</v>
       </c>
     </row>
     <row r="340">
@@ -7236,13 +7236,13 @@
         <v>1.45365313078952</v>
       </c>
       <c r="D340" t="n">
-        <v>1.719503356621886</v>
+        <v>1.66506969652249</v>
       </c>
       <c r="E340" t="n">
-        <v>2.695131391441894</v>
+        <v>2.982581390982418</v>
       </c>
       <c r="F340" t="n">
-        <v>4.153200243401258</v>
+        <v>3.170301117883701</v>
       </c>
     </row>
     <row r="341">
@@ -7256,13 +7256,13 @@
         <v>1.446903349325325</v>
       </c>
       <c r="D341" t="n">
-        <v>1.680435816433852</v>
+        <v>1.656908044244463</v>
       </c>
       <c r="E341" t="n">
-        <v>3.005911953049091</v>
+        <v>3.366518722798421</v>
       </c>
       <c r="F341" t="n">
-        <v>4.380807383787348</v>
+        <v>3.675120652450595</v>
       </c>
     </row>
     <row r="342">
@@ -7279,10 +7279,10 @@
         <v>1.648722779292551</v>
       </c>
       <c r="E342" t="n">
-        <v>2.280969573621132</v>
+        <v>2.855105847941552</v>
       </c>
       <c r="F342" t="n">
-        <v>3.679856138963078</v>
+        <v>3.035285073795295</v>
       </c>
     </row>
     <row r="343">
@@ -7299,10 +7299,10 @@
         <v>1.641149413617304</v>
       </c>
       <c r="E343" t="n">
-        <v>2.125911947157688</v>
+        <v>2.838462573119507</v>
       </c>
       <c r="F343" t="n">
-        <v>3.304189714842162</v>
+        <v>2.886080438047335</v>
       </c>
     </row>
     <row r="344">
@@ -7319,10 +7319,10 @@
         <v>1.632446550778761</v>
       </c>
       <c r="E344" t="n">
-        <v>2.151921391076781</v>
+        <v>2.901708822612031</v>
       </c>
       <c r="F344" t="n">
-        <v>3.267254723714785</v>
+        <v>2.97994829394368</v>
       </c>
     </row>
     <row r="345">
@@ -7339,10 +7339,10 @@
         <v>1.623226077411993</v>
       </c>
       <c r="E345" t="n">
-        <v>1.706767296304305</v>
+        <v>2.526727796708924</v>
       </c>
       <c r="F345" t="n">
-        <v>2.875027697664231</v>
+        <v>2.48783762041497</v>
       </c>
     </row>
     <row r="346">
@@ -7359,10 +7359,10 @@
         <v>1.614436126890967</v>
       </c>
       <c r="E346" t="n">
-        <v>1.915806686112138</v>
+        <v>2.77405942596774</v>
       </c>
       <c r="F346" t="n">
-        <v>3.229080261246668</v>
+        <v>2.763597339929898</v>
       </c>
     </row>
     <row r="347">
@@ -7379,10 +7379,10 @@
         <v>1.606002399825991</v>
       </c>
       <c r="E347" t="n">
-        <v>2.817086523377249</v>
+        <v>2.73804843377256</v>
       </c>
       <c r="F347" t="n">
-        <v>3.22695314555121</v>
+        <v>2.86459351361345</v>
       </c>
     </row>
     <row r="348">
@@ -7399,10 +7399,10 @@
         <v>1.599227583080445</v>
       </c>
       <c r="E348" t="n">
-        <v>2.766685274296409</v>
+        <v>2.044561800543542</v>
       </c>
       <c r="F348" t="n">
-        <v>2.435194448019445</v>
+        <v>2.14514944251666</v>
       </c>
     </row>
     <row r="349">
@@ -7419,10 +7419,10 @@
         <v>1.595098350963418</v>
       </c>
       <c r="E349" t="n">
-        <v>2.7371658493261</v>
+        <v>2.039527426849365</v>
       </c>
       <c r="F349" t="n">
-        <v>1.347853915712395</v>
+        <v>1.236089730571013</v>
       </c>
     </row>
     <row r="350">
@@ -7439,10 +7439,10 @@
         <v>1.59395738082399</v>
       </c>
       <c r="E350" t="n">
-        <v>2.712659862121003</v>
+        <v>2.038979700776331</v>
       </c>
       <c r="F350" t="n">
-        <v>0.4698961025672848</v>
+        <v>0.5073341209328515</v>
       </c>
     </row>
     <row r="351">
@@ -7459,10 +7459,10 @@
         <v>1.593151505026597</v>
       </c>
       <c r="E351" t="n">
-        <v>2.702741736861843</v>
+        <v>2.038949613557366</v>
       </c>
       <c r="F351" t="n">
-        <v>0.6783520750481085</v>
+        <v>0.7938987899628671</v>
       </c>
     </row>
     <row r="352">
@@ -7479,10 +7479,10 @@
         <v>1.593541105239469</v>
       </c>
       <c r="E352" t="n">
-        <v>2.707114326799305</v>
+        <v>2.040587301319824</v>
       </c>
       <c r="F352" t="n">
-        <v>-0.5323839488016198</v>
+        <v>-0.1122155766798461</v>
       </c>
     </row>
     <row r="353">
@@ -7499,10 +7499,10 @@
         <v>1.595537025628483</v>
       </c>
       <c r="E353" t="n">
-        <v>2.701452476540181</v>
+        <v>2.044064912022085</v>
       </c>
       <c r="F353" t="n">
-        <v>-0.4495388876225483</v>
+        <v>0.05415929533835495</v>
       </c>
     </row>
     <row r="354">
@@ -7519,10 +7519,10 @@
         <v>1.599157023204633</v>
       </c>
       <c r="E354" t="n">
-        <v>2.711882348812517</v>
+        <v>2.050167665170137</v>
       </c>
       <c r="F354" t="n">
-        <v>-1.753116446966642</v>
+        <v>-1.021915861603528</v>
       </c>
     </row>
     <row r="355">
@@ -7539,10 +7539,10 @@
         <v>1.604125636301349</v>
       </c>
       <c r="E355" t="n">
-        <v>2.730938437950302</v>
+        <v>2.057805916485601</v>
       </c>
       <c r="F355" t="n">
-        <v>3.430538905735921</v>
+        <v>-0.9787473988349316</v>
       </c>
     </row>
     <row r="356">
@@ -7559,10 +7559,10 @@
         <v>1.60920340322541</v>
       </c>
       <c r="E356" t="n">
-        <v>2.752816415751639</v>
+        <v>2.066021409111487</v>
       </c>
       <c r="F356" t="n">
-        <v>3.508685856360075</v>
+        <v>-1.007385954221142</v>
       </c>
     </row>
     <row r="357">
@@ -7579,15 +7579,15 @@
         <v>1.616235486938953</v>
       </c>
       <c r="E357" t="n">
-        <v>2.785174529597513</v>
+        <v>2.077505702614646</v>
       </c>
       <c r="F357" t="n">
-        <v>3.544606067732802</v>
+        <v>-2.478442872934306</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.160636208473067</v>
+        <v>0.5541335438022018</v>
       </c>
       <c r="B358" t="n">
         <v>0.9864124540390137</v>
@@ -7599,15 +7599,15 @@
         <v>1.623758842758128</v>
       </c>
       <c r="E358" t="n">
-        <v>2.822136383451481</v>
+        <v>2.089567941348609</v>
       </c>
       <c r="F358" t="n">
-        <v>3.682518144574226</v>
+        <v>-1.43647749538178</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.1697619457302466</v>
+        <v>0.5557061270158193</v>
       </c>
       <c r="B359" t="n">
         <v>0.9898843567764851</v>
@@ -7619,15 +7619,15 @@
         <v>1.631615181642619</v>
       </c>
       <c r="E359" t="n">
-        <v>2.857977404707823</v>
+        <v>2.102122962999874</v>
       </c>
       <c r="F359" t="n">
-        <v>3.844406413735268</v>
+        <v>-0.8840945183595803</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.1741371202953247</v>
+        <v>0.5568400399676326</v>
       </c>
       <c r="B360" t="n">
         <v>0.9923383708057797</v>
@@ -7639,15 +7639,15 @@
         <v>1.637419914073779</v>
       </c>
       <c r="E360" t="n">
-        <v>2.889363059081477</v>
+        <v>2.11140934797665</v>
       </c>
       <c r="F360" t="n">
-        <v>4.061879925114055</v>
+        <v>-0.2502748922916886</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.1731447101471862</v>
+        <v>0.5572313812015834</v>
       </c>
       <c r="B361" t="n">
         <v>0.9934215745487096</v>
@@ -7659,15 +7659,15 @@
         <v>1.640339308530867</v>
       </c>
       <c r="E361" t="n">
-        <v>2.894386810537009</v>
+        <v>2.116350174163135</v>
       </c>
       <c r="F361" t="n">
-        <v>4.137968157271584</v>
+        <v>0.4405145228790222</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.1570341836356336</v>
+        <v>0.5578435732840763</v>
       </c>
       <c r="B362" t="n">
         <v>0.9953242328886596</v>
@@ -7679,15 +7679,15 @@
         <v>1.645286319040543</v>
       </c>
       <c r="E362" t="n">
-        <v>2.916944275688421</v>
+        <v>2.124711646418421</v>
       </c>
       <c r="F362" t="n">
-        <v>4.090128764112805</v>
+        <v>-1.307642428771463</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.1937482938228001</v>
+        <v>0.5593510376832177</v>
       </c>
       <c r="B363" t="n">
         <v>0.9989282005180655</v>
@@ -7699,15 +7699,15 @@
         <v>1.653542142592891</v>
       </c>
       <c r="E363" t="n">
-        <v>2.957799531428904</v>
+        <v>2.138067363517019</v>
       </c>
       <c r="F363" t="n">
-        <v>4.103341453358458</v>
+        <v>-1.476986676503316</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.4190747441911629</v>
+        <v>0.5618902581181274</v>
       </c>
       <c r="B364" t="n">
         <v>1.003756188457008</v>
@@ -7719,15 +7719,15 @@
         <v>1.663573794866529</v>
       </c>
       <c r="E364" t="n">
-        <v>2.963171227178393</v>
+        <v>2.153366717091458</v>
       </c>
       <c r="F364" t="n">
-        <v>4.427359652417055</v>
+        <v>-2.793726876183563</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.5678492733661779</v>
+        <v>0.5644142398984819</v>
       </c>
       <c r="B365" t="n">
         <v>1.008804825512197</v>
@@ -7739,15 +7739,15 @@
         <v>1.674152415120272</v>
       </c>
       <c r="E365" t="n">
-        <v>2.910579519988844</v>
+        <v>2.169780789374423</v>
       </c>
       <c r="F365" t="n">
-        <v>4.497837160547667</v>
+        <v>-4.251839784591263</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.4781851889517398</v>
+        <v>0.5660147469108081</v>
       </c>
       <c r="B366" t="n">
         <v>1.012400848263488</v>
@@ -7759,15 +7759,15 @@
         <v>1.682377745958116</v>
       </c>
       <c r="E366" t="n">
-        <v>3.101663709890293</v>
+        <v>2.182336633487497</v>
       </c>
       <c r="F366" t="n">
-        <v>4.919822744944426</v>
+        <v>-3.321529893621996</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.4413656616199265</v>
+        <v>0.5675214291223732</v>
       </c>
       <c r="B367" t="n">
         <v>1.01570862902312</v>
@@ -7779,15 +7779,15 @@
         <v>1.690003478372288</v>
       </c>
       <c r="E367" t="n">
-        <v>3.184429547302655</v>
+        <v>2.193867075287826</v>
       </c>
       <c r="F367" t="n">
-        <v>5.241272083217639</v>
+        <v>-2.805332928908793</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.440840359812164</v>
+        <v>0.5693347700168315</v>
       </c>
       <c r="B368" t="n">
         <v>1.019524972866761</v>
@@ -7799,15 +7799,15 @@
         <v>1.698306120442241</v>
       </c>
       <c r="E368" t="n">
-        <v>3.2514039592935</v>
+        <v>2.20649216142729</v>
       </c>
       <c r="F368" t="n">
-        <v>5.569597040261468</v>
+        <v>-2.482839970434089</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.3907034837973767</v>
+        <v>0.5703569703834022</v>
       </c>
       <c r="B369" t="n">
         <v>1.021620434563737</v>
@@ -7819,15 +7819,15 @@
         <v>1.702990197230887</v>
       </c>
       <c r="E369" t="n">
-        <v>3.289114729746071</v>
+        <v>2.213034083047803</v>
       </c>
       <c r="F369" t="n">
-        <v>5.55687012756977</v>
+        <v>-0.8830109353060172</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.3798047098362288</v>
+        <v>0.5717463430640923</v>
       </c>
       <c r="B370" t="n">
         <v>1.024424546515418</v>
@@ -7836,18 +7836,18 @@
         <v>1.47166230078576</v>
       </c>
       <c r="D370" t="n">
-        <v>1.709701112260829</v>
+        <v>1.708923610560091</v>
       </c>
       <c r="E370" t="n">
-        <v>3.313049977916386</v>
+        <v>2.221573421793115</v>
       </c>
       <c r="F370" t="n">
-        <v>5.615725896672679</v>
+        <v>-0.8771909410594372</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.3579868508688003</v>
+        <v>0.5731090020961738</v>
       </c>
       <c r="B371" t="n">
         <v>1.027179004685624</v>
@@ -7856,18 +7856,18 @@
         <v>1.475796367746816</v>
       </c>
       <c r="D371" t="n">
-        <v>1.724249202970613</v>
+        <v>1.714463831717472</v>
       </c>
       <c r="E371" t="n">
-        <v>3.340116308501646</v>
+        <v>2.228814671027712</v>
       </c>
       <c r="F371" t="n">
-        <v>5.647004496984471</v>
+        <v>0.4218289883022148</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.3373612935015468</v>
+        <v>0.5747087412382887</v>
       </c>
       <c r="B372" t="n">
         <v>1.030306779171929</v>
@@ -7876,18 +7876,18 @@
         <v>1.480571522603988</v>
       </c>
       <c r="D372" t="n">
-        <v>1.742277608435578</v>
+        <v>1.720892505458182</v>
       </c>
       <c r="E372" t="n">
-        <v>3.363881778172876</v>
+        <v>2.23767207522876</v>
       </c>
       <c r="F372" t="n">
-        <v>5.659651762183368</v>
+        <v>0.3320396755862536</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.3410238718617944</v>
+        <v>0.5762369894702153</v>
       </c>
       <c r="B373" t="n">
         <v>1.033639706349988</v>
@@ -7896,18 +7896,18 @@
         <v>1.485816447666049</v>
       </c>
       <c r="D373" t="n">
-        <v>1.763047649836282</v>
+        <v>1.727971558244589</v>
       </c>
       <c r="E373" t="n">
-        <v>3.405989290446491</v>
+        <v>2.247685175560569</v>
       </c>
       <c r="F373" t="n">
-        <v>5.770749133271222</v>
+        <v>0.873264283037396</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.3156008512511331</v>
+        <v>0.5771054444550163</v>
       </c>
       <c r="B374" t="n">
         <v>1.035532081045992</v>
@@ -7916,18 +7916,18 @@
         <v>1.488711206930172</v>
       </c>
       <c r="D374" t="n">
-        <v>1.771312410892647</v>
+        <v>1.73176692724968</v>
       </c>
       <c r="E374" t="n">
-        <v>3.429595356745704</v>
+        <v>2.251942445836941</v>
       </c>
       <c r="F374" t="n">
-        <v>5.812853760189824</v>
+        <v>1.830532157458272</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.3380796967279197</v>
+        <v>0.5772864976365105</v>
       </c>
       <c r="B375" t="n">
         <v>1.03601129295497</v>
@@ -7936,18 +7936,18 @@
         <v>1.489139762696963</v>
       </c>
       <c r="D375" t="n">
-        <v>1.763036811840348</v>
+        <v>1.731514369902369</v>
       </c>
       <c r="E375" t="n">
-        <v>3.407243042084795</v>
+        <v>2.248955350735534</v>
       </c>
       <c r="F375" t="n">
-        <v>5.693380074360333</v>
+        <v>3.394338255632073</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.3119477878586283</v>
+        <v>0.5767568354136443</v>
       </c>
       <c r="B376" t="n">
         <v>1.034940082279286</v>
@@ -7956,18 +7956,18 @@
         <v>1.486853749576381</v>
       </c>
       <c r="D376" t="n">
-        <v>1.740263260551994</v>
+        <v>1.727247647391657</v>
       </c>
       <c r="E376" t="n">
-        <v>3.389285233877166</v>
+        <v>2.238896593882064</v>
       </c>
       <c r="F376" t="n">
-        <v>5.791120414952053</v>
+        <v>5.397945991348735</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.2985058575638425</v>
+        <v>0.5760960573586982</v>
       </c>
       <c r="B377" t="n">
         <v>1.033617060293919</v>
@@ -7979,15 +7979,15 @@
         <v>1.723151126499422</v>
       </c>
       <c r="E377" t="n">
-        <v>3.361075332777522</v>
+        <v>2.229777230165777</v>
       </c>
       <c r="F377" t="n">
-        <v>5.629935656975916</v>
+        <v>4.943904160258379</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.2672347653186574</v>
+        <v>0.5752876700718691</v>
       </c>
       <c r="B378" t="n">
         <v>1.032065367272183</v>
@@ -7999,15 +7999,15 @@
         <v>1.718842845324081</v>
       </c>
       <c r="E378" t="n">
-        <v>3.324530938719315</v>
+        <v>2.220709080733854</v>
       </c>
       <c r="F378" t="n">
-        <v>5.485554503493004</v>
+        <v>4.941940958460172</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.2682781709383366</v>
+        <v>0.5743722842563416</v>
       </c>
       <c r="B379" t="n">
         <v>1.030045905864445</v>
@@ -8019,15 +8019,15 @@
         <v>1.713441108580655</v>
       </c>
       <c r="E379" t="n">
-        <v>3.29464803805931</v>
+        <v>2.211358668259883</v>
       </c>
       <c r="F379" t="n">
-        <v>5.446202702887732</v>
+        <v>4.439355391323363</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.2569036113717272</v>
+        <v>0.5734338225081806</v>
       </c>
       <c r="B380" t="n">
         <v>1.028066137967758</v>
@@ -8039,15 +8039,15 @@
         <v>1.708530645775696</v>
       </c>
       <c r="E380" t="n">
-        <v>3.24698756504723</v>
+        <v>2.203180351673554</v>
       </c>
       <c r="F380" t="n">
-        <v>4.881096202299577</v>
+        <v>3.659414383068255</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.2384604229042618</v>
+        <v>0.5725379433917838</v>
       </c>
       <c r="B381" t="n">
         <v>1.026130588353826</v>
@@ -8059,15 +8059,15 @@
         <v>1.703546908315977</v>
       </c>
       <c r="E381" t="n">
-        <v>3.197804062884193</v>
+        <v>2.195380762582009</v>
       </c>
       <c r="F381" t="n">
-        <v>5.029801849662869</v>
+        <v>3.814585489552398</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.2409186375312721</v>
+        <v>0.5716241602449165</v>
       </c>
       <c r="B382" t="n">
         <v>1.024062211502163</v>
@@ -8079,15 +8079,15 @@
         <v>1.697605846456369</v>
       </c>
       <c r="E382" t="n">
-        <v>3.13850761358924</v>
+        <v>2.185357097254945</v>
       </c>
       <c r="F382" t="n">
-        <v>5.822417505697856</v>
+        <v>4.620144357226432</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.2265221626294497</v>
+        <v>0.5706514396054569</v>
       </c>
       <c r="B383" t="n">
         <v>1.021419847245343</v>
@@ -8099,15 +8099,15 @@
         <v>1.690951665901868</v>
       </c>
       <c r="E383" t="n">
-        <v>3.085565854201538</v>
+        <v>2.175359558073701</v>
       </c>
       <c r="F383" t="n">
-        <v>5.911013341846711</v>
+        <v>4.691398428275496</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.203629517933035</v>
+        <v>0.5695821610201588</v>
       </c>
       <c r="B384" t="n">
         <v>1.018555637554762</v>
@@ -8119,15 +8119,15 @@
         <v>1.683899346991744</v>
       </c>
       <c r="E384" t="n">
-        <v>3.040661660701136</v>
+        <v>2.16567628987936</v>
       </c>
       <c r="F384" t="n">
-        <v>5.21668800386008</v>
+        <v>4.2393835892368</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.1586677679504915</v>
+        <v>0.5682016598486187</v>
       </c>
       <c r="B385" t="n">
         <v>1.015045250296151</v>
@@ -8139,15 +8139,15 @@
         <v>1.676180502256643</v>
       </c>
       <c r="E385" t="n">
-        <v>2.975402272369591</v>
+        <v>2.155708663319987</v>
       </c>
       <c r="F385" t="n">
-        <v>5.338759515874616</v>
+        <v>4.028385794900481</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.2160160056342249</v>
+        <v>0.5661841416900339</v>
       </c>
       <c r="B386" t="n">
         <v>1.01014695674721</v>
@@ -8159,15 +8159,15 @@
         <v>1.666517113645938</v>
       </c>
       <c r="E386" t="n">
-        <v>2.914157110697531</v>
+        <v>3.240157785967708</v>
       </c>
       <c r="F386" t="n">
-        <v>5.445716866947768</v>
+        <v>4.088416206936314</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.193112372315033</v>
+        <v>0.5638317609132181</v>
       </c>
       <c r="B387" t="n">
         <v>1.004867796955962</v>
@@ -8179,15 +8179,15 @@
         <v>1.658280788797636</v>
       </c>
       <c r="E387" t="n">
-        <v>2.874908201032539</v>
+        <v>3.366094500844929</v>
       </c>
       <c r="F387" t="n">
-        <v>5.553392104305452</v>
+        <v>4.119503138332128</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.1876819452399666</v>
+        <v>0.5605426018482881</v>
       </c>
       <c r="B388" t="n">
         <v>0.9970466609546902</v>
@@ -8199,15 +8199,15 @@
         <v>1.646432455954352</v>
       </c>
       <c r="E388" t="n">
-        <v>3.761322446599075</v>
+        <v>2.123502326019121</v>
       </c>
       <c r="F388" t="n">
-        <v>6.52903140978882</v>
+        <v>4.363874099161803</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.1873102446220149</v>
+        <v>0.5566230084101625</v>
       </c>
       <c r="B389" t="n">
         <v>0.9879693505811936</v>
@@ -8219,15 +8219,15 @@
         <v>1.63101113336149</v>
       </c>
       <c r="E389" t="n">
-        <v>4.498929479755246</v>
+        <v>2.105373224656297</v>
       </c>
       <c r="F389" t="n">
-        <v>8.049423287163426</v>
+        <v>6.061321855174313</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.2337642735110603</v>
+        <v>0.9737576054010572</v>
       </c>
       <c r="B390" t="n">
         <v>0.9793688640053881</v>
@@ -8239,15 +8239,15 @@
         <v>1.61634330563399</v>
       </c>
       <c r="E390" t="n">
-        <v>4.196678689570211</v>
+        <v>2.087871684102896</v>
       </c>
       <c r="F390" t="n">
-        <v>7.260099920115733</v>
+        <v>5.748891960707219</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.2292520134809503</v>
+        <v>0.8963305891797482</v>
       </c>
       <c r="B391" t="n">
         <v>0.969989833760716</v>
@@ -8259,15 +8259,15 @@
         <v>1.600660119281933</v>
       </c>
       <c r="E391" t="n">
-        <v>3.772526398320997</v>
+        <v>2.067961970895107</v>
       </c>
       <c r="F391" t="n">
-        <v>4.245876061902687</v>
+        <v>4.557643628767226</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.222542915005299</v>
+        <v>0.6878160458765019</v>
       </c>
       <c r="B392" t="n">
         <v>0.9603692087664681</v>
@@ -8279,15 +8279,15 @@
         <v>1.585678438528976</v>
       </c>
       <c r="E392" t="n">
-        <v>2.587319351124105</v>
+        <v>2.049114665148385</v>
       </c>
       <c r="F392" t="n">
-        <v>3.892855946544016</v>
+        <v>2.768584799684771</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.2080750576506067</v>
+        <v>0.903048353851697</v>
       </c>
       <c r="B393" t="n">
         <v>0.9491308420797954</v>
@@ -8299,18 +8299,18 @@
         <v>1.566616606031684</v>
       </c>
       <c r="E393" t="n">
-        <v>3.071877743510827</v>
+        <v>2.024760244751317</v>
       </c>
       <c r="F393" t="n">
-        <v>3.650452349454069</v>
+        <v>3.996927283579663</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.1824157141327276</v>
+        <v>1.078362727750248</v>
       </c>
       <c r="B394" t="n">
-        <v>0.526058519859402</v>
+        <v>0.9356900645336057</v>
       </c>
       <c r="C394" t="n">
         <v>1.341246912559936</v>
@@ -8319,18 +8319,18 @@
         <v>1.544317230874031</v>
       </c>
       <c r="E394" t="n">
-        <v>3.583749000766116</v>
+        <v>1.995963494606681</v>
       </c>
       <c r="F394" t="n">
-        <v>3.471043186792166</v>
+        <v>4.566658788451642</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.229853663505365</v>
+        <v>1.099759061603491</v>
       </c>
       <c r="B395" t="n">
-        <v>0.5107344673459611</v>
+        <v>0.9227847414694148</v>
       </c>
       <c r="C395" t="n">
         <v>1.323674933797816</v>
@@ -8339,18 +8339,18 @@
         <v>1.522835741011123</v>
       </c>
       <c r="E395" t="n">
-        <v>3.570892145776954</v>
+        <v>1.967555205940802</v>
       </c>
       <c r="F395" t="n">
-        <v>3.260492517062501</v>
+        <v>4.975876018223008</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.2220921126513341</v>
+        <v>0.8202733156411468</v>
       </c>
       <c r="B396" t="n">
-        <v>0.2424656377481939</v>
+        <v>0.9108534035639843</v>
       </c>
       <c r="C396" t="n">
         <v>1.308302395182938</v>
@@ -8359,18 +8359,18 @@
         <v>1.504076355143119</v>
       </c>
       <c r="E396" t="n">
-        <v>2.175306493578059</v>
+        <v>1.942955199327714</v>
       </c>
       <c r="F396" t="n">
-        <v>2.748629394468961</v>
+        <v>2.793587228305712</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.197273853887878</v>
+        <v>0.8187111530729554</v>
       </c>
       <c r="B397" t="n">
-        <v>0.03434981605624954</v>
+        <v>0.898960770196485</v>
       </c>
       <c r="C397" t="n">
         <v>1.292512532757225</v>
@@ -8379,18 +8379,18 @@
         <v>1.484664797758796</v>
       </c>
       <c r="E397" t="n">
-        <v>1.602581760314683</v>
+        <v>1.916278230517515</v>
       </c>
       <c r="F397" t="n">
-        <v>2.249244598935216</v>
+        <v>2.953945126626692</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.1644531274719309</v>
+        <v>0.6019945542577456</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.1582541468270368</v>
+        <v>0.8892450254303146</v>
       </c>
       <c r="C398" t="n">
         <v>1.280246288833001</v>
@@ -8399,18 +8399,18 @@
         <v>1.469958317527308</v>
       </c>
       <c r="E398" t="n">
-        <v>0.7271813974612387</v>
+        <v>1.896619813320492</v>
       </c>
       <c r="F398" t="n">
-        <v>1.933062246851476</v>
+        <v>2.036741524417858</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1472709064898514</v>
+        <v>0.6452376526355506</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.2067723160517712</v>
+        <v>0.8783624449233445</v>
       </c>
       <c r="C399" t="n">
         <v>1.265723928602416</v>
@@ -8419,18 +8419,18 @@
         <v>1.451996456670756</v>
       </c>
       <c r="E399" t="n">
-        <v>0.7157918412486568</v>
+        <v>1.872184472926372</v>
       </c>
       <c r="F399" t="n">
-        <v>1.734383986915217</v>
+        <v>1.791936110199138</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.1595439204534257</v>
+        <v>0.5219270495667461</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.277258364178345</v>
+        <v>0.8733454295423747</v>
       </c>
       <c r="C400" t="n">
         <v>1.25896477254684</v>
@@ -8439,18 +8439,18 @@
         <v>1.443146242886434</v>
       </c>
       <c r="E400" t="n">
-        <v>0.006288208989575494</v>
+        <v>1.859121097547953</v>
       </c>
       <c r="F400" t="n">
-        <v>1.411425261676189</v>
+        <v>1.265680484540618</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.1407708804704965</v>
+        <v>0.4237154039919747</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.3679146172455722</v>
+        <v>0.8696521595750526</v>
       </c>
       <c r="C401" t="n">
         <v>1.254831576766199</v>
@@ -8459,15 +8459,15 @@
         <v>1.438448501381136</v>
       </c>
       <c r="E401" t="n">
-        <v>-0.358071025353184</v>
+        <v>1.85263284279686</v>
       </c>
       <c r="F401" t="n">
-        <v>1.226957230218129</v>
+        <v>1.083372435734029</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.1008009493508603</v>
+        <v>0.4860477075736087</v>
       </c>
       <c r="B402" t="n">
         <v>0.8639101338633395</v>
@@ -8479,15 +8479,15 @@
         <v>1.430696342842503</v>
       </c>
       <c r="E402" t="n">
-        <v>-0.4170995903401427</v>
+        <v>1.842458426567786</v>
       </c>
       <c r="F402" t="n">
-        <v>1.144460759257971</v>
+        <v>0.5732715724950577</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.1033541593425594</v>
+        <v>0.4816421033981943</v>
       </c>
       <c r="B403" t="n">
         <v>0.8567443709989218</v>
@@ -8499,18 +8499,18 @@
         <v>1.42083228933311</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.2927642072951118</v>
+        <v>1.83013103034678</v>
       </c>
       <c r="F403" t="n">
-        <v>0.9882575775205154</v>
+        <v>0.5399877549906851</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.07413295074528978</v>
+        <v>0.4768780742346764</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.5216443763882065</v>
+        <v>0.8484791490140308</v>
       </c>
       <c r="C404" t="n">
         <v>1.228566343474871</v>
@@ -8519,18 +8519,18 @@
         <v>1.407891808590649</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.2605657869519797</v>
+        <v>1.812685148560812</v>
       </c>
       <c r="F404" t="n">
-        <v>0.8928657909093489</v>
+        <v>1.033386583559189</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.1091835632316907</v>
+        <v>0.4732567116309979</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.4661414376783</v>
+        <v>0.8429376980735536</v>
       </c>
       <c r="C405" t="n">
         <v>1.221523702398958</v>
@@ -8539,18 +8539,18 @@
         <v>1.399262130114669</v>
       </c>
       <c r="E405" t="n">
-        <v>-0.14992004296862</v>
+        <v>1.8005606185602</v>
       </c>
       <c r="F405" t="n">
-        <v>0.7707280754150316</v>
+        <v>1.678706465666915</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.1136691768424404</v>
+        <v>0.4709685511069131</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4339639349753955</v>
+        <v>0.8393122499700547</v>
       </c>
       <c r="C406" t="n">
         <v>1.216750384205614</v>
@@ -8559,18 +8559,18 @@
         <v>1.39324009779281</v>
       </c>
       <c r="E406" t="n">
-        <v>0.4163936540198176</v>
+        <v>1.791078854030604</v>
       </c>
       <c r="F406" t="n">
-        <v>0.7254905197732371</v>
+        <v>3.244359777494109</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.1262992098026745</v>
+        <v>0.4686767836505573</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.3764386489354913</v>
+        <v>0.8356019820996992</v>
       </c>
       <c r="C407" t="n">
         <v>1.211661641818645</v>
@@ -8579,18 +8579,18 @@
         <v>1.386413757301966</v>
       </c>
       <c r="E407" t="n">
-        <v>0.955228050914279</v>
+        <v>1.77978440816194</v>
       </c>
       <c r="F407" t="n">
-        <v>0.6918067695103056</v>
+        <v>4.376057622205991</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.06514246261989418</v>
+        <v>0.4660643079402328</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.5735870752213975</v>
+        <v>0.8311600616593094</v>
       </c>
       <c r="C408" t="n">
         <v>1.205904770867184</v>
@@ -8599,10 +8599,10 @@
         <v>1.379145666810798</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.340485055889131</v>
+        <v>1.768687582521987</v>
       </c>
       <c r="F408" t="n">
-        <v>0.3782399621544097</v>
+        <v>2.130279475391907</v>
       </c>
     </row>
   </sheetData>
